--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="282">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,98 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,    Davide%Bianchi%NULL%1,    Francesca%Santi%NULL%1,    Luigi%Costantini%NULL%1,    Anna%Odone%NULL%1,    Carlo%Signorelli%NULL%1,    Alessandra%Costanza%NULL%1,    Gianluca%Serafini%NULL%1,    Mario%Amore%NULL%1,    Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
+Methods
+id="Par2"&gt;A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
+ A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
+ Burnout, coping style, anxiety, and depression were measured by specific scales.
+ Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
+Results
+id="Par3"&gt;There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
+ There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
+ The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
+ Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
+Conclusion
+id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
+ Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
+Electronic supplementary material
+The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,     Xinghuang%Liu%NULL%2,     Xinghuang%Liu%NULL%0,     Dongke%Wang%NULL%2,     Dongke%Wang%NULL%0,     Yan%Jin%NULL%2,     Yan%Jin%NULL%0,     Miao%He%NULL%1,     Yanling%Ma%NULL%1,     Xiaolong%Zhao%NULL%1,     Shuangning%Song%NULL%1,     Lei%Zhang%NULL%0,     Xuelian%Xiang%NULL%1,     Ling%Yang%NULL%1,     Jun%Song%song111jun@126.com%1,     Tao%Bai%drbaitao@126.com%4,     Xiaohua%Hou%houxh@hust.edu.cn%2,     Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
+Methods
+A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
+ A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
+ Burnout, coping style, anxiety, and depression were measured by specific scales.
+ Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
+Results
+id="Par3"&gt;There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
+ There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
+ The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
+ Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
+Conclusion
+id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
+ Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
+Electronic supplementary material
+The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,      Xinghuang%Liu%NULL%2,      Xinghuang%Liu%NULL%0,      Dongke%Wang%NULL%2,      Dongke%Wang%NULL%0,      Yan%Jin%NULL%2,      Yan%Jin%NULL%0,      Miao%He%NULL%1,      Yanling%Ma%NULL%1,      Xiaolong%Zhao%NULL%1,      Shuangning%Song%NULL%1,      Lei%Zhang%NULL%1,      Xuelian%Xiang%NULL%1,      Ling%Yang%NULL%1,      Jun%Song%song111jun@126.com%1,      Tao%Bai%drbaitao@126.com%1,      Xiaohua%Hou%houxh@hust.edu.cn%2,      Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
+Methods
+A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
+ A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
+ Burnout, coping style, anxiety, and depression were measured by specific scales.
+ Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
+Results
+There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
+ There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
+ The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
+ Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
+Conclusion
+id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
+ Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
+Electronic supplementary material
+The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,       Xinghuang%Liu%NULL%2,       Xinghuang%Liu%NULL%0,       Dongke%Wang%NULL%2,       Dongke%Wang%NULL%0,       Yan%Jin%NULL%2,       Yan%Jin%NULL%0,       Miao%He%NULL%1,       Yanling%Ma%NULL%1,       Xiaolong%Zhao%NULL%1,       Shuangning%Song%NULL%1,       Lei%Zhang%NULL%1,       Xuelian%Xiang%NULL%1,       Ling%Yang%NULL%1,       Jun%Song%song111jun@126.com%1,       Tao%Bai%drbaitao@126.com%1,       Xiaohua%Hou%houxh@hust.edu.cn%2,       Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
+Methods
+A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
+ A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
+ Burnout, coping style, anxiety, and depression were measured by specific scales.
+ Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
+Results
+There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
+ There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
+ The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
+ Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
+Conclusion
+More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
+ Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
+Electronic supplementary material
+The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,        Xinghuang%Liu%NULL%2,        Xinghuang%Liu%NULL%0,        Dongke%Wang%NULL%2,        Dongke%Wang%NULL%0,        Yan%Jin%NULL%2,        Yan%Jin%NULL%0,        Miao%He%NULL%1,        Yanling%Ma%NULL%1,        Xiaolong%Zhao%NULL%1,        Shuangning%Song%NULL%1,        Lei%Zhang%NULL%1,        Xuelian%Xiang%NULL%1,        Ling%Yang%NULL%1,        Jun%Song%song111jun@126.com%1,        Tao%Bai%drbaitao@126.com%1,        Xiaohua%Hou%houxh@hust.edu.cn%2,        Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -2329,10 +2421,10 @@
         <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,98 +1104,6 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,    Davide%Bianchi%NULL%1,    Francesca%Santi%NULL%1,    Luigi%Costantini%NULL%1,    Anna%Odone%NULL%1,    Carlo%Signorelli%NULL%1,    Alessandra%Costanza%NULL%1,    Gianluca%Serafini%NULL%1,    Mario%Amore%NULL%1,    Andrea%Aguglia%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
-Methods
-id="Par2"&gt;A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
- A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
- Burnout, coping style, anxiety, and depression were measured by specific scales.
- Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
-Results
-id="Par3"&gt;There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
- There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
- The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
- Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
-Conclusion
-id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
- Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
-Electronic supplementary material
-The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jie%Chen%NULL%0,     Xinghuang%Liu%NULL%2,     Xinghuang%Liu%NULL%0,     Dongke%Wang%NULL%2,     Dongke%Wang%NULL%0,     Yan%Jin%NULL%2,     Yan%Jin%NULL%0,     Miao%He%NULL%1,     Yanling%Ma%NULL%1,     Xiaolong%Zhao%NULL%1,     Shuangning%Song%NULL%1,     Lei%Zhang%NULL%0,     Xuelian%Xiang%NULL%1,     Ling%Yang%NULL%1,     Jun%Song%song111jun@126.com%1,     Tao%Bai%drbaitao@126.com%4,     Xiaohua%Hou%houxh@hust.edu.cn%2,     Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
-Methods
-A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
- A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
- Burnout, coping style, anxiety, and depression were measured by specific scales.
- Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
-Results
-id="Par3"&gt;There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
- There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
- The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
- Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
-Conclusion
-id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
- Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
-Electronic supplementary material
-The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jie%Chen%NULL%0,      Xinghuang%Liu%NULL%2,      Xinghuang%Liu%NULL%0,      Dongke%Wang%NULL%2,      Dongke%Wang%NULL%0,      Yan%Jin%NULL%2,      Yan%Jin%NULL%0,      Miao%He%NULL%1,      Yanling%Ma%NULL%1,      Xiaolong%Zhao%NULL%1,      Shuangning%Song%NULL%1,      Lei%Zhang%NULL%1,      Xuelian%Xiang%NULL%1,      Ling%Yang%NULL%1,      Jun%Song%song111jun@126.com%1,      Tao%Bai%drbaitao@126.com%1,      Xiaohua%Hou%houxh@hust.edu.cn%2,      Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
-Methods
-A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
- A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
- Burnout, coping style, anxiety, and depression were measured by specific scales.
- Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
-Results
-There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
- There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
- The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
- Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
-Conclusion
-id="Par4"&gt;More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
- Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
-Electronic supplementary material
-The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jie%Chen%NULL%0,       Xinghuang%Liu%NULL%2,       Xinghuang%Liu%NULL%0,       Dongke%Wang%NULL%2,       Dongke%Wang%NULL%0,       Yan%Jin%NULL%2,       Yan%Jin%NULL%0,       Miao%He%NULL%1,       Yanling%Ma%NULL%1,       Xiaolong%Zhao%NULL%1,       Shuangning%Song%NULL%1,       Lei%Zhang%NULL%1,       Xuelian%Xiang%NULL%1,       Ling%Yang%NULL%1,       Jun%Song%song111jun@126.com%1,       Tao%Bai%drbaitao@126.com%1,       Xiaohua%Hou%houxh@hust.edu.cn%2,       Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
-Methods
-A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
- A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
- Burnout, coping style, anxiety, and depression were measured by specific scales.
- Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
-Results
-There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
- There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
- The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
- Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
-Conclusion
-More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
- Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
-Electronic supplementary material
-The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jie%Chen%NULL%0,        Xinghuang%Liu%NULL%2,        Xinghuang%Liu%NULL%0,        Dongke%Wang%NULL%2,        Dongke%Wang%NULL%0,        Yan%Jin%NULL%2,        Yan%Jin%NULL%0,        Miao%He%NULL%1,        Yanling%Ma%NULL%1,        Xiaolong%Zhao%NULL%1,        Shuangning%Song%NULL%1,        Lei%Zhang%NULL%1,        Xuelian%Xiang%NULL%1,        Ling%Yang%NULL%1,        Jun%Song%song111jun@126.com%1,        Tao%Bai%drbaitao@126.com%1,        Xiaohua%Hou%houxh@hust.edu.cn%2,        Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2329,10 @@
         <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="308">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,108 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,    Davide%Bianchi%NULL%1,    Francesca%Santi%NULL%1,    Luigi%Costantini%NULL%1,    Anna%Odone%NULL%1,    Carlo%Signorelli%NULL%1,    Alessandra%Costanza%NULL%1,    Gianluca%Serafini%NULL%1,    Mario%Amore%NULL%1,    Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,     Martín%Gagliardi%NULL%2,     Martín%Gagliardi%NULL%0,     Nicolas%Coombes%NULL%1,     Federico%Landriel%NULL%2,     Federico%Landriel%NULL%0,     Carlos%Zanardi%NULL%1,     Gastón Camino%Willhuber%NULL%1,     Juan Pablo%Guyot%NULL%1,     Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,     Nathaniel%Scherer%NULL%10,     Lambert%Felix%NULL%20,     Lambert%Felix%NULL%0,     Hannah%Kuper%NULL%20,     Hannah%Kuper%NULL%0,     Jakob%Pietschnig%NULL%20,     Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,     Nathaniel%Scherer%NULL%0,     Lambert%Felix%NULL%0,     Lambert%Felix%NULL%0,     Hannah%Kuper%NULL%0,     Hannah%Kuper%NULL%0,     Jakob%Pietschnig%NULL%0,     Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,     Koffi Mawuse%Guédénon%NULL%2,     Koffi Mawuse%Guédénon%NULL%0,     Ayoko Akouavi%Dogbe Foli%NULL%1,     Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,     Simeng%Ma%NULL%1,     Ying%Wang%NULL%3,     Zhongxiang%Cai%NULL%1,     Jianbo%Hu%NULL%1,     Ning%Wei%NULL%1,     Jiang%Wu%NULL%1,     Hui%Du%NULL%1,     Tingting%Chen%NULL%1,     Ruiting%Li%NULL%1,     Huawei%Tan%NULL%1,     Lijun%Kang%NULL%1,     Lihua%Yao%NULL%1,     Manli%Huang%NULL%1,     Huafen%Wang%NULL%1,     Gaohua%Wang%NULL%1,     Zhongchun%Liu%NULL%1,     Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,     Teresa%Arora%NULL%1,     Ian%Grey%NULL%1,     Lorna Kwai Ping%Suen%NULL%1,     Emma Yun-zhi%Huang%NULL%1,     Daofan%Li%NULL%1,     Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,     Youlin%Chen%NULL%1,     Jianlin%Lv%NULL%1,     Linlin%Liu%NULL%1,     Shiqin%Zong%NULL%1,     Hanxia%Li%NULL%1,     Hong%Li%NULL%1,     Massimo%Tusconi.%NULL%2,     Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,     Hang%Wang%NULL%1,     Yuxing%Lin%NULL%1,     Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,     Eman Zmaily%Dahmash%NULL%2,     Eman Zmaily%Dahmash%NULL%0,     Rabaa%Al‐Rousan%NULL%2,     Rabaa%Al‐Rousan%NULL%0,     Hassan%Alwafi%NULL%1,     Hamzeh Mohammad%Alrawashdeh%NULL%1,     Imene%Ghoul%NULL%1,     Anwer%Abidine%NULL%1,     Mohammed A.%Bokhary%NULL%1,     Hadeel T.%AL‐Hadithi%NULL%1,     Dalia%Ali%NULL%1,     Rasha%Abuthawabeh%NULL%1,     Ghada Mohammad%Abdelwahab%NULL%1,     Yosra J.%Alhartani%NULL%1,     Haneen%Al Muhaisen%NULL%1,     Ayah%Dagash%NULL%1,     Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,     Zahra%Bostani%NULL%1,     Saman%Maroufizadeh%NULL%1,     Atefeh%Ghanbari%NULL%1,     Maryam%Khoshbakht%NULL%1,     Seyed Amirhossein%Alavi%NULL%1,     Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,     Le%Shi%NULL%2,     Le%Shi%NULL%0,     Jiahui%Deng%NULL%1,     Jiajia%Liu%NULL%1,     Li%Zhang%NULL%0,     Suying%Wu%NULL%1,     Yimiao%Gong%NULL%1,     Weizhen%Huang%NULL%1,     Kai%Yuan%NULL%1,     Wei%Yan%NULL%1,     Yankun%Sun%NULL%1,     Maosheng%Ran%NULL%1,     Yanping%Bao%NULL%1,     Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,     Valentina%Socci%NULL%1,     Francesca%Pacitti%NULL%1,     Giorgio%Di Lorenzo%NULL%1,     Antinisca%Di Marco%NULL%1,     Alberto%Siracusano%NULL%1,     Alessandro%Rossi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,      M. H.% Raza%null%1,      Z. U.% Mustafa%null%1,      T. M.% Khan%null%1,      N.% Asif%null%1,      H.% Tahir%null%1,      N.% Shehzadi%null%1,      K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,     Franchesca%Diaz%NULL%1,     Nathalie%Moise%NULL%1,     D. Edmund%Anstey%NULL%1,     Siqin%Ye%NULL%1,     Sachin%Agarwal%NULL%1,     Jeffrey L.%Birk%NULL%1,     Daniel%Brodie%NULL%3,     Diane E.%Cannone%NULL%1,     Bernard%Chang%NULL%1,     Jan%Claassen%NULL%2,     Talea%Cornelius%NULL%1,     Lilly%Derby%NULL%1,     Melissa%Dong%NULL%1,     Raymond C.%Givens%NULL%1,     Beth%Hochman%NULL%1,     Shunichi%Homma%NULL%1,     Ian M.%Kronish%NULL%1,     Sung A.J.%Lee%NULL%1,     Wilhelmina%Manzano%NULL%1,     Laurel E.S.%Mayer%NULL%1,     Cara L.%McMurry%NULL%1,     Vivek%Moitra%NULL%1,     Patrick%Pham%NULL%1,     LeRoy%Rabbani%NULL%1,     Reynaldo R.%Rivera%NULL%1,     Allan%Schwartz%NULL%2,     Joseph E.%Schwartz%NULL%1,     Peter A.%Shapiro%NULL%1,     Kaitlin%Shaw%NULL%1,     Alexandra M.%Sullivan%NULL%1,     Courtney%Vose%NULL%1,     Lauren%Wasson%NULL%1,     Donald%Edmondson%NULL%1,     Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,     Wenning%Fu%NULL%1,     Xiaoran%Liu%NULL%1,     Zhiqian%Luo%NULL%1,     Rixing%Wang%NULL%1,     Ning%Zhou%NULL%1,     Shijiao%Yan%NULL%2,     Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,     Hong-Tao%Guo%NULL%1,     Xue-Wei%Du%NULL%1,     Wen%Song%NULL%1,     Chang%Lu%NULL%1,     Wen-Nv%Hao%NULL%1,     Maria%Kapritsou.%NULL%3,     Maria%Kapritsou.%NULL%0,     Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,     Xiaobin%Zhu%NULL%1,     Shuai%Fu%NULL%1,     Yugang%Hu%NULL%1,     Xiaoning%Li%NULL%0,     Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,     Jing%Liu%NULL%0,     Asghar%Afshar Jahanshahi%NULL%1,     Khaled%Nawaser%NULL%1,     Ali%Yousefi%NULL%1,     Jizhen%Li%NULL%1,     Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,     Kun%Wang%NULL%2,     Lu%Yin%NULL%2,     Wen-feng%Zhao%NULL%1,     Qing%Xue%NULL%1,     Mao%Peng%NULL%1,     Bao-quan%Min%NULL%1,     Qing%Tian%NULL%1,     Hai-xia%Leng%NULL%1,     Jia-lin%Du%NULL%1,     Hong%Chang%NULL%1,     Yuan%Yang%NULL%2,     Wei%Li%NULL%2,     Fang-fang%Shangguan%NULL%1,     Tian-yi%Yan%NULL%1,     Hui-qing%Dong%NULL%1,     Ying%Han%NULL%1,     Yu-ping%Wang%NULL%1,     Fiammetta%Cosci%NULL%1,     Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,     Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,     Lin%Sun%NULL%1,     Lan%Zhang%NULL%1,     Huan%Wang%NULL%1,     Ajiao%Fan%NULL%1,     Bin%Yang%NULL%1,     Wei%Li%NULL%0,     Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,     Lu%Dong%NULL%1,     Tao%Wang%NULL%10,     Chenxin%Yuan%NULL%1,     Rao%Fu%NULL%1,     Lei%Zhang%NULL%2,     Bo%Liu%NULL%0,     Mingmin%Zhang%NULL%1,     Yuanyuan%Yin%NULL%1,     Jiawen%Qin%NULL%1,     Jennifer%Bouey%NULL%1,     Min%Zhao%NULL%1,     Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,     Ayşe%Kurtulmuş%NULL%1,     Selim%Arpacıoğlu%NULL%1,     Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,     Gunther%Eysenbach%NULL%1,     Albert%Wu%NULL%2,     Albert%Wu%NULL%0,     Bojana%Knezevic%NULL%1,     Bradley A%Evanoff%bevanoff@wustl.edu%2,     Bradley A%Evanoff%bevanoff@wustl.edu%0,     Jaime R%Strickland%NULL%2,     Jaime R%Strickland%NULL%0,     Ann Marie%Dale%NULL%2,     Ann Marie%Dale%NULL%0,     Lisa%Hayibor%NULL%2,     Lisa%Hayibor%NULL%0,     Emily%Page%NULL%2,     Emily%Page%NULL%0,     Jennifer G%Duncan%NULL%2,     Jennifer G%Duncan%NULL%0,     Thomas%Kannampallil%NULL%2,     Thomas%Kannampallil%NULL%0,     Diana L%Gray%NULL%2,     Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,     Ranjan%Bhattacharyya%NULL%1,     Sumita%Bhattacharyya%NULL%1,     Sukanya%Gupta%NULL%1,     Soumitra%Das%NULL%1,     Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,     Xinghuang%Liu%NULL%2,     Xinghuang%Liu%NULL%0,     Dongke%Wang%NULL%2,     Dongke%Wang%NULL%0,     Yan%Jin%NULL%2,     Yan%Jin%NULL%0,     Miao%He%NULL%1,     Yanling%Ma%NULL%1,     Xiaolong%Zhao%NULL%1,     Shuangning%Song%NULL%1,     Lei%Zhang%NULL%0,     Xuelian%Xiang%NULL%1,     Ling%Yang%NULL%1,     Jun%Song%song111jun@126.com%1,     Tao%Bai%drbaitao@126.com%4,     Xiaohua%Hou%houxh@hust.edu.cn%2,     Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,     Hao%Zhou%haoye320@163.com%1,     Yan%Zhou%NULL%1,     Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,     Piyaporn%Apisarnthanarak%NULL%2,     Piyaporn%Apisarnthanarak%NULL%0,     Chanida%Siripraparat%NULL%2,     Chanida%Siripraparat%NULL%0,     Pavarat%Saengaram%NULL%1,     Narakorn%Leeprechanon%NULL%1,     David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,     Davide%Bianchi%NULL%1,     Francesca%Santi%NULL%1,     Luigi%Costantini%NULL%1,     Anna%Odone%NULL%1,     Carlo%Signorelli%NULL%1,     Alessandra%Costanza%NULL%1,     Gianluca%Serafini%NULL%1,     Mario%Amore%NULL%1,     Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1433,6 +1535,9 @@
       <c r="H1" t="s">
         <v>49</v>
       </c>
+      <c r="I1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1448,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1458,6 +1563,9 @@
       </c>
       <c r="H2" t="s">
         <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -1474,7 +1582,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -1484,6 +1592,9 @@
       </c>
       <c r="H3" t="s">
         <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -1511,6 +1622,9 @@
       <c r="H4" t="s">
         <v>55</v>
       </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -1526,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1536,6 +1650,9 @@
       </c>
       <c r="H5" t="s">
         <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6">
@@ -1552,7 +1669,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -1562,6 +1679,9 @@
       </c>
       <c r="H6" t="s">
         <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -1578,7 +1698,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1588,6 +1708,9 @@
       </c>
       <c r="H7" t="s">
         <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -1604,7 +1727,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -1614,6 +1737,9 @@
       </c>
       <c r="H8" t="s">
         <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +1756,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1640,6 +1766,9 @@
       </c>
       <c r="H9" t="s">
         <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -1656,7 +1785,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -1666,6 +1795,9 @@
       </c>
       <c r="H10" t="s">
         <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11">
@@ -1682,7 +1814,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1692,6 +1824,9 @@
       </c>
       <c r="H11" t="s">
         <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12">
@@ -1708,7 +1843,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1718,6 +1853,9 @@
       </c>
       <c r="H12" t="s">
         <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -1734,7 +1872,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1744,6 +1882,9 @@
       </c>
       <c r="H13" t="s">
         <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="14">
@@ -1760,7 +1901,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1770,6 +1911,9 @@
       </c>
       <c r="H14" t="s">
         <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -1797,6 +1941,9 @@
       <c r="H15" t="s">
         <v>55</v>
       </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1812,7 +1959,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1822,6 +1969,9 @@
       </c>
       <c r="H16" t="s">
         <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="17">
@@ -1838,7 +1988,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -1848,6 +1998,9 @@
       </c>
       <c r="H17" t="s">
         <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="18">
@@ -1864,16 +2017,19 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19">
@@ -1890,7 +2046,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1900,6 +2056,9 @@
       </c>
       <c r="H19" t="s">
         <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -1916,7 +2075,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -1926,6 +2085,9 @@
       </c>
       <c r="H20" t="s">
         <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +2104,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -1952,6 +2114,9 @@
       </c>
       <c r="H21" t="s">
         <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="22">
@@ -1968,7 +2133,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -1978,6 +2143,9 @@
       </c>
       <c r="H22" t="s">
         <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +2162,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2004,6 +2172,9 @@
       </c>
       <c r="H23" t="s">
         <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="24">
@@ -2020,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2030,6 +2201,9 @@
       </c>
       <c r="H24" t="s">
         <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25">
@@ -2046,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2056,6 +2230,9 @@
       </c>
       <c r="H25" t="s">
         <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26">
@@ -2072,7 +2249,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -2082,6 +2259,9 @@
       </c>
       <c r="H26" t="s">
         <v>129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -2098,7 +2278,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -2108,6 +2288,9 @@
       </c>
       <c r="H27" t="s">
         <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="28">
@@ -2124,7 +2307,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -2134,6 +2317,9 @@
       </c>
       <c r="H28" t="s">
         <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -2150,7 +2336,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -2160,6 +2346,9 @@
       </c>
       <c r="H29" t="s">
         <v>144</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="30">
@@ -2176,7 +2365,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -2186,6 +2375,9 @@
       </c>
       <c r="H30" t="s">
         <v>149</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="31">
@@ -2202,7 +2394,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -2212,6 +2404,9 @@
       </c>
       <c r="H31" t="s">
         <v>153</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32">
@@ -2228,7 +2423,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -2238,6 +2433,9 @@
       </c>
       <c r="H32" t="s">
         <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -2254,7 +2452,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -2264,6 +2462,9 @@
       </c>
       <c r="H33" t="s">
         <v>162</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -2280,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2290,6 +2491,9 @@
       </c>
       <c r="H34" t="s">
         <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -2306,7 +2510,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -2316,6 +2520,9 @@
       </c>
       <c r="H35" t="s">
         <v>167</v>
+      </c>
+      <c r="I35" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2539,7 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -2342,6 +2549,9 @@
       </c>
       <c r="H36" t="s">
         <v>172</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="37">
@@ -2358,7 +2568,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -2368,6 +2578,9 @@
       </c>
       <c r="H37" t="s">
         <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -2395,6 +2608,9 @@
       <c r="H38" t="s">
         <v>55</v>
       </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -2410,7 +2626,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -2420,6 +2636,9 @@
       </c>
       <c r="H39" t="s">
         <v>180</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="40">
@@ -2436,7 +2655,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -2446,6 +2665,9 @@
       </c>
       <c r="H40" t="s">
         <v>185</v>
+      </c>
+      <c r="I40" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -2462,7 +2684,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -2472,6 +2694,9 @@
       </c>
       <c r="H41" t="s">
         <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="395">
   <si>
     <t>Doi</t>
   </si>
@@ -1206,6 +1206,267 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,     Davide%Bianchi%NULL%1,     Francesca%Santi%NULL%1,     Luigi%Costantini%NULL%1,     Anna%Odone%NULL%1,     Carlo%Signorelli%NULL%1,     Alessandra%Costanza%NULL%1,     Gianluca%Serafini%NULL%1,     Mario%Amore%NULL%1,     Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,      Martín%Gagliardi%NULL%2,      Martín%Gagliardi%NULL%0,      Nicolas%Coombes%NULL%1,      Federico%Landriel%NULL%2,      Federico%Landriel%NULL%0,      Carlos%Zanardi%NULL%1,      Gastón Camino%Willhuber%NULL%1,      Juan Pablo%Guyot%NULL%1,      Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,      Nathaniel%Scherer%NULL%10,      Lambert%Felix%NULL%20,      Lambert%Felix%NULL%0,      Hannah%Kuper%NULL%20,      Hannah%Kuper%NULL%0,      Jakob%Pietschnig%NULL%20,      Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,      Nathaniel%Scherer%NULL%0,      Lambert%Felix%NULL%0,      Lambert%Felix%NULL%0,      Hannah%Kuper%NULL%0,      Hannah%Kuper%NULL%0,      Jakob%Pietschnig%NULL%0,      Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,      Koffi Mawuse%Guédénon%NULL%2,      Koffi Mawuse%Guédénon%NULL%0,      Ayoko Akouavi%Dogbe Foli%NULL%1,      Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,      Simeng%Ma%NULL%1,      Ying%Wang%NULL%3,      Zhongxiang%Cai%NULL%1,      Jianbo%Hu%NULL%1,      Ning%Wei%NULL%1,      Jiang%Wu%NULL%1,      Hui%Du%NULL%1,      Tingting%Chen%NULL%1,      Ruiting%Li%NULL%1,      Huawei%Tan%NULL%1,      Lijun%Kang%NULL%1,      Lihua%Yao%NULL%1,      Manli%Huang%NULL%1,      Huafen%Wang%NULL%1,      Gaohua%Wang%NULL%1,      Zhongchun%Liu%NULL%1,      Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,      Teresa%Arora%NULL%1,      Ian%Grey%NULL%1,      Lorna Kwai Ping%Suen%NULL%1,      Emma Yun-zhi%Huang%NULL%1,      Daofan%Li%NULL%1,      Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,      Youlin%Chen%NULL%1,      Jianlin%Lv%NULL%1,      Linlin%Liu%NULL%1,      Shiqin%Zong%NULL%1,      Hanxia%Li%NULL%1,      Hong%Li%NULL%1,      Massimo%Tusconi.%NULL%2,      Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,      Hang%Wang%NULL%1,      Yuxing%Lin%NULL%1,      Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,      Eman Zmaily%Dahmash%NULL%2,      Eman Zmaily%Dahmash%NULL%0,      Rabaa%Al‐Rousan%NULL%2,      Rabaa%Al‐Rousan%NULL%0,      Hassan%Alwafi%NULL%1,      Hamzeh Mohammad%Alrawashdeh%NULL%1,      Imene%Ghoul%NULL%1,      Anwer%Abidine%NULL%1,      Mohammed A.%Bokhary%NULL%1,      Hadeel T.%AL‐Hadithi%NULL%1,      Dalia%Ali%NULL%1,      Rasha%Abuthawabeh%NULL%1,      Ghada Mohammad%Abdelwahab%NULL%1,      Yosra J.%Alhartani%NULL%1,      Haneen%Al Muhaisen%NULL%1,      Ayah%Dagash%NULL%1,      Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,      Zahra%Bostani%NULL%1,      Saman%Maroufizadeh%NULL%1,      Atefeh%Ghanbari%NULL%1,      Maryam%Khoshbakht%NULL%1,      Seyed Amirhossein%Alavi%NULL%1,      Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,      Le%Shi%NULL%2,      Le%Shi%NULL%0,      Jiahui%Deng%NULL%1,      Jiajia%Liu%NULL%1,      Li%Zhang%NULL%0,      Suying%Wu%NULL%1,      Yimiao%Gong%NULL%1,      Weizhen%Huang%NULL%1,      Kai%Yuan%NULL%1,      Wei%Yan%NULL%1,      Yankun%Sun%NULL%1,      Maosheng%Ran%NULL%1,      Yanping%Bao%NULL%1,      Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,      Valentina%Socci%NULL%1,      Francesca%Pacitti%NULL%1,      Giorgio%Di Lorenzo%NULL%1,      Antinisca%Di Marco%NULL%1,      Alberto%Siracusano%NULL%1,      Alessandro%Rossi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,       M. H.% Raza%null%1,       Z. U.% Mustafa%null%1,       T. M.% Khan%null%1,       N.% Asif%null%1,       H.% Tahir%null%1,       N.% Shehzadi%null%1,       K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,      Franchesca%Diaz%NULL%1,      Nathalie%Moise%NULL%1,      D. Edmund%Anstey%NULL%1,      Siqin%Ye%NULL%1,      Sachin%Agarwal%NULL%1,      Jeffrey L.%Birk%NULL%1,      Daniel%Brodie%NULL%3,      Diane E.%Cannone%NULL%1,      Bernard%Chang%NULL%1,      Jan%Claassen%NULL%2,      Talea%Cornelius%NULL%1,      Lilly%Derby%NULL%1,      Melissa%Dong%NULL%1,      Raymond C.%Givens%NULL%1,      Beth%Hochman%NULL%1,      Shunichi%Homma%NULL%1,      Ian M.%Kronish%NULL%1,      Sung A.J.%Lee%NULL%1,      Wilhelmina%Manzano%NULL%1,      Laurel E.S.%Mayer%NULL%1,      Cara L.%McMurry%NULL%1,      Vivek%Moitra%NULL%1,      Patrick%Pham%NULL%1,      LeRoy%Rabbani%NULL%1,      Reynaldo R.%Rivera%NULL%1,      Allan%Schwartz%NULL%2,      Joseph E.%Schwartz%NULL%1,      Peter A.%Shapiro%NULL%1,      Kaitlin%Shaw%NULL%1,      Alexandra M.%Sullivan%NULL%1,      Courtney%Vose%NULL%1,      Lauren%Wasson%NULL%1,      Donald%Edmondson%NULL%1,      Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,      Wenning%Fu%NULL%1,      Xiaoran%Liu%NULL%1,      Zhiqian%Luo%NULL%1,      Rixing%Wang%NULL%1,      Ning%Zhou%NULL%1,      Shijiao%Yan%NULL%2,      Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,      Hong-Tao%Guo%NULL%1,      Xue-Wei%Du%NULL%1,      Wen%Song%NULL%1,      Chang%Lu%NULL%1,      Wen-Nv%Hao%NULL%1,      Maria%Kapritsou.%NULL%3,      Maria%Kapritsou.%NULL%0,      Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,      Xiaobin%Zhu%NULL%1,      Shuai%Fu%NULL%1,      Yugang%Hu%NULL%1,      Xiaoning%Li%NULL%0,      Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,      Jing%Liu%NULL%0,      Asghar%Afshar Jahanshahi%NULL%1,      Khaled%Nawaser%NULL%1,      Ali%Yousefi%NULL%1,      Jizhen%Li%NULL%1,      Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,      Kun%Wang%NULL%2,      Lu%Yin%NULL%2,      Wen-feng%Zhao%NULL%1,      Qing%Xue%NULL%1,      Mao%Peng%NULL%1,      Bao-quan%Min%NULL%1,      Qing%Tian%NULL%1,      Hai-xia%Leng%NULL%1,      Jia-lin%Du%NULL%1,      Hong%Chang%NULL%1,      Yuan%Yang%NULL%2,      Wei%Li%NULL%2,      Fang-fang%Shangguan%NULL%1,      Tian-yi%Yan%NULL%1,      Hui-qing%Dong%NULL%1,      Ying%Han%NULL%1,      Yu-ping%Wang%NULL%1,      Fiammetta%Cosci%NULL%1,      Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,      Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,      Lin%Sun%NULL%1,      Lan%Zhang%NULL%1,      Huan%Wang%NULL%1,      Ajiao%Fan%NULL%1,      Bin%Yang%NULL%1,      Wei%Li%NULL%0,      Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,      Lu%Dong%NULL%1,      Tao%Wang%NULL%10,      Chenxin%Yuan%NULL%1,      Rao%Fu%NULL%1,      Lei%Zhang%NULL%2,      Bo%Liu%NULL%0,      Mingmin%Zhang%NULL%1,      Yuanyuan%Yin%NULL%1,      Jiawen%Qin%NULL%1,      Jennifer%Bouey%NULL%1,      Min%Zhao%NULL%1,      Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,      Ayşe%Kurtulmuş%NULL%1,      Selim%Arpacıoğlu%NULL%1,      Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,      Gunther%Eysenbach%NULL%1,      Albert%Wu%NULL%2,      Albert%Wu%NULL%0,      Bojana%Knezevic%NULL%1,      Bradley A%Evanoff%bevanoff@wustl.edu%2,      Bradley A%Evanoff%bevanoff@wustl.edu%0,      Jaime R%Strickland%NULL%2,      Jaime R%Strickland%NULL%0,      Ann Marie%Dale%NULL%2,      Ann Marie%Dale%NULL%0,      Lisa%Hayibor%NULL%2,      Lisa%Hayibor%NULL%0,      Emily%Page%NULL%2,      Emily%Page%NULL%0,      Jennifer G%Duncan%NULL%2,      Jennifer G%Duncan%NULL%0,      Thomas%Kannampallil%NULL%2,      Thomas%Kannampallil%NULL%0,      Diana L%Gray%NULL%2,      Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,      Ranjan%Bhattacharyya%NULL%1,      Sumita%Bhattacharyya%NULL%1,      Sukanya%Gupta%NULL%1,      Soumitra%Das%NULL%1,      Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,      Xinghuang%Liu%NULL%2,      Xinghuang%Liu%NULL%0,      Dongke%Wang%NULL%2,      Dongke%Wang%NULL%0,      Yan%Jin%NULL%2,      Yan%Jin%NULL%0,      Miao%He%NULL%1,      Yanling%Ma%NULL%1,      Xiaolong%Zhao%NULL%1,      Shuangning%Song%NULL%1,      Lei%Zhang%NULL%0,      Xuelian%Xiang%NULL%1,      Ling%Yang%NULL%1,      Jun%Song%song111jun@126.com%1,      Tao%Bai%drbaitao@126.com%4,      Xiaohua%Hou%houxh@hust.edu.cn%2,      Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,      Hao%Zhou%haoye320@163.com%1,      Yan%Zhou%NULL%1,      Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,      Piyaporn%Apisarnthanarak%NULL%2,      Piyaporn%Apisarnthanarak%NULL%0,      Chanida%Siripraparat%NULL%2,      Chanida%Siripraparat%NULL%0,      Pavarat%Saengaram%NULL%1,      Narakorn%Leeprechanon%NULL%1,      David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,      Davide%Bianchi%NULL%1,      Francesca%Santi%NULL%1,      Luigi%Costantini%NULL%1,      Anna%Odone%NULL%1,      Carlo%Signorelli%NULL%1,      Alessandra%Costanza%NULL%1,      Gianluca%Serafini%NULL%1,      Mario%Amore%NULL%1,      Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,       Martín%Gagliardi%NULL%2,       Martín%Gagliardi%NULL%0,       Nicolas%Coombes%NULL%1,       Federico%Landriel%NULL%2,       Federico%Landriel%NULL%0,       Carlos%Zanardi%NULL%1,       Gastón Camino%Willhuber%NULL%1,       Juan Pablo%Guyot%NULL%1,       Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,       Nathaniel%Scherer%NULL%10,       Lambert%Felix%NULL%20,       Lambert%Felix%NULL%0,       Hannah%Kuper%NULL%20,       Hannah%Kuper%NULL%0,       Jakob%Pietschnig%NULL%20,       Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,       Nathaniel%Scherer%NULL%0,       Lambert%Felix%NULL%0,       Lambert%Felix%NULL%0,       Hannah%Kuper%NULL%0,       Hannah%Kuper%NULL%0,       Jakob%Pietschnig%NULL%0,       Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,       Koffi Mawuse%Guédénon%NULL%2,       Koffi Mawuse%Guédénon%NULL%0,       Ayoko Akouavi%Dogbe Foli%NULL%1,       Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,       Simeng%Ma%NULL%1,       Ying%Wang%NULL%3,       Zhongxiang%Cai%NULL%1,       Jianbo%Hu%NULL%1,       Ning%Wei%NULL%1,       Jiang%Wu%NULL%1,       Hui%Du%NULL%1,       Tingting%Chen%NULL%1,       Ruiting%Li%NULL%1,       Huawei%Tan%NULL%1,       Lijun%Kang%NULL%1,       Lihua%Yao%NULL%1,       Manli%Huang%NULL%1,       Huafen%Wang%NULL%1,       Gaohua%Wang%NULL%1,       Zhongchun%Liu%NULL%1,       Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,       Teresa%Arora%NULL%1,       Ian%Grey%NULL%1,       Lorna Kwai Ping%Suen%NULL%1,       Emma Yun-zhi%Huang%NULL%1,       Daofan%Li%NULL%1,       Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,       Youlin%Chen%NULL%1,       Jianlin%Lv%NULL%1,       Linlin%Liu%NULL%1,       Shiqin%Zong%NULL%1,       Hanxia%Li%NULL%1,       Hong%Li%NULL%1,       Massimo%Tusconi.%NULL%2,       Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,       Hang%Wang%NULL%1,       Yuxing%Lin%NULL%1,       Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,       Eman Zmaily%Dahmash%NULL%2,       Eman Zmaily%Dahmash%NULL%0,       Rabaa%Al‐Rousan%NULL%2,       Rabaa%Al‐Rousan%NULL%0,       Hassan%Alwafi%NULL%1,       Hamzeh Mohammad%Alrawashdeh%NULL%1,       Imene%Ghoul%NULL%1,       Anwer%Abidine%NULL%1,       Mohammed A.%Bokhary%NULL%1,       Hadeel T.%AL‐Hadithi%NULL%1,       Dalia%Ali%NULL%1,       Rasha%Abuthawabeh%NULL%1,       Ghada Mohammad%Abdelwahab%NULL%1,       Yosra J.%Alhartani%NULL%1,       Haneen%Al Muhaisen%NULL%1,       Ayah%Dagash%NULL%1,       Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,       Zahra%Bostani%NULL%1,       Saman%Maroufizadeh%NULL%1,       Atefeh%Ghanbari%NULL%1,       Maryam%Khoshbakht%NULL%1,       Seyed Amirhossein%Alavi%NULL%1,       Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,       Le%Shi%NULL%2,       Le%Shi%NULL%0,       Jiahui%Deng%NULL%1,       Jiajia%Liu%NULL%1,       Li%Zhang%NULL%0,       Suying%Wu%NULL%1,       Yimiao%Gong%NULL%1,       Weizhen%Huang%NULL%1,       Kai%Yuan%NULL%1,       Wei%Yan%NULL%1,       Yankun%Sun%NULL%1,       Maosheng%Ran%NULL%1,       Yanping%Bao%NULL%1,       Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,       Valentina%Socci%NULL%1,       Francesca%Pacitti%NULL%1,       Giorgio%Di Lorenzo%NULL%1,       Antinisca%Di Marco%NULL%1,       Alberto%Siracusano%NULL%1,       Alessandro%Rossi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,        M. H.% Raza%null%1,        Z. U.% Mustafa%null%1,        T. M.% Khan%null%1,        N.% Asif%null%1,        H.% Tahir%null%1,        N.% Shehzadi%null%1,        K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,       Franchesca%Diaz%NULL%1,       Nathalie%Moise%NULL%1,       D. Edmund%Anstey%NULL%1,       Siqin%Ye%NULL%1,       Sachin%Agarwal%NULL%1,       Jeffrey L.%Birk%NULL%1,       Daniel%Brodie%NULL%3,       Diane E.%Cannone%NULL%1,       Bernard%Chang%NULL%1,       Jan%Claassen%NULL%2,       Talea%Cornelius%NULL%1,       Lilly%Derby%NULL%1,       Melissa%Dong%NULL%1,       Raymond C.%Givens%NULL%1,       Beth%Hochman%NULL%1,       Shunichi%Homma%NULL%1,       Ian M.%Kronish%NULL%1,       Sung A.J.%Lee%NULL%1,       Wilhelmina%Manzano%NULL%1,       Laurel E.S.%Mayer%NULL%1,       Cara L.%McMurry%NULL%1,       Vivek%Moitra%NULL%1,       Patrick%Pham%NULL%1,       LeRoy%Rabbani%NULL%1,       Reynaldo R.%Rivera%NULL%1,       Allan%Schwartz%NULL%2,       Joseph E.%Schwartz%NULL%1,       Peter A.%Shapiro%NULL%1,       Kaitlin%Shaw%NULL%1,       Alexandra M.%Sullivan%NULL%1,       Courtney%Vose%NULL%1,       Lauren%Wasson%NULL%1,       Donald%Edmondson%NULL%1,       Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,       Wenning%Fu%NULL%1,       Xiaoran%Liu%NULL%1,       Zhiqian%Luo%NULL%1,       Rixing%Wang%NULL%1,       Ning%Zhou%NULL%1,       Shijiao%Yan%NULL%2,       Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,       Hong-Tao%Guo%NULL%1,       Xue-Wei%Du%NULL%1,       Wen%Song%NULL%1,       Chang%Lu%NULL%1,       Wen-Nv%Hao%NULL%1,       Maria%Kapritsou.%NULL%3,       Maria%Kapritsou.%NULL%0,       Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,       Xiaobin%Zhu%NULL%1,       Shuai%Fu%NULL%1,       Yugang%Hu%NULL%1,       Xiaoning%Li%NULL%0,       Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,       Jing%Liu%NULL%0,       Asghar%Afshar Jahanshahi%NULL%1,       Khaled%Nawaser%NULL%1,       Ali%Yousefi%NULL%1,       Jizhen%Li%NULL%1,       Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,       Kun%Wang%NULL%2,       Lu%Yin%NULL%2,       Wen-feng%Zhao%NULL%1,       Qing%Xue%NULL%1,       Mao%Peng%NULL%1,       Bao-quan%Min%NULL%1,       Qing%Tian%NULL%1,       Hai-xia%Leng%NULL%1,       Jia-lin%Du%NULL%1,       Hong%Chang%NULL%1,       Yuan%Yang%NULL%2,       Wei%Li%NULL%2,       Fang-fang%Shangguan%NULL%1,       Tian-yi%Yan%NULL%1,       Hui-qing%Dong%NULL%1,       Ying%Han%NULL%1,       Yu-ping%Wang%NULL%1,       Fiammetta%Cosci%NULL%1,       Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,       Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,       Lin%Sun%NULL%1,       Lan%Zhang%NULL%1,       Huan%Wang%NULL%1,       Ajiao%Fan%NULL%1,       Bin%Yang%NULL%1,       Wei%Li%NULL%0,       Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,       Lu%Dong%NULL%1,       Tao%Wang%NULL%10,       Chenxin%Yuan%NULL%1,       Rao%Fu%NULL%1,       Lei%Zhang%NULL%2,       Bo%Liu%NULL%0,       Mingmin%Zhang%NULL%1,       Yuanyuan%Yin%NULL%1,       Jiawen%Qin%NULL%1,       Jennifer%Bouey%NULL%1,       Min%Zhao%NULL%1,       Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,       Ayşe%Kurtulmuş%NULL%1,       Selim%Arpacıoğlu%NULL%1,       Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,       Gunther%Eysenbach%NULL%1,       Albert%Wu%NULL%2,       Albert%Wu%NULL%0,       Bojana%Knezevic%NULL%1,       Bradley A%Evanoff%bevanoff@wustl.edu%2,       Bradley A%Evanoff%bevanoff@wustl.edu%0,       Jaime R%Strickland%NULL%2,       Jaime R%Strickland%NULL%0,       Ann Marie%Dale%NULL%2,       Ann Marie%Dale%NULL%0,       Lisa%Hayibor%NULL%2,       Lisa%Hayibor%NULL%0,       Emily%Page%NULL%2,       Emily%Page%NULL%0,       Jennifer G%Duncan%NULL%2,       Jennifer G%Duncan%NULL%0,       Thomas%Kannampallil%NULL%2,       Thomas%Kannampallil%NULL%0,       Diana L%Gray%NULL%2,       Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,       Ranjan%Bhattacharyya%NULL%1,       Sumita%Bhattacharyya%NULL%1,       Sukanya%Gupta%NULL%1,       Soumitra%Das%NULL%1,       Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,       Xinghuang%Liu%NULL%2,       Xinghuang%Liu%NULL%0,       Dongke%Wang%NULL%2,       Dongke%Wang%NULL%0,       Yan%Jin%NULL%2,       Yan%Jin%NULL%0,       Miao%He%NULL%1,       Yanling%Ma%NULL%1,       Xiaolong%Zhao%NULL%1,       Shuangning%Song%NULL%1,       Lei%Zhang%NULL%0,       Xuelian%Xiang%NULL%1,       Ling%Yang%NULL%1,       Jun%Song%song111jun@126.com%1,       Tao%Bai%drbaitao@126.com%4,       Xiaohua%Hou%houxh@hust.edu.cn%2,       Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,       Hao%Zhou%haoye320@163.com%1,       Yan%Zhou%NULL%1,       Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,       Piyaporn%Apisarnthanarak%NULL%2,       Piyaporn%Apisarnthanarak%NULL%0,       Chanida%Siripraparat%NULL%2,       Chanida%Siripraparat%NULL%0,       Pavarat%Saengaram%NULL%1,       Narakorn%Leeprechanon%NULL%1,       David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,       Davide%Bianchi%NULL%1,       Francesca%Santi%NULL%1,       Luigi%Costantini%NULL%1,       Anna%Odone%NULL%1,       Carlo%Signorelli%NULL%1,       Alessandra%Costanza%NULL%1,       Gianluca%Serafini%NULL%1,       Mario%Amore%NULL%1,       Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,        Martín%Gagliardi%NULL%2,        Martín%Gagliardi%NULL%0,        Nicolas%Coombes%NULL%1,        Federico%Landriel%NULL%2,        Federico%Landriel%NULL%0,        Carlos%Zanardi%NULL%1,        Gastón Camino%Willhuber%NULL%1,        Juan Pablo%Guyot%NULL%1,        Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,        Nathaniel%Scherer%NULL%10,        Lambert%Felix%NULL%20,        Lambert%Felix%NULL%0,        Hannah%Kuper%NULL%20,        Hannah%Kuper%NULL%0,        Jakob%Pietschnig%NULL%20,        Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,        Nathaniel%Scherer%NULL%0,        Lambert%Felix%NULL%0,        Lambert%Felix%NULL%0,        Hannah%Kuper%NULL%0,        Hannah%Kuper%NULL%0,        Jakob%Pietschnig%NULL%0,        Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,        Koffi Mawuse%Guédénon%NULL%2,        Koffi Mawuse%Guédénon%NULL%0,        Ayoko Akouavi%Dogbe Foli%NULL%1,        Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,        Simeng%Ma%NULL%1,        Ying%Wang%NULL%3,        Zhongxiang%Cai%NULL%1,        Jianbo%Hu%NULL%1,        Ning%Wei%NULL%1,        Jiang%Wu%NULL%1,        Hui%Du%NULL%1,        Tingting%Chen%NULL%1,        Ruiting%Li%NULL%1,        Huawei%Tan%NULL%1,        Lijun%Kang%NULL%1,        Lihua%Yao%NULL%1,        Manli%Huang%NULL%1,        Huafen%Wang%NULL%1,        Gaohua%Wang%NULL%1,        Zhongchun%Liu%NULL%1,        Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,        Teresa%Arora%NULL%1,        Ian%Grey%NULL%1,        Lorna Kwai Ping%Suen%NULL%1,        Emma Yun-zhi%Huang%NULL%1,        Daofan%Li%NULL%1,        Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,        Youlin%Chen%NULL%1,        Jianlin%Lv%NULL%1,        Linlin%Liu%NULL%1,        Shiqin%Zong%NULL%1,        Hanxia%Li%NULL%1,        Hong%Li%NULL%1,        Massimo%Tusconi.%NULL%2,        Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,        Hang%Wang%NULL%1,        Yuxing%Lin%NULL%1,        Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,        Eman Zmaily%Dahmash%NULL%2,        Eman Zmaily%Dahmash%NULL%0,        Rabaa%Al‐Rousan%NULL%2,        Rabaa%Al‐Rousan%NULL%0,        Hassan%Alwafi%NULL%1,        Hamzeh Mohammad%Alrawashdeh%NULL%1,        Imene%Ghoul%NULL%1,        Anwer%Abidine%NULL%1,        Mohammed A.%Bokhary%NULL%1,        Hadeel T.%AL‐Hadithi%NULL%1,        Dalia%Ali%NULL%1,        Rasha%Abuthawabeh%NULL%1,        Ghada Mohammad%Abdelwahab%NULL%1,        Yosra J.%Alhartani%NULL%1,        Haneen%Al Muhaisen%NULL%1,        Ayah%Dagash%NULL%1,        Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,        Zahra%Bostani%NULL%1,        Saman%Maroufizadeh%NULL%1,        Atefeh%Ghanbari%NULL%1,        Maryam%Khoshbakht%NULL%1,        Seyed Amirhossein%Alavi%NULL%1,        Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,        Le%Shi%NULL%2,        Le%Shi%NULL%0,        Jiahui%Deng%NULL%1,        Jiajia%Liu%NULL%1,        Li%Zhang%NULL%0,        Suying%Wu%NULL%1,        Yimiao%Gong%NULL%1,        Weizhen%Huang%NULL%1,        Kai%Yuan%NULL%1,        Wei%Yan%NULL%1,        Yankun%Sun%NULL%1,        Maosheng%Ran%NULL%1,        Yanping%Bao%NULL%1,        Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,        Valentina%Socci%NULL%1,        Francesca%Pacitti%NULL%1,        Giorgio%Di Lorenzo%NULL%1,        Antinisca%Di Marco%NULL%1,        Alberto%Siracusano%NULL%1,        Alessandro%Rossi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,         M. H.% Raza%null%1,         Z. U.% Mustafa%null%1,         T. M.% Khan%null%1,         N.% Asif%null%1,         H.% Tahir%null%1,         N.% Shehzadi%null%1,         K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,        Franchesca%Diaz%NULL%1,        Nathalie%Moise%NULL%1,        D. Edmund%Anstey%NULL%1,        Siqin%Ye%NULL%1,        Sachin%Agarwal%NULL%1,        Jeffrey L.%Birk%NULL%1,        Daniel%Brodie%NULL%3,        Diane E.%Cannone%NULL%1,        Bernard%Chang%NULL%1,        Jan%Claassen%NULL%2,        Talea%Cornelius%NULL%1,        Lilly%Derby%NULL%1,        Melissa%Dong%NULL%1,        Raymond C.%Givens%NULL%1,        Beth%Hochman%NULL%1,        Shunichi%Homma%NULL%1,        Ian M.%Kronish%NULL%1,        Sung A.J.%Lee%NULL%1,        Wilhelmina%Manzano%NULL%1,        Laurel E.S.%Mayer%NULL%1,        Cara L.%McMurry%NULL%1,        Vivek%Moitra%NULL%1,        Patrick%Pham%NULL%1,        LeRoy%Rabbani%NULL%1,        Reynaldo R.%Rivera%NULL%1,        Allan%Schwartz%NULL%2,        Joseph E.%Schwartz%NULL%1,        Peter A.%Shapiro%NULL%1,        Kaitlin%Shaw%NULL%1,        Alexandra M.%Sullivan%NULL%1,        Courtney%Vose%NULL%1,        Lauren%Wasson%NULL%1,        Donald%Edmondson%NULL%1,        Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,        Wenning%Fu%NULL%1,        Xiaoran%Liu%NULL%1,        Zhiqian%Luo%NULL%1,        Rixing%Wang%NULL%1,        Ning%Zhou%NULL%1,        Shijiao%Yan%NULL%2,        Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,        Hong-Tao%Guo%NULL%1,        Xue-Wei%Du%NULL%1,        Wen%Song%NULL%1,        Chang%Lu%NULL%1,        Wen-Nv%Hao%NULL%1,        Maria%Kapritsou.%NULL%3,        Maria%Kapritsou.%NULL%0,        Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,        Xiaobin%Zhu%NULL%1,        Shuai%Fu%NULL%1,        Yugang%Hu%NULL%1,        Xiaoning%Li%NULL%0,        Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,        Jing%Liu%NULL%0,        Asghar%Afshar Jahanshahi%NULL%1,        Khaled%Nawaser%NULL%1,        Ali%Yousefi%NULL%1,        Jizhen%Li%NULL%1,        Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,        Kun%Wang%NULL%2,        Lu%Yin%NULL%2,        Wen-feng%Zhao%NULL%1,        Qing%Xue%NULL%1,        Mao%Peng%NULL%1,        Bao-quan%Min%NULL%1,        Qing%Tian%NULL%1,        Hai-xia%Leng%NULL%1,        Jia-lin%Du%NULL%1,        Hong%Chang%NULL%1,        Yuan%Yang%NULL%2,        Wei%Li%NULL%2,        Fang-fang%Shangguan%NULL%1,        Tian-yi%Yan%NULL%1,        Hui-qing%Dong%NULL%1,        Ying%Han%NULL%1,        Yu-ping%Wang%NULL%1,        Fiammetta%Cosci%NULL%1,        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,        Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,        Lin%Sun%NULL%1,        Lan%Zhang%NULL%1,        Huan%Wang%NULL%1,        Ajiao%Fan%NULL%1,        Bin%Yang%NULL%1,        Wei%Li%NULL%0,        Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,        Lu%Dong%NULL%1,        Tao%Wang%NULL%10,        Chenxin%Yuan%NULL%1,        Rao%Fu%NULL%1,        Lei%Zhang%NULL%2,        Bo%Liu%NULL%0,        Mingmin%Zhang%NULL%1,        Yuanyuan%Yin%NULL%1,        Jiawen%Qin%NULL%1,        Jennifer%Bouey%NULL%1,        Min%Zhao%NULL%1,        Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,        Ayşe%Kurtulmuş%NULL%1,        Selim%Arpacıoğlu%NULL%1,        Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,        Gunther%Eysenbach%NULL%1,        Albert%Wu%NULL%2,        Albert%Wu%NULL%0,        Bojana%Knezevic%NULL%1,        Bradley A%Evanoff%bevanoff@wustl.edu%2,        Bradley A%Evanoff%bevanoff@wustl.edu%0,        Jaime R%Strickland%NULL%2,        Jaime R%Strickland%NULL%0,        Ann Marie%Dale%NULL%2,        Ann Marie%Dale%NULL%0,        Lisa%Hayibor%NULL%2,        Lisa%Hayibor%NULL%0,        Emily%Page%NULL%2,        Emily%Page%NULL%0,        Jennifer G%Duncan%NULL%2,        Jennifer G%Duncan%NULL%0,        Thomas%Kannampallil%NULL%2,        Thomas%Kannampallil%NULL%0,        Diana L%Gray%NULL%2,        Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,        Ranjan%Bhattacharyya%NULL%1,        Sumita%Bhattacharyya%NULL%1,        Sukanya%Gupta%NULL%1,        Soumitra%Das%NULL%1,        Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,        Xinghuang%Liu%NULL%2,        Xinghuang%Liu%NULL%0,        Dongke%Wang%NULL%2,        Dongke%Wang%NULL%0,        Yan%Jin%NULL%2,        Yan%Jin%NULL%0,        Miao%He%NULL%1,        Yanling%Ma%NULL%1,        Xiaolong%Zhao%NULL%1,        Shuangning%Song%NULL%1,        Lei%Zhang%NULL%0,        Xuelian%Xiang%NULL%1,        Ling%Yang%NULL%1,        Jun%Song%song111jun@126.com%1,        Tao%Bai%drbaitao@126.com%4,        Xiaohua%Hou%houxh@hust.edu.cn%2,        Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,        Hao%Zhou%haoye320@163.com%1,        Yan%Zhou%NULL%1,        Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,        Piyaporn%Apisarnthanarak%NULL%2,        Piyaporn%Apisarnthanarak%NULL%0,        Chanida%Siripraparat%NULL%2,        Chanida%Siripraparat%NULL%0,        Pavarat%Saengaram%NULL%1,        Narakorn%Leeprechanon%NULL%1,        David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,        Davide%Bianchi%NULL%1,        Francesca%Santi%NULL%1,        Luigi%Costantini%NULL%1,        Anna%Odone%NULL%1,        Carlo%Signorelli%NULL%1,        Alessandra%Costanza%NULL%1,        Gianluca%Serafini%NULL%1,        Mario%Amore%NULL%1,        Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1814,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1582,7 +1843,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -1640,7 +1901,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1669,7 +1930,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -1698,7 +1959,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1727,7 +1988,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -1756,7 +2017,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1785,7 +2046,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -1814,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1843,7 +2104,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1872,7 +2133,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1901,7 +2162,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1959,7 +2220,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1988,7 +2249,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2017,7 +2278,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2046,7 +2307,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2075,7 +2336,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -2104,7 +2365,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2133,7 +2394,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2162,7 +2423,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2191,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2220,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2249,7 +2510,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -2278,7 +2539,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -2307,7 +2568,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -2336,7 +2597,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -2365,7 +2626,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -2394,7 +2655,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -2423,7 +2684,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -2452,7 +2713,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -2481,7 +2742,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2510,7 +2771,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -2539,7 +2800,7 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -2568,7 +2829,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -2626,7 +2887,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -2655,7 +2916,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -2684,7 +2945,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="458">
   <si>
     <t>Doi</t>
   </si>
@@ -1467,6 +1467,195 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,        Davide%Bianchi%NULL%1,        Francesca%Santi%NULL%1,        Luigi%Costantini%NULL%1,        Anna%Odone%NULL%1,        Carlo%Signorelli%NULL%1,        Alessandra%Costanza%NULL%1,        Gianluca%Serafini%NULL%1,        Mario%Amore%NULL%1,        Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,         Martín%Gagliardi%NULL%2,         Martín%Gagliardi%NULL%0,         Nicolas%Coombes%NULL%1,         Federico%Landriel%NULL%2,         Federico%Landriel%NULL%0,         Carlos%Zanardi%NULL%1,         Gastón Camino%Willhuber%NULL%1,         Juan Pablo%Guyot%NULL%1,         Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,         Nathaniel%Scherer%NULL%10,         Lambert%Felix%NULL%20,         Lambert%Felix%NULL%0,         Hannah%Kuper%NULL%20,         Hannah%Kuper%NULL%0,         Jakob%Pietschnig%NULL%20,         Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,         Nathaniel%Scherer%NULL%0,         Lambert%Felix%NULL%0,         Lambert%Felix%NULL%0,         Hannah%Kuper%NULL%0,         Hannah%Kuper%NULL%0,         Jakob%Pietschnig%NULL%0,         Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,         Koffi Mawuse%Guédénon%NULL%2,         Koffi Mawuse%Guédénon%NULL%0,         Ayoko Akouavi%Dogbe Foli%NULL%1,         Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,         Simeng%Ma%NULL%0,         Ying%Wang%NULL%0,         Zhongxiang%Cai%NULL%0,         Jianbo%Hu%NULL%0,         Ning%Wei%NULL%0,         Jiang%Wu%NULL%0,         Hui%Du%NULL%0,         Tingting%Chen%NULL%0,         Ruiting%Li%NULL%0,         Huawei%Tan%NULL%0,         Lijun%Kang%NULL%0,         Lihua%Yao%NULL%0,         Manli%Huang%NULL%0,         Huafen%Wang%NULL%0,         Gaohua%Wang%NULL%0,         Zhongchun%Liu%NULL%0,         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,         Teresa%Arora%NULL%1,         Ian%Grey%NULL%1,         Lorna Kwai Ping%Suen%NULL%1,         Emma Yun-zhi%Huang%NULL%1,         Daofan%Li%NULL%1,         Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,         Youlin%Chen%NULL%1,         Jianlin%Lv%NULL%1,         Linlin%Liu%NULL%1,         Shiqin%Zong%NULL%1,         Hanxia%Li%NULL%1,         Hong%Li%NULL%1,         Massimo%Tusconi.%NULL%2,         Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,         Hang%Wang%NULL%1,         Yuxing%Lin%NULL%1,         Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,         Eman Zmaily%Dahmash%NULL%2,         Eman Zmaily%Dahmash%NULL%0,         Rabaa%Al‐Rousan%NULL%2,         Rabaa%Al‐Rousan%NULL%0,         Hassan%Alwafi%NULL%1,         Hamzeh Mohammad%Alrawashdeh%NULL%1,         Imene%Ghoul%NULL%1,         Anwer%Abidine%NULL%1,         Mohammed A.%Bokhary%NULL%1,         Hadeel T.%AL‐Hadithi%NULL%1,         Dalia%Ali%NULL%1,         Rasha%Abuthawabeh%NULL%1,         Ghada Mohammad%Abdelwahab%NULL%1,         Yosra J.%Alhartani%NULL%1,         Haneen%Al Muhaisen%NULL%1,         Ayah%Dagash%NULL%1,         Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,         Zahra%Bostani%NULL%1,         Saman%Maroufizadeh%NULL%1,         Atefeh%Ghanbari%NULL%1,         Maryam%Khoshbakht%NULL%1,         Seyed Amirhossein%Alavi%NULL%1,         Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,         Le%Shi%NULL%2,         Le%Shi%NULL%0,         Jiahui%Deng%NULL%1,         Jiajia%Liu%NULL%1,         Li%Zhang%NULL%0,         Suying%Wu%NULL%1,         Yimiao%Gong%NULL%1,         Weizhen%Huang%NULL%1,         Kai%Yuan%NULL%1,         Wei%Yan%NULL%1,         Yankun%Sun%NULL%1,         Maosheng%Ran%NULL%1,         Yanping%Bao%NULL%1,         Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,         Valentina%Socci%NULL%0,         Francesca%Pacitti%NULL%0,         Giorgio%Di Lorenzo%NULL%0,         Antinisca%Di Marco%NULL%0,         Alberto%Siracusano%NULL%0,         Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,          M. H.% Raza%null%1,          Z. U.% Mustafa%null%1,          T. M.% Khan%null%1,          N.% Asif%null%1,          H.% Tahir%null%1,          N.% Shehzadi%null%1,          K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,         Franchesca%Diaz%NULL%1,         Nathalie%Moise%NULL%1,         D. Edmund%Anstey%NULL%1,         Siqin%Ye%NULL%1,         Sachin%Agarwal%NULL%1,         Jeffrey L.%Birk%NULL%1,         Daniel%Brodie%NULL%0,         Diane E.%Cannone%NULL%1,         Bernard%Chang%NULL%1,         Jan%Claassen%NULL%2,         Talea%Cornelius%NULL%1,         Lilly%Derby%NULL%1,         Melissa%Dong%NULL%1,         Raymond C.%Givens%NULL%1,         Beth%Hochman%NULL%1,         Shunichi%Homma%NULL%1,         Ian M.%Kronish%NULL%1,         Sung A.J.%Lee%NULL%1,         Wilhelmina%Manzano%NULL%1,         Laurel E.S.%Mayer%NULL%1,         Cara L.%McMurry%NULL%1,         Vivek%Moitra%NULL%1,         Patrick%Pham%NULL%1,         LeRoy%Rabbani%NULL%1,         Reynaldo R.%Rivera%NULL%1,         Allan%Schwartz%NULL%2,         Joseph E.%Schwartz%NULL%1,         Peter A.%Shapiro%NULL%1,         Kaitlin%Shaw%NULL%1,         Alexandra M.%Sullivan%NULL%1,         Courtney%Vose%NULL%1,         Lauren%Wasson%NULL%1,         Donald%Edmondson%NULL%1,         Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,         Wenning%Fu%NULL%0,         Xiaoran%Liu%NULL%0,         Zhiqian%Luo%NULL%0,         Rixing%Wang%NULL%0,         Ning%Zhou%NULL%0,         Shijiao%Yan%NULL%0,         Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,         Hong-Tao%Guo%NULL%1,         Xue-Wei%Du%NULL%1,         Wen%Song%NULL%1,         Chang%Lu%NULL%1,         Wen-Nv%Hao%NULL%1,         Maria%Kapritsou.%NULL%3,         Maria%Kapritsou.%NULL%0,         Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,         Xiaobin%Zhu%NULL%1,         Shuai%Fu%NULL%1,         Yugang%Hu%NULL%1,         Xiaoning%Li%NULL%0,         Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,         Jing%Liu%NULL%0,         Asghar%Afshar Jahanshahi%NULL%1,         Khaled%Nawaser%NULL%1,         Ali%Yousefi%NULL%1,         Jizhen%Li%NULL%1,         Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,         Kun%Wang%NULL%0,         Lu%Yin%NULL%0,         Wen-feng%Zhao%NULL%1,         Qing%Xue%NULL%1,         Mao%Peng%NULL%1,         Bao-quan%Min%NULL%1,         Qing%Tian%NULL%1,         Hai-xia%Leng%NULL%1,         Jia-lin%Du%NULL%1,         Hong%Chang%NULL%1,         Yuan%Yang%NULL%0,         Wei%Li%NULL%2,         Fang-fang%Shangguan%NULL%1,         Tian-yi%Yan%NULL%1,         Hui-qing%Dong%NULL%1,         Ying%Han%NULL%1,         Yu-ping%Wang%NULL%1,         Fiammetta%Cosci%NULL%1,         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,         Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,         Lin%Sun%NULL%1,         Lan%Zhang%NULL%1,         Huan%Wang%NULL%1,         Ajiao%Fan%NULL%1,         Bin%Yang%NULL%1,         Wei%Li%NULL%0,         Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,         Lu%Dong%NULL%1,         Tao%Wang%NULL%0,         Chenxin%Yuan%NULL%1,         Rao%Fu%NULL%1,         Lei%Zhang%NULL%2,         Bo%Liu%NULL%0,         Mingmin%Zhang%NULL%1,         Yuanyuan%Yin%NULL%1,         Jiawen%Qin%NULL%1,         Jennifer%Bouey%NULL%1,         Min%Zhao%NULL%1,         Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,         Ayşe%Kurtulmuş%NULL%1,         Selim%Arpacıoğlu%NULL%1,         Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,         Gunther%Eysenbach%NULL%1,         Albert%Wu%NULL%2,         Albert%Wu%NULL%0,         Bojana%Knezevic%NULL%1,         Bradley A%Evanoff%bevanoff@wustl.edu%2,         Bradley A%Evanoff%bevanoff@wustl.edu%0,         Jaime R%Strickland%NULL%2,         Jaime R%Strickland%NULL%0,         Ann Marie%Dale%NULL%2,         Ann Marie%Dale%NULL%0,         Lisa%Hayibor%NULL%2,         Lisa%Hayibor%NULL%0,         Emily%Page%NULL%2,         Emily%Page%NULL%0,         Jennifer G%Duncan%NULL%2,         Jennifer G%Duncan%NULL%0,         Thomas%Kannampallil%NULL%2,         Thomas%Kannampallil%NULL%0,         Diana L%Gray%NULL%2,         Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,         Ranjan%Bhattacharyya%NULL%1,         Sumita%Bhattacharyya%NULL%1,         Sukanya%Gupta%NULL%1,         Soumitra%Das%NULL%1,         Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,         Xinghuang%Liu%NULL%2,         Xinghuang%Liu%NULL%0,         Dongke%Wang%NULL%2,         Dongke%Wang%NULL%0,         Yan%Jin%NULL%2,         Yan%Jin%NULL%0,         Miao%He%NULL%1,         Yanling%Ma%NULL%1,         Xiaolong%Zhao%NULL%1,         Shuangning%Song%NULL%1,         Lei%Zhang%NULL%0,         Xuelian%Xiang%NULL%1,         Ling%Yang%NULL%0,         Jun%Song%song111jun@126.com%1,         Tao%Bai%drbaitao@126.com%0,         Xiaohua%Hou%houxh@hust.edu.cn%2,         Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,         Hao%Zhou%haoye320@163.com%1,         Yan%Zhou%NULL%1,         Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>"COVID-19 Pandemic: Looking After the Mental Health of Our Healthcare Workers"</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1, Maciej%Debski%xref no email%1, Andrew%Wiper%xref no email%1, Amr%Abdelrahman%xref no email%1, Susan%Wild%xref no email%1, Shajil%Chalil%xref no email%1, Ranjit%More%xref no email%1, Grahame%Goode%xref no email%1, Billal%Patel%xref no email%1, Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,         Piyaporn%Apisarnthanarak%NULL%2,         Piyaporn%Apisarnthanarak%NULL%0,         Chanida%Siripraparat%NULL%2,         Chanida%Siripraparat%NULL%0,         Pavarat%Saengaram%NULL%1,         Narakorn%Leeprechanon%NULL%1,         David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,         Davide%Bianchi%NULL%1,         Francesca%Santi%NULL%1,         Luigi%Costantini%NULL%1,         Anna%Odone%NULL%1,         Carlo%Signorelli%NULL%0,         Alessandra%Costanza%NULL%1,         Gianluca%Serafini%NULL%1,         Mario%Amore%NULL%1,         Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,          Martín%Gagliardi%NULL%2,          Martín%Gagliardi%NULL%0,          Nicolas%Coombes%NULL%1,          Federico%Landriel%NULL%2,          Federico%Landriel%NULL%0,          Carlos%Zanardi%NULL%1,          Gastón Camino%Willhuber%NULL%1,          Juan Pablo%Guyot%NULL%1,          Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,          Nathaniel%Scherer%NULL%10,          Lambert%Felix%NULL%20,          Lambert%Felix%NULL%0,          Hannah%Kuper%NULL%20,          Hannah%Kuper%NULL%0,          Jakob%Pietschnig%NULL%20,          Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,          Nathaniel%Scherer%NULL%0,          Lambert%Felix%NULL%0,          Lambert%Felix%NULL%0,          Hannah%Kuper%NULL%0,          Hannah%Kuper%NULL%0,          Jakob%Pietschnig%NULL%0,          Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,          Koffi Mawuse%Guédénon%NULL%2,          Koffi Mawuse%Guédénon%NULL%0,          Ayoko Akouavi%Dogbe Foli%NULL%1,          Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,          Simeng%Ma%NULL%0,          Ying%Wang%NULL%0,          Zhongxiang%Cai%NULL%0,          Jianbo%Hu%NULL%0,          Ning%Wei%NULL%0,          Jiang%Wu%NULL%0,          Hui%Du%NULL%0,          Tingting%Chen%NULL%0,          Ruiting%Li%NULL%0,          Huawei%Tan%NULL%0,          Lijun%Kang%NULL%0,          Lihua%Yao%NULL%0,          Manli%Huang%NULL%0,          Huafen%Wang%NULL%0,          Gaohua%Wang%NULL%0,          Zhongchun%Liu%NULL%0,          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,          Teresa%Arora%NULL%1,          Ian%Grey%NULL%1,          Lorna Kwai Ping%Suen%NULL%1,          Emma Yun-zhi%Huang%NULL%1,          Daofan%Li%NULL%1,          Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,          Youlin%Chen%NULL%1,          Jianlin%Lv%NULL%1,          Linlin%Liu%NULL%1,          Shiqin%Zong%NULL%1,          Hanxia%Li%NULL%1,          Hong%Li%NULL%1,          Massimo%Tusconi.%NULL%2,          Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,          Hang%Wang%NULL%1,          Yuxing%Lin%NULL%1,          Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,          Eman Zmaily%Dahmash%NULL%2,          Eman Zmaily%Dahmash%NULL%0,          Rabaa%Al‐Rousan%NULL%2,          Rabaa%Al‐Rousan%NULL%0,          Hassan%Alwafi%NULL%1,          Hamzeh Mohammad%Alrawashdeh%NULL%1,          Imene%Ghoul%NULL%1,          Anwer%Abidine%NULL%1,          Mohammed A.%Bokhary%NULL%1,          Hadeel T.%AL‐Hadithi%NULL%1,          Dalia%Ali%NULL%1,          Rasha%Abuthawabeh%NULL%1,          Ghada Mohammad%Abdelwahab%NULL%1,          Yosra J.%Alhartani%NULL%1,          Haneen%Al Muhaisen%NULL%1,          Ayah%Dagash%NULL%1,          Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,          Zahra%Bostani%NULL%1,          Saman%Maroufizadeh%NULL%1,          Atefeh%Ghanbari%NULL%1,          Maryam%Khoshbakht%NULL%1,          Seyed Amirhossein%Alavi%NULL%1,          Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,          Le%Shi%NULL%2,          Le%Shi%NULL%0,          Jiahui%Deng%NULL%1,          Jiajia%Liu%NULL%1,          Li%Zhang%NULL%0,          Suying%Wu%NULL%1,          Yimiao%Gong%NULL%1,          Weizhen%Huang%NULL%1,          Kai%Yuan%NULL%1,          Wei%Yan%NULL%1,          Yankun%Sun%NULL%1,          Maosheng%Ran%NULL%1,          Yanping%Bao%NULL%1,          Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,          Valentina%Socci%NULL%0,          Francesca%Pacitti%NULL%0,          Giorgio%Di Lorenzo%NULL%0,          Antinisca%Di Marco%NULL%0,          Alberto%Siracusano%NULL%0,          Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,           M. H.% Raza%null%1,           Z. U.% Mustafa%null%1,           T. M.% Khan%null%1,           N.% Asif%null%1,           H.% Tahir%null%1,           N.% Shehzadi%null%1,           K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,          Franchesca%Diaz%NULL%1,          Nathalie%Moise%NULL%1,          D. Edmund%Anstey%NULL%1,          Siqin%Ye%NULL%1,          Sachin%Agarwal%NULL%1,          Jeffrey L.%Birk%NULL%1,          Daniel%Brodie%NULL%0,          Diane E.%Cannone%NULL%1,          Bernard%Chang%NULL%1,          Jan%Claassen%NULL%2,          Talea%Cornelius%NULL%1,          Lilly%Derby%NULL%1,          Melissa%Dong%NULL%1,          Raymond C.%Givens%NULL%1,          Beth%Hochman%NULL%1,          Shunichi%Homma%NULL%1,          Ian M.%Kronish%NULL%1,          Sung A.J.%Lee%NULL%1,          Wilhelmina%Manzano%NULL%1,          Laurel E.S.%Mayer%NULL%1,          Cara L.%McMurry%NULL%1,          Vivek%Moitra%NULL%1,          Patrick%Pham%NULL%1,          LeRoy%Rabbani%NULL%1,          Reynaldo R.%Rivera%NULL%1,          Allan%Schwartz%NULL%2,          Joseph E.%Schwartz%NULL%1,          Peter A.%Shapiro%NULL%1,          Kaitlin%Shaw%NULL%1,          Alexandra M.%Sullivan%NULL%1,          Courtney%Vose%NULL%1,          Lauren%Wasson%NULL%1,          Donald%Edmondson%NULL%1,          Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,          Wenning%Fu%NULL%0,          Xiaoran%Liu%NULL%0,          Zhiqian%Luo%NULL%0,          Rixing%Wang%NULL%0,          Ning%Zhou%NULL%0,          Shijiao%Yan%NULL%0,          Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,          Hong-Tao%Guo%NULL%1,          Xue-Wei%Du%NULL%1,          Wen%Song%NULL%1,          Chang%Lu%NULL%1,          Wen-Nv%Hao%NULL%1,          Maria%Kapritsou.%NULL%3,          Maria%Kapritsou.%NULL%0,          Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,          Xiaobin%Zhu%NULL%1,          Shuai%Fu%NULL%1,          Yugang%Hu%NULL%1,          Xiaoning%Li%NULL%0,          Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,          Jing%Liu%NULL%0,          Asghar%Afshar Jahanshahi%NULL%1,          Khaled%Nawaser%NULL%1,          Ali%Yousefi%NULL%1,          Jizhen%Li%NULL%1,          Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,          Kun%Wang%NULL%0,          Lu%Yin%NULL%0,          Wen-feng%Zhao%NULL%1,          Qing%Xue%NULL%1,          Mao%Peng%NULL%1,          Bao-quan%Min%NULL%1,          Qing%Tian%NULL%1,          Hai-xia%Leng%NULL%1,          Jia-lin%Du%NULL%1,          Hong%Chang%NULL%1,          Yuan%Yang%NULL%0,          Wei%Li%NULL%2,          Fang-fang%Shangguan%NULL%1,          Tian-yi%Yan%NULL%1,          Hui-qing%Dong%NULL%1,          Ying%Han%NULL%1,          Yu-ping%Wang%NULL%1,          Fiammetta%Cosci%NULL%1,          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,          Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,          Lin%Sun%NULL%1,          Lan%Zhang%NULL%1,          Huan%Wang%NULL%1,          Ajiao%Fan%NULL%1,          Bin%Yang%NULL%1,          Wei%Li%NULL%0,          Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,          Lu%Dong%NULL%1,          Tao%Wang%NULL%0,          Chenxin%Yuan%NULL%1,          Rao%Fu%NULL%1,          Lei%Zhang%NULL%2,          Bo%Liu%NULL%0,          Mingmin%Zhang%NULL%1,          Yuanyuan%Yin%NULL%1,          Jiawen%Qin%NULL%1,          Jennifer%Bouey%NULL%1,          Min%Zhao%NULL%1,          Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,          Ayşe%Kurtulmuş%NULL%1,          Selim%Arpacıoğlu%NULL%1,          Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,          Gunther%Eysenbach%NULL%1,          Albert%Wu%NULL%2,          Albert%Wu%NULL%0,          Bojana%Knezevic%NULL%1,          Bradley A%Evanoff%bevanoff@wustl.edu%2,          Bradley A%Evanoff%bevanoff@wustl.edu%0,          Jaime R%Strickland%NULL%2,          Jaime R%Strickland%NULL%0,          Ann Marie%Dale%NULL%2,          Ann Marie%Dale%NULL%0,          Lisa%Hayibor%NULL%2,          Lisa%Hayibor%NULL%0,          Emily%Page%NULL%2,          Emily%Page%NULL%0,          Jennifer G%Duncan%NULL%2,          Jennifer G%Duncan%NULL%0,          Thomas%Kannampallil%NULL%2,          Thomas%Kannampallil%NULL%0,          Diana L%Gray%NULL%2,          Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,          Ranjan%Bhattacharyya%NULL%1,          Sumita%Bhattacharyya%NULL%1,          Sukanya%Gupta%NULL%1,          Soumitra%Das%NULL%1,          Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,          Xinghuang%Liu%NULL%2,          Xinghuang%Liu%NULL%0,          Dongke%Wang%NULL%2,          Dongke%Wang%NULL%0,          Yan%Jin%NULL%2,          Yan%Jin%NULL%0,          Miao%He%NULL%1,          Yanling%Ma%NULL%1,          Xiaolong%Zhao%NULL%1,          Shuangning%Song%NULL%1,          Lei%Zhang%NULL%0,          Xuelian%Xiang%NULL%1,          Ling%Yang%NULL%0,          Jun%Song%song111jun@126.com%1,          Tao%Bai%drbaitao@126.com%0,          Xiaohua%Hou%houxh@hust.edu.cn%2,          Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,          Hao%Zhou%haoye320@163.com%1,          Yan%Zhou%NULL%1,          Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,  Maciej%Debski%xref no email%1,  Andrew%Wiper%xref no email%1,  Amr%Abdelrahman%xref no email%1,  Susan%Wild%xref no email%1,  Shajil%Chalil%xref no email%1,  Ranjit%More%xref no email%1,  Grahame%Goode%xref no email%1,  Billal%Patel%xref no email%1,  Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,          Piyaporn%Apisarnthanarak%NULL%2,          Piyaporn%Apisarnthanarak%NULL%0,          Chanida%Siripraparat%NULL%2,          Chanida%Siripraparat%NULL%0,          Pavarat%Saengaram%NULL%1,          Narakorn%Leeprechanon%NULL%1,          David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,          Davide%Bianchi%NULL%1,          Francesca%Santi%NULL%1,          Luigi%Costantini%NULL%1,          Anna%Odone%NULL%1,          Carlo%Signorelli%NULL%0,          Alessandra%Costanza%NULL%1,          Gianluca%Serafini%NULL%1,          Mario%Amore%NULL%1,          Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +2003,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1843,7 +2032,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -1901,7 +2090,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1930,7 +2119,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -1959,7 +2148,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1988,7 +2177,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2017,7 +2206,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2046,7 +2235,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2075,7 +2264,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2104,7 +2293,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2133,7 +2322,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2162,7 +2351,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2220,7 +2409,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2249,7 +2438,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2278,7 +2467,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2307,7 +2496,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2336,7 +2525,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -2365,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2394,7 +2583,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2423,7 +2612,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2452,7 +2641,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2481,7 +2670,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2510,7 +2699,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -2539,7 +2728,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -2568,7 +2757,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -2597,7 +2786,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -2626,7 +2815,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -2655,7 +2844,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -2684,7 +2873,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -2713,7 +2902,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -2742,7 +2931,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2771,7 +2960,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -2800,7 +2989,7 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -2829,7 +3018,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -2852,22 +3041,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>455</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>424</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>425</v>
       </c>
       <c r="I38" t="s">
         <v>63</v>
@@ -2887,7 +3076,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -2916,7 +3105,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -2945,7 +3134,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="518">
   <si>
     <t>Doi</t>
   </si>
@@ -1656,6 +1656,186 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,          Davide%Bianchi%NULL%1,          Francesca%Santi%NULL%1,          Luigi%Costantini%NULL%1,          Anna%Odone%NULL%1,          Carlo%Signorelli%NULL%0,          Alessandra%Costanza%NULL%1,          Gianluca%Serafini%NULL%1,          Mario%Amore%NULL%1,          Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,           Martín%Gagliardi%NULL%2,           Martín%Gagliardi%NULL%0,           Nicolas%Coombes%NULL%1,           Federico%Landriel%NULL%2,           Federico%Landriel%NULL%0,           Carlos%Zanardi%NULL%1,           Gastón Camino%Willhuber%NULL%1,           Juan Pablo%Guyot%NULL%1,           Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,           Nathaniel%Scherer%NULL%10,           Lambert%Felix%NULL%20,           Lambert%Felix%NULL%0,           Hannah%Kuper%NULL%20,           Hannah%Kuper%NULL%0,           Jakob%Pietschnig%NULL%20,           Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,           Nathaniel%Scherer%NULL%0,           Lambert%Felix%NULL%0,           Lambert%Felix%NULL%0,           Hannah%Kuper%NULL%0,           Hannah%Kuper%NULL%0,           Jakob%Pietschnig%NULL%0,           Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,           Koffi Mawuse%Guédénon%NULL%2,           Koffi Mawuse%Guédénon%NULL%0,           Ayoko Akouavi%Dogbe Foli%NULL%1,           Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,           Simeng%Ma%NULL%0,           Ying%Wang%NULL%0,           Zhongxiang%Cai%NULL%0,           Jianbo%Hu%NULL%0,           Ning%Wei%NULL%0,           Jiang%Wu%NULL%0,           Hui%Du%NULL%0,           Tingting%Chen%NULL%0,           Ruiting%Li%NULL%0,           Huawei%Tan%NULL%0,           Lijun%Kang%NULL%0,           Lihua%Yao%NULL%0,           Manli%Huang%NULL%0,           Huafen%Wang%NULL%0,           Gaohua%Wang%NULL%0,           Zhongchun%Liu%NULL%0,           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,           Teresa%Arora%NULL%1,           Ian%Grey%NULL%1,           Lorna Kwai Ping%Suen%NULL%1,           Emma Yun-zhi%Huang%NULL%1,           Daofan%Li%NULL%1,           Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,           Youlin%Chen%NULL%1,           Jianlin%Lv%NULL%1,           Linlin%Liu%NULL%1,           Shiqin%Zong%NULL%1,           Hanxia%Li%NULL%1,           Hong%Li%NULL%1,           Massimo%Tusconi.%NULL%2,           Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,           Hang%Wang%NULL%1,           Yuxing%Lin%NULL%1,           Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,           Eman Zmaily%Dahmash%NULL%2,           Eman Zmaily%Dahmash%NULL%0,           Rabaa%Al‐Rousan%NULL%2,           Rabaa%Al‐Rousan%NULL%0,           Hassan%Alwafi%NULL%1,           Hamzeh Mohammad%Alrawashdeh%NULL%1,           Imene%Ghoul%NULL%1,           Anwer%Abidine%NULL%1,           Mohammed A.%Bokhary%NULL%1,           Hadeel T.%AL‐Hadithi%NULL%1,           Dalia%Ali%NULL%1,           Rasha%Abuthawabeh%NULL%1,           Ghada Mohammad%Abdelwahab%NULL%1,           Yosra J.%Alhartani%NULL%1,           Haneen%Al Muhaisen%NULL%1,           Ayah%Dagash%NULL%1,           Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,           Zahra%Bostani%NULL%1,           Saman%Maroufizadeh%NULL%1,           Atefeh%Ghanbari%NULL%1,           Maryam%Khoshbakht%NULL%1,           Seyed Amirhossein%Alavi%NULL%1,           Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,           Le%Shi%NULL%2,           Le%Shi%NULL%0,           Jiahui%Deng%NULL%1,           Jiajia%Liu%NULL%1,           Li%Zhang%NULL%0,           Suying%Wu%NULL%1,           Yimiao%Gong%NULL%1,           Weizhen%Huang%NULL%1,           Kai%Yuan%NULL%1,           Wei%Yan%NULL%1,           Yankun%Sun%NULL%1,           Maosheng%Ran%NULL%1,           Yanping%Bao%NULL%1,           Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,           Valentina%Socci%NULL%0,           Francesca%Pacitti%NULL%0,           Giorgio%Di Lorenzo%NULL%0,           Antinisca%Di Marco%NULL%0,           Alberto%Siracusano%NULL%0,           Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,            M. H.% Raza%null%1,            Z. U.% Mustafa%null%1,            T. M.% Khan%null%1,            N.% Asif%null%1,            H.% Tahir%null%1,            N.% Shehzadi%null%1,            K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,           Franchesca%Diaz%NULL%1,           Nathalie%Moise%NULL%1,           D. Edmund%Anstey%NULL%1,           Siqin%Ye%NULL%1,           Sachin%Agarwal%NULL%1,           Jeffrey L.%Birk%NULL%1,           Daniel%Brodie%NULL%0,           Diane E.%Cannone%NULL%1,           Bernard%Chang%NULL%1,           Jan%Claassen%NULL%2,           Talea%Cornelius%NULL%1,           Lilly%Derby%NULL%1,           Melissa%Dong%NULL%1,           Raymond C.%Givens%NULL%1,           Beth%Hochman%NULL%1,           Shunichi%Homma%NULL%1,           Ian M.%Kronish%NULL%1,           Sung A.J.%Lee%NULL%1,           Wilhelmina%Manzano%NULL%1,           Laurel E.S.%Mayer%NULL%1,           Cara L.%McMurry%NULL%1,           Vivek%Moitra%NULL%1,           Patrick%Pham%NULL%1,           LeRoy%Rabbani%NULL%1,           Reynaldo R.%Rivera%NULL%1,           Allan%Schwartz%NULL%2,           Joseph E.%Schwartz%NULL%1,           Peter A.%Shapiro%NULL%1,           Kaitlin%Shaw%NULL%1,           Alexandra M.%Sullivan%NULL%1,           Courtney%Vose%NULL%1,           Lauren%Wasson%NULL%1,           Donald%Edmondson%NULL%1,           Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,           Wenning%Fu%NULL%0,           Xiaoran%Liu%NULL%0,           Zhiqian%Luo%NULL%0,           Rixing%Wang%NULL%0,           Ning%Zhou%NULL%0,           Shijiao%Yan%NULL%0,           Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,           Hong-Tao%Guo%NULL%1,           Xue-Wei%Du%NULL%1,           Wen%Song%NULL%1,           Chang%Lu%NULL%1,           Wen-Nv%Hao%NULL%1,           Maria%Kapritsou.%NULL%3,           Maria%Kapritsou.%NULL%0,           Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,           Xiaobin%Zhu%NULL%1,           Shuai%Fu%NULL%1,           Yugang%Hu%NULL%1,           Xiaoning%Li%NULL%0,           Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,           Jing%Liu%NULL%0,           Asghar%Afshar Jahanshahi%NULL%1,           Khaled%Nawaser%NULL%1,           Ali%Yousefi%NULL%1,           Jizhen%Li%NULL%1,           Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,           Kun%Wang%NULL%0,           Lu%Yin%NULL%0,           Wen-feng%Zhao%NULL%1,           Qing%Xue%NULL%1,           Mao%Peng%NULL%1,           Bao-quan%Min%NULL%1,           Qing%Tian%NULL%1,           Hai-xia%Leng%NULL%1,           Jia-lin%Du%NULL%1,           Hong%Chang%NULL%1,           Yuan%Yang%NULL%0,           Wei%Li%NULL%2,           Fang-fang%Shangguan%NULL%1,           Tian-yi%Yan%NULL%1,           Hui-qing%Dong%NULL%1,           Ying%Han%NULL%1,           Yu-ping%Wang%NULL%1,           Fiammetta%Cosci%NULL%1,           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,           Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,           Lin%Sun%NULL%1,           Lan%Zhang%NULL%1,           Huan%Wang%NULL%1,           Ajiao%Fan%NULL%1,           Bin%Yang%NULL%1,           Wei%Li%NULL%0,           Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,           Lu%Dong%NULL%1,           Tao%Wang%NULL%0,           Chenxin%Yuan%NULL%1,           Rao%Fu%NULL%1,           Lei%Zhang%NULL%2,           Bo%Liu%NULL%0,           Mingmin%Zhang%NULL%1,           Yuanyuan%Yin%NULL%1,           Jiawen%Qin%NULL%1,           Jennifer%Bouey%NULL%1,           Min%Zhao%NULL%1,           Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,           Ayşe%Kurtulmuş%NULL%1,           Selim%Arpacıoğlu%NULL%1,           Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,           Gunther%Eysenbach%NULL%1,           Albert%Wu%NULL%2,           Albert%Wu%NULL%0,           Bojana%Knezevic%NULL%1,           Bradley A%Evanoff%bevanoff@wustl.edu%2,           Bradley A%Evanoff%bevanoff@wustl.edu%0,           Jaime R%Strickland%NULL%2,           Jaime R%Strickland%NULL%0,           Ann Marie%Dale%NULL%2,           Ann Marie%Dale%NULL%0,           Lisa%Hayibor%NULL%2,           Lisa%Hayibor%NULL%0,           Emily%Page%NULL%2,           Emily%Page%NULL%0,           Jennifer G%Duncan%NULL%2,           Jennifer G%Duncan%NULL%0,           Thomas%Kannampallil%NULL%2,           Thomas%Kannampallil%NULL%0,           Diana L%Gray%NULL%2,           Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,           Ranjan%Bhattacharyya%NULL%1,           Sumita%Bhattacharyya%NULL%1,           Sukanya%Gupta%NULL%1,           Soumitra%Das%NULL%1,           Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,           Xinghuang%Liu%NULL%2,           Xinghuang%Liu%NULL%0,           Dongke%Wang%NULL%2,           Dongke%Wang%NULL%0,           Yan%Jin%NULL%2,           Yan%Jin%NULL%0,           Miao%He%NULL%1,           Yanling%Ma%NULL%1,           Xiaolong%Zhao%NULL%1,           Shuangning%Song%NULL%1,           Lei%Zhang%NULL%0,           Xuelian%Xiang%NULL%1,           Ling%Yang%NULL%0,           Jun%Song%song111jun@126.com%1,           Tao%Bai%drbaitao@126.com%0,           Xiaohua%Hou%houxh@hust.edu.cn%2,           Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,           Hao%Zhou%haoye320@163.com%1,           Yan%Zhou%NULL%1,           Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,   Maciej%Debski%xref no email%1,   Andrew%Wiper%xref no email%1,   Amr%Abdelrahman%xref no email%1,   Susan%Wild%xref no email%1,   Shajil%Chalil%xref no email%1,   Ranjit%More%xref no email%1,   Grahame%Goode%xref no email%1,   Billal%Patel%xref no email%1,   Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,           Piyaporn%Apisarnthanarak%NULL%2,           Piyaporn%Apisarnthanarak%NULL%0,           Chanida%Siripraparat%NULL%2,           Chanida%Siripraparat%NULL%0,           Pavarat%Saengaram%NULL%1,           Narakorn%Leeprechanon%NULL%1,           David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,           Davide%Bianchi%NULL%1,           Francesca%Santi%NULL%1,           Luigi%Costantini%NULL%1,           Anna%Odone%NULL%1,           Carlo%Signorelli%NULL%0,           Alessandra%Costanza%NULL%1,           Gianluca%Serafini%NULL%1,           Mario%Amore%NULL%1,           Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,            Martín%Gagliardi%NULL%2,            Martín%Gagliardi%NULL%0,            Nicolas%Coombes%NULL%1,            Federico%Landriel%NULL%2,            Federico%Landriel%NULL%0,            Carlos%Zanardi%NULL%1,            Gastón Camino%Willhuber%NULL%1,            Juan Pablo%Guyot%NULL%1,            Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,            Nathaniel%Scherer%NULL%10,            Lambert%Felix%NULL%20,            Lambert%Felix%NULL%0,            Hannah%Kuper%NULL%20,            Hannah%Kuper%NULL%0,            Jakob%Pietschnig%NULL%20,            Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,            Nathaniel%Scherer%NULL%0,            Lambert%Felix%NULL%0,            Lambert%Felix%NULL%0,            Hannah%Kuper%NULL%0,            Hannah%Kuper%NULL%0,            Jakob%Pietschnig%NULL%0,            Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,            Koffi Mawuse%Guédénon%NULL%2,            Koffi Mawuse%Guédénon%NULL%0,            Ayoko Akouavi%Dogbe Foli%NULL%1,            Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,            Simeng%Ma%NULL%0,            Ying%Wang%NULL%0,            Zhongxiang%Cai%NULL%0,            Jianbo%Hu%NULL%0,            Ning%Wei%NULL%0,            Jiang%Wu%NULL%0,            Hui%Du%NULL%0,            Tingting%Chen%NULL%0,            Ruiting%Li%NULL%0,            Huawei%Tan%NULL%0,            Lijun%Kang%NULL%0,            Lihua%Yao%NULL%0,            Manli%Huang%NULL%0,            Huafen%Wang%NULL%0,            Gaohua%Wang%NULL%0,            Zhongchun%Liu%NULL%0,            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,            Teresa%Arora%NULL%1,            Ian%Grey%NULL%1,            Lorna Kwai Ping%Suen%NULL%1,            Emma Yun-zhi%Huang%NULL%1,            Daofan%Li%NULL%1,            Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,            Youlin%Chen%NULL%1,            Jianlin%Lv%NULL%1,            Linlin%Liu%NULL%1,            Shiqin%Zong%NULL%1,            Hanxia%Li%NULL%1,            Hong%Li%NULL%1,            Massimo%Tusconi.%NULL%2,            Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,            Hang%Wang%NULL%1,            Yuxing%Lin%NULL%1,            Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,            Eman Zmaily%Dahmash%NULL%2,            Eman Zmaily%Dahmash%NULL%0,            Rabaa%Al‐Rousan%NULL%2,            Rabaa%Al‐Rousan%NULL%0,            Hassan%Alwafi%NULL%1,            Hamzeh Mohammad%Alrawashdeh%NULL%1,            Imene%Ghoul%NULL%1,            Anwer%Abidine%NULL%1,            Mohammed A.%Bokhary%NULL%1,            Hadeel T.%AL‐Hadithi%NULL%1,            Dalia%Ali%NULL%1,            Rasha%Abuthawabeh%NULL%1,            Ghada Mohammad%Abdelwahab%NULL%1,            Yosra J.%Alhartani%NULL%1,            Haneen%Al Muhaisen%NULL%1,            Ayah%Dagash%NULL%1,            Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,            Zahra%Bostani%NULL%1,            Saman%Maroufizadeh%NULL%1,            Atefeh%Ghanbari%NULL%1,            Maryam%Khoshbakht%NULL%1,            Seyed Amirhossein%Alavi%NULL%1,            Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,            Le%Shi%NULL%2,            Le%Shi%NULL%0,            Jiahui%Deng%NULL%1,            Jiajia%Liu%NULL%1,            Li%Zhang%NULL%0,            Suying%Wu%NULL%1,            Yimiao%Gong%NULL%1,            Weizhen%Huang%NULL%1,            Kai%Yuan%NULL%1,            Wei%Yan%NULL%1,            Yankun%Sun%NULL%1,            Maosheng%Ran%NULL%1,            Yanping%Bao%NULL%1,            Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,            Valentina%Socci%NULL%0,            Francesca%Pacitti%NULL%0,            Giorgio%Di Lorenzo%NULL%0,            Antinisca%Di Marco%NULL%0,            Alberto%Siracusano%NULL%0,            Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,             M. H.% Raza%null%1,             Z. U.% Mustafa%null%1,             T. M.% Khan%null%1,             N.% Asif%null%1,             H.% Tahir%null%1,             N.% Shehzadi%null%1,             K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,            Franchesca%Diaz%NULL%1,            Nathalie%Moise%NULL%1,            D. Edmund%Anstey%NULL%1,            Siqin%Ye%NULL%1,            Sachin%Agarwal%NULL%1,            Jeffrey L.%Birk%NULL%1,            Daniel%Brodie%NULL%0,            Diane E.%Cannone%NULL%1,            Bernard%Chang%NULL%1,            Jan%Claassen%NULL%2,            Talea%Cornelius%NULL%1,            Lilly%Derby%NULL%1,            Melissa%Dong%NULL%1,            Raymond C.%Givens%NULL%1,            Beth%Hochman%NULL%1,            Shunichi%Homma%NULL%1,            Ian M.%Kronish%NULL%1,            Sung A.J.%Lee%NULL%1,            Wilhelmina%Manzano%NULL%1,            Laurel E.S.%Mayer%NULL%1,            Cara L.%McMurry%NULL%1,            Vivek%Moitra%NULL%1,            Patrick%Pham%NULL%1,            LeRoy%Rabbani%NULL%1,            Reynaldo R.%Rivera%NULL%1,            Allan%Schwartz%NULL%2,            Joseph E.%Schwartz%NULL%1,            Peter A.%Shapiro%NULL%1,            Kaitlin%Shaw%NULL%1,            Alexandra M.%Sullivan%NULL%1,            Courtney%Vose%NULL%1,            Lauren%Wasson%NULL%1,            Donald%Edmondson%NULL%1,            Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,            Wenning%Fu%NULL%0,            Xiaoran%Liu%NULL%0,            Zhiqian%Luo%NULL%0,            Rixing%Wang%NULL%0,            Ning%Zhou%NULL%0,            Shijiao%Yan%NULL%0,            Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,            Hong-Tao%Guo%NULL%1,            Xue-Wei%Du%NULL%1,            Wen%Song%NULL%1,            Chang%Lu%NULL%1,            Wen-Nv%Hao%NULL%1,            Maria%Kapritsou.%NULL%3,            Maria%Kapritsou.%NULL%0,            Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,            Xiaobin%Zhu%NULL%1,            Shuai%Fu%NULL%1,            Yugang%Hu%NULL%1,            Xiaoning%Li%NULL%0,            Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,            Jing%Liu%NULL%0,            Asghar%Afshar Jahanshahi%NULL%1,            Khaled%Nawaser%NULL%1,            Ali%Yousefi%NULL%1,            Jizhen%Li%NULL%1,            Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,            Kun%Wang%NULL%2,            Lu%Yin%NULL%0,            Wen-feng%Zhao%NULL%1,            Qing%Xue%NULL%1,            Mao%Peng%NULL%1,            Bao-quan%Min%NULL%1,            Qing%Tian%NULL%1,            Hai-xia%Leng%NULL%1,            Jia-lin%Du%NULL%1,            Hong%Chang%NULL%1,            Yuan%Yang%NULL%0,            Wei%Li%NULL%2,            Fang-fang%Shangguan%NULL%1,            Tian-yi%Yan%NULL%1,            Hui-qing%Dong%NULL%1,            Ying%Han%NULL%1,            Yu-ping%Wang%NULL%1,            Fiammetta%Cosci%NULL%1,            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,            Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,            Lin%Sun%NULL%1,            Lan%Zhang%NULL%1,            Huan%Wang%NULL%1,            Ajiao%Fan%NULL%1,            Bin%Yang%NULL%1,            Wei%Li%NULL%0,            Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,            Lu%Dong%NULL%1,            Tao%Wang%NULL%0,            Chenxin%Yuan%NULL%1,            Rao%Fu%NULL%1,            Lei%Zhang%NULL%2,            Bo%Liu%NULL%0,            Mingmin%Zhang%NULL%1,            Yuanyuan%Yin%NULL%1,            Jiawen%Qin%NULL%1,            Jennifer%Bouey%NULL%1,            Min%Zhao%NULL%1,            Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,            Ayşe%Kurtulmuş%NULL%1,            Selim%Arpacıoğlu%NULL%1,            Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,            Gunther%Eysenbach%NULL%1,            Albert%Wu%NULL%2,            Albert%Wu%NULL%0,            Bojana%Knezevic%NULL%1,            Bradley A%Evanoff%bevanoff@wustl.edu%2,            Bradley A%Evanoff%bevanoff@wustl.edu%0,            Jaime R%Strickland%NULL%2,            Jaime R%Strickland%NULL%0,            Ann Marie%Dale%NULL%2,            Ann Marie%Dale%NULL%0,            Lisa%Hayibor%NULL%2,            Lisa%Hayibor%NULL%0,            Emily%Page%NULL%2,            Emily%Page%NULL%0,            Jennifer G%Duncan%NULL%2,            Jennifer G%Duncan%NULL%0,            Thomas%Kannampallil%NULL%2,            Thomas%Kannampallil%NULL%0,            Diana L%Gray%NULL%2,            Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,            Ranjan%Bhattacharyya%NULL%1,            Sumita%Bhattacharyya%NULL%1,            Sukanya%Gupta%NULL%1,            Soumitra%Das%NULL%1,            Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,            Xinghuang%Liu%NULL%2,            Xinghuang%Liu%NULL%0,            Dongke%Wang%NULL%2,            Dongke%Wang%NULL%0,            Yan%Jin%NULL%2,            Yan%Jin%NULL%0,            Miao%He%NULL%1,            Yanling%Ma%NULL%1,            Xiaolong%Zhao%NULL%1,            Shuangning%Song%NULL%1,            Lei%Zhang%NULL%0,            Xuelian%Xiang%NULL%1,            Ling%Yang%NULL%0,            Jun%Song%song111jun@126.com%1,            Tao%Bai%drbaitao@126.com%4,            Xiaohua%Hou%houxh@hust.edu.cn%2,            Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,            Hao%Zhou%haoye320@163.com%1,            Yan%Zhou%NULL%1,            Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,    Maciej%Debski%xref no email%1,    Andrew%Wiper%xref no email%1,    Amr%Abdelrahman%xref no email%1,    Susan%Wild%xref no email%1,    Shajil%Chalil%xref no email%1,    Ranjit%More%xref no email%1,    Grahame%Goode%xref no email%1,    Billal%Patel%xref no email%1,    Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,            Piyaporn%Apisarnthanarak%NULL%2,            Piyaporn%Apisarnthanarak%NULL%0,            Chanida%Siripraparat%NULL%2,            Chanida%Siripraparat%NULL%0,            Pavarat%Saengaram%NULL%1,            Narakorn%Leeprechanon%NULL%1,            David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,            Davide%Bianchi%NULL%1,            Francesca%Santi%NULL%1,            Luigi%Costantini%NULL%1,            Anna%Odone%NULL%1,            Carlo%Signorelli%NULL%0,            Alessandra%Costanza%NULL%1,            Gianluca%Serafini%NULL%1,            Mario%Amore%NULL%1,            Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2032,7 +2212,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2090,7 +2270,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2119,7 +2299,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2148,7 +2328,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2177,7 +2357,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2206,7 +2386,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2235,7 +2415,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2264,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2293,7 +2473,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2322,7 +2502,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2351,7 +2531,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2409,7 +2589,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2438,7 +2618,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2467,7 +2647,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2496,7 +2676,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2525,7 +2705,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -2554,7 +2734,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2583,7 +2763,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2612,7 +2792,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2641,7 +2821,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2670,7 +2850,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2699,7 +2879,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -2728,7 +2908,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -2757,7 +2937,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -2786,7 +2966,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -2815,7 +2995,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -2844,7 +3024,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -2873,7 +3053,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -2902,7 +3082,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -2931,7 +3111,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2960,7 +3140,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -2989,7 +3169,7 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3018,7 +3198,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3047,7 +3227,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3076,7 +3256,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3105,7 +3285,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3134,7 +3314,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="579">
   <si>
     <t>Doi</t>
   </si>
@@ -1836,6 +1836,206 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,            Davide%Bianchi%NULL%1,            Francesca%Santi%NULL%1,            Luigi%Costantini%NULL%1,            Anna%Odone%NULL%1,            Carlo%Signorelli%NULL%0,            Alessandra%Costanza%NULL%1,            Gianluca%Serafini%NULL%1,            Mario%Amore%NULL%1,            Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,             Martín%Gagliardi%NULL%2,             Martín%Gagliardi%NULL%0,             Nicolas%Coombes%NULL%1,             Federico%Landriel%NULL%2,             Federico%Landriel%NULL%0,             Carlos%Zanardi%NULL%1,             Gastón Camino%Willhuber%NULL%1,             Juan Pablo%Guyot%NULL%1,             Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,             Nathaniel%Scherer%NULL%10,             Lambert%Felix%NULL%20,             Lambert%Felix%NULL%0,             Hannah%Kuper%NULL%20,             Hannah%Kuper%NULL%0,             Jakob%Pietschnig%NULL%20,             Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,             Nathaniel%Scherer%NULL%0,             Lambert%Felix%NULL%0,             Lambert%Felix%NULL%0,             Hannah%Kuper%NULL%0,             Hannah%Kuper%NULL%0,             Jakob%Pietschnig%NULL%0,             Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,             Koffi Mawuse%Guédénon%NULL%2,             Koffi Mawuse%Guédénon%NULL%0,             Ayoko Akouavi%Dogbe Foli%NULL%1,             Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,             Simeng%Ma%NULL%0,             Ying%Wang%NULL%0,             Zhongxiang%Cai%NULL%0,             Jianbo%Hu%NULL%0,             Ning%Wei%NULL%0,             Jiang%Wu%NULL%0,             Hui%Du%NULL%0,             Tingting%Chen%NULL%0,             Ruiting%Li%NULL%0,             Huawei%Tan%NULL%0,             Lijun%Kang%NULL%0,             Lihua%Yao%NULL%0,             Manli%Huang%NULL%0,             Huafen%Wang%NULL%0,             Gaohua%Wang%NULL%0,             Zhongchun%Liu%NULL%0,             Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,             Teresa%Arora%NULL%1,             Ian%Grey%NULL%1,             Lorna Kwai Ping%Suen%NULL%1,             Emma Yun-zhi%Huang%NULL%1,             Daofan%Li%NULL%1,             Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,             Youlin%Chen%NULL%1,             Jianlin%Lv%NULL%1,             Linlin%Liu%NULL%1,             Shiqin%Zong%NULL%1,             Hanxia%Li%NULL%1,             Hong%Li%NULL%1,             Massimo%Tusconi.%NULL%2,             Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,             Hang%Wang%NULL%1,             Yuxing%Lin%NULL%1,             Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,             Eman Zmaily%Dahmash%NULL%2,             Eman Zmaily%Dahmash%NULL%0,             Rabaa%Al‐Rousan%NULL%2,             Rabaa%Al‐Rousan%NULL%0,             Hassan%Alwafi%NULL%1,             Hamzeh Mohammad%Alrawashdeh%NULL%1,             Imene%Ghoul%NULL%1,             Anwer%Abidine%NULL%1,             Mohammed A.%Bokhary%NULL%1,             Hadeel T.%AL‐Hadithi%NULL%1,             Dalia%Ali%NULL%1,             Rasha%Abuthawabeh%NULL%1,             Ghada Mohammad%Abdelwahab%NULL%1,             Yosra J.%Alhartani%NULL%1,             Haneen%Al Muhaisen%NULL%1,             Ayah%Dagash%NULL%1,             Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,             Zahra%Bostani%NULL%1,             Saman%Maroufizadeh%NULL%1,             Atefeh%Ghanbari%NULL%1,             Maryam%Khoshbakht%NULL%1,             Seyed Amirhossein%Alavi%NULL%1,             Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,             Le%Shi%NULL%2,             Le%Shi%NULL%0,             Jiahui%Deng%NULL%1,             Jiajia%Liu%NULL%1,             Li%Zhang%NULL%0,             Suying%Wu%NULL%1,             Yimiao%Gong%NULL%1,             Weizhen%Huang%NULL%1,             Kai%Yuan%NULL%1,             Wei%Yan%NULL%1,             Yankun%Sun%NULL%1,             Maosheng%Ran%NULL%1,             Yanping%Bao%NULL%1,             Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,             Valentina%Socci%NULL%0,             Francesca%Pacitti%NULL%0,             Giorgio%Di Lorenzo%NULL%0,             Antinisca%Di Marco%NULL%0,             Alberto%Siracusano%NULL%0,             Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,              M. H.% Raza%null%1,              Z. U.% Mustafa%null%1,              T. M.% Khan%null%1,              N.% Asif%null%1,              H.% Tahir%null%1,              N.% Shehzadi%null%1,              K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,             Franchesca%Diaz%NULL%1,             Nathalie%Moise%NULL%1,             D. Edmund%Anstey%NULL%1,             Siqin%Ye%NULL%1,             Sachin%Agarwal%NULL%1,             Jeffrey L.%Birk%NULL%1,             Daniel%Brodie%NULL%0,             Diane E.%Cannone%NULL%1,             Bernard%Chang%NULL%1,             Jan%Claassen%NULL%2,             Talea%Cornelius%NULL%1,             Lilly%Derby%NULL%1,             Melissa%Dong%NULL%1,             Raymond C.%Givens%NULL%1,             Beth%Hochman%NULL%1,             Shunichi%Homma%NULL%1,             Ian M.%Kronish%NULL%1,             Sung A.J.%Lee%NULL%1,             Wilhelmina%Manzano%NULL%1,             Laurel E.S.%Mayer%NULL%1,             Cara L.%McMurry%NULL%1,             Vivek%Moitra%NULL%1,             Patrick%Pham%NULL%1,             LeRoy%Rabbani%NULL%1,             Reynaldo R.%Rivera%NULL%1,             Allan%Schwartz%NULL%2,             Joseph E.%Schwartz%NULL%1,             Peter A.%Shapiro%NULL%1,             Kaitlin%Shaw%NULL%1,             Alexandra M.%Sullivan%NULL%1,             Courtney%Vose%NULL%1,             Lauren%Wasson%NULL%1,             Donald%Edmondson%NULL%1,             Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,             Wenning%Fu%NULL%0,             Xiaoran%Liu%NULL%0,             Zhiqian%Luo%NULL%0,             Rixing%Wang%NULL%0,             Ning%Zhou%NULL%0,             Shijiao%Yan%NULL%0,             Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,             Hong-Tao%Guo%NULL%1,             Xue-Wei%Du%NULL%1,             Wen%Song%NULL%1,             Chang%Lu%NULL%1,             Wen-Nv%Hao%NULL%1,             Maria%Kapritsou.%NULL%3,             Maria%Kapritsou.%NULL%0,             Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,             Xiaobin%Zhu%NULL%1,             Shuai%Fu%NULL%1,             Yugang%Hu%NULL%1,             Xiaoning%Li%NULL%0,             Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,             Jing%Liu%NULL%0,             Asghar%Afshar Jahanshahi%NULL%1,             Khaled%Nawaser%NULL%1,             Ali%Yousefi%NULL%1,             Jizhen%Li%NULL%1,             Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,             Kun%Wang%NULL%2,             Lu%Yin%NULL%0,             Wen-feng%Zhao%NULL%1,             Qing%Xue%NULL%1,             Mao%Peng%NULL%1,             Bao-quan%Min%NULL%1,             Qing%Tian%NULL%1,             Hai-xia%Leng%NULL%1,             Jia-lin%Du%NULL%1,             Hong%Chang%NULL%1,             Yuan%Yang%NULL%0,             Wei%Li%NULL%2,             Fang-fang%Shangguan%NULL%1,             Tian-yi%Yan%NULL%1,             Hui-qing%Dong%NULL%1,             Ying%Han%NULL%1,             Yu-ping%Wang%NULL%1,             Fiammetta%Cosci%NULL%1,             Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,             Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,             Lin%Sun%NULL%1,             Lan%Zhang%NULL%1,             Huan%Wang%NULL%1,             Ajiao%Fan%NULL%1,             Bin%Yang%NULL%1,             Wei%Li%NULL%0,             Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,             Lu%Dong%NULL%1,             Tao%Wang%NULL%0,             Chenxin%Yuan%NULL%1,             Rao%Fu%NULL%1,             Lei%Zhang%NULL%2,             Bo%Liu%NULL%0,             Mingmin%Zhang%NULL%1,             Yuanyuan%Yin%NULL%1,             Jiawen%Qin%NULL%1,             Jennifer%Bouey%NULL%1,             Min%Zhao%NULL%1,             Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,             Ayşe%Kurtulmuş%NULL%1,             Selim%Arpacıoğlu%NULL%1,             Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,             Gunther%Eysenbach%NULL%1,             Albert%Wu%NULL%2,             Albert%Wu%NULL%0,             Bojana%Knezevic%NULL%1,             Bradley A%Evanoff%bevanoff@wustl.edu%2,             Bradley A%Evanoff%bevanoff@wustl.edu%0,             Jaime R%Strickland%NULL%2,             Jaime R%Strickland%NULL%0,             Ann Marie%Dale%NULL%2,             Ann Marie%Dale%NULL%0,             Lisa%Hayibor%NULL%2,             Lisa%Hayibor%NULL%0,             Emily%Page%NULL%2,             Emily%Page%NULL%0,             Jennifer G%Duncan%NULL%2,             Jennifer G%Duncan%NULL%0,             Thomas%Kannampallil%NULL%2,             Thomas%Kannampallil%NULL%0,             Diana L%Gray%NULL%2,             Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,             Ranjan%Bhattacharyya%NULL%1,             Sumita%Bhattacharyya%NULL%1,             Sukanya%Gupta%NULL%1,             Soumitra%Das%NULL%1,             Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+This study was conducted to evaluate the status of depression and anxiety of healthcare workers and to explore the risk factors during the outbreak of COVID-19 in China.
+Methods
+A cross-sectional study was designed using convenience sampling to obtain a sample of healthcare workers.
+ A structured questionnaire was designed to collect the information of the basic characteristics, workload, and the health condition.
+ Burnout, coping style, anxiety, and depression were measured by specific scales.
+ Multiple logistic regression model was performed to explore the risk factors of anxiety or depression.
+Results
+There were 902 questionnaires received between February 9, 2020 and February 11, 2020. The proportion of healthcare workers with symptoms of moderate/severe anxiety and moderate/severe depression were 16.63% and 18.29%, respectively.
+ There were 24.50% healthcare workers experiencing moderate/severe anxiety and depression at the same time.
+ The increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, having family member needs to be taken care of, negative coping style, and job burnout were the independent risk factors of anxiety.
+ Furthermore, the increased workload, respiratory symptoms, digestive symptoms, having done specific test(s) related to COVID-19, negative coping style, and job burnout were the independent risk factors of depression.
+Conclusion
+More attention should be paid to the mental health of frontline healthcare workers at the outbreak of COVID-19 in China.
+ Taking steps to reduce the intensity of the work and burnout will be effective to stabilize the mental state of them.
+Electronic supplementary material
+The online version of this article (10.1007/s00127-020-01954-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,             Xinghuang%Liu%NULL%2,             Xinghuang%Liu%NULL%0,             Dongke%Wang%NULL%2,             Dongke%Wang%NULL%0,             Yan%Jin%NULL%2,             Yan%Jin%NULL%0,             Miao%He%NULL%1,             Yanling%Ma%NULL%1,             Xiaolong%Zhao%NULL%1,             Shuangning%Song%NULL%1,             Lei%Zhang%NULL%0,             Xuelian%Xiang%NULL%1,             Ling%Yang%NULL%0,             Jun%Song%song111jun@126.com%1,             Tao%Bai%drbaitao@126.com%4,             Xiaohua%Hou%houxh@hust.edu.cn%2,             Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,             Hao%Zhou%haoye320@163.com%1,             Yan%Zhou%NULL%1,             Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,     Maciej%Debski%xref no email%1,     Andrew%Wiper%xref no email%1,     Amr%Abdelrahman%xref no email%1,     Susan%Wild%xref no email%1,     Shajil%Chalil%xref no email%1,     Ranjit%More%xref no email%1,     Grahame%Goode%xref no email%1,     Billal%Patel%xref no email%1,     Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,             Piyaporn%Apisarnthanarak%NULL%2,             Piyaporn%Apisarnthanarak%NULL%0,             Chanida%Siripraparat%NULL%2,             Chanida%Siripraparat%NULL%0,             Pavarat%Saengaram%NULL%1,             Narakorn%Leeprechanon%NULL%1,             David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,             Davide%Bianchi%NULL%1,             Francesca%Santi%NULL%1,             Luigi%Costantini%NULL%1,             Anna%Odone%NULL%1,             Carlo%Signorelli%NULL%0,             Alessandra%Costanza%NULL%1,             Gianluca%Serafini%NULL%1,             Mario%Amore%NULL%1,             Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,              Martín%Gagliardi%NULL%2,              Martín%Gagliardi%NULL%0,              Nicolas%Coombes%NULL%1,              Federico%Landriel%NULL%2,              Federico%Landriel%NULL%0,              Carlos%Zanardi%NULL%1,              Gastón Camino%Willhuber%NULL%1,              Juan Pablo%Guyot%NULL%1,              Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,              Nathaniel%Scherer%NULL%10,              Lambert%Felix%NULL%20,              Lambert%Felix%NULL%0,              Hannah%Kuper%NULL%20,              Hannah%Kuper%NULL%0,              Jakob%Pietschnig%NULL%20,              Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,              Nathaniel%Scherer%NULL%0,              Lambert%Felix%NULL%0,              Lambert%Felix%NULL%0,              Hannah%Kuper%NULL%0,              Hannah%Kuper%NULL%0,              Jakob%Pietschnig%NULL%0,              Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,              Koffi Mawuse%Guédénon%NULL%2,              Koffi Mawuse%Guédénon%NULL%0,              Ayoko Akouavi%Dogbe Foli%NULL%1,              Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,              Simeng%Ma%NULL%0,              Ying%Wang%NULL%0,              Zhongxiang%Cai%NULL%0,              Jianbo%Hu%NULL%0,              Ning%Wei%NULL%0,              Jiang%Wu%NULL%0,              Hui%Du%NULL%0,              Tingting%Chen%NULL%0,              Ruiting%Li%NULL%0,              Huawei%Tan%NULL%0,              Lijun%Kang%NULL%0,              Lihua%Yao%NULL%0,              Manli%Huang%NULL%0,              Huafen%Wang%NULL%0,              Gaohua%Wang%NULL%0,              Zhongchun%Liu%NULL%0,              Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,              Teresa%Arora%NULL%1,              Ian%Grey%NULL%1,              Lorna Kwai Ping%Suen%NULL%1,              Emma Yun-zhi%Huang%NULL%1,              Daofan%Li%NULL%1,              Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,              Youlin%Chen%NULL%1,              Jianlin%Lv%NULL%1,              Linlin%Liu%NULL%1,              Shiqin%Zong%NULL%1,              Hanxia%Li%NULL%1,              Hong%Li%NULL%1,              Massimo%Tusconi.%NULL%2,              Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,              Hang%Wang%NULL%1,              Yuxing%Lin%NULL%1,              Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,              Eman Zmaily%Dahmash%NULL%2,              Eman Zmaily%Dahmash%NULL%0,              Rabaa%Al‐Rousan%NULL%2,              Rabaa%Al‐Rousan%NULL%0,              Hassan%Alwafi%NULL%1,              Hamzeh Mohammad%Alrawashdeh%NULL%1,              Imene%Ghoul%NULL%1,              Anwer%Abidine%NULL%1,              Mohammed A.%Bokhary%NULL%1,              Hadeel T.%AL‐Hadithi%NULL%1,              Dalia%Ali%NULL%1,              Rasha%Abuthawabeh%NULL%1,              Ghada Mohammad%Abdelwahab%NULL%1,              Yosra J.%Alhartani%NULL%1,              Haneen%Al Muhaisen%NULL%1,              Ayah%Dagash%NULL%1,              Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,              Zahra%Bostani%NULL%1,              Saman%Maroufizadeh%NULL%1,              Atefeh%Ghanbari%NULL%1,              Maryam%Khoshbakht%NULL%1,              Seyed Amirhossein%Alavi%NULL%1,              Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,              Le%Shi%NULL%2,              Le%Shi%NULL%0,              Jiahui%Deng%NULL%1,              Jiajia%Liu%NULL%1,              Li%Zhang%NULL%0,              Suying%Wu%NULL%1,              Yimiao%Gong%NULL%1,              Weizhen%Huang%NULL%1,              Kai%Yuan%NULL%1,              Wei%Yan%NULL%1,              Yankun%Sun%NULL%1,              Maosheng%Ran%NULL%1,              Yanping%Bao%NULL%1,              Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,              Valentina%Socci%NULL%0,              Francesca%Pacitti%NULL%0,              Giorgio%Di Lorenzo%NULL%0,              Antinisca%Di Marco%NULL%0,              Alberto%Siracusano%NULL%0,              Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,               M. H.% Raza%null%1,               Z. U.% Mustafa%null%1,               T. M.% Khan%null%1,               N.% Asif%null%1,               H.% Tahir%null%1,               N.% Shehzadi%null%1,               K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,              Franchesca%Diaz%NULL%1,              Nathalie%Moise%NULL%1,              D. Edmund%Anstey%NULL%1,              Siqin%Ye%NULL%1,              Sachin%Agarwal%NULL%1,              Jeffrey L.%Birk%NULL%1,              Daniel%Brodie%NULL%0,              Diane E.%Cannone%NULL%1,              Bernard%Chang%NULL%1,              Jan%Claassen%NULL%2,              Talea%Cornelius%NULL%1,              Lilly%Derby%NULL%1,              Melissa%Dong%NULL%1,              Raymond C.%Givens%NULL%1,              Beth%Hochman%NULL%1,              Shunichi%Homma%NULL%1,              Ian M.%Kronish%NULL%1,              Sung A.J.%Lee%NULL%1,              Wilhelmina%Manzano%NULL%1,              Laurel E.S.%Mayer%NULL%1,              Cara L.%McMurry%NULL%1,              Vivek%Moitra%NULL%1,              Patrick%Pham%NULL%1,              LeRoy%Rabbani%NULL%1,              Reynaldo R.%Rivera%NULL%1,              Allan%Schwartz%NULL%2,              Joseph E.%Schwartz%NULL%1,              Peter A.%Shapiro%NULL%1,              Kaitlin%Shaw%NULL%1,              Alexandra M.%Sullivan%NULL%1,              Courtney%Vose%NULL%1,              Lauren%Wasson%NULL%1,              Donald%Edmondson%NULL%1,              Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,              Wenning%Fu%NULL%0,              Xiaoran%Liu%NULL%0,              Zhiqian%Luo%NULL%0,              Rixing%Wang%NULL%0,              Ning%Zhou%NULL%0,              Shijiao%Yan%NULL%0,              Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,              Hong-Tao%Guo%NULL%1,              Xue-Wei%Du%NULL%1,              Wen%Song%NULL%1,              Chang%Lu%NULL%1,              Wen-Nv%Hao%NULL%1,              Maria%Kapritsou.%NULL%3,              Maria%Kapritsou.%NULL%0,              Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,              Xiaobin%Zhu%NULL%1,              Shuai%Fu%NULL%1,              Yugang%Hu%NULL%1,              Xiaoning%Li%NULL%0,              Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,              Jing%Liu%NULL%0,              Asghar%Afshar Jahanshahi%NULL%1,              Khaled%Nawaser%NULL%1,              Ali%Yousefi%NULL%1,              Jizhen%Li%NULL%1,              Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,              Kun%Wang%NULL%2,              Lu%Yin%NULL%0,              Wen-feng%Zhao%NULL%1,              Qing%Xue%NULL%1,              Mao%Peng%NULL%1,              Bao-quan%Min%NULL%1,              Qing%Tian%NULL%1,              Hai-xia%Leng%NULL%1,              Jia-lin%Du%NULL%1,              Hong%Chang%NULL%1,              Yuan%Yang%NULL%0,              Wei%Li%NULL%2,              Fang-fang%Shangguan%NULL%1,              Tian-yi%Yan%NULL%1,              Hui-qing%Dong%NULL%1,              Ying%Han%NULL%1,              Yu-ping%Wang%NULL%1,              Fiammetta%Cosci%NULL%1,              Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,              Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,              Lin%Sun%NULL%1,              Lan%Zhang%NULL%1,              Huan%Wang%NULL%1,              Ajiao%Fan%NULL%1,              Bin%Yang%NULL%1,              Wei%Li%NULL%0,              Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,              Lu%Dong%NULL%1,              Tao%Wang%NULL%0,              Chenxin%Yuan%NULL%1,              Rao%Fu%NULL%1,              Lei%Zhang%NULL%2,              Bo%Liu%NULL%0,              Mingmin%Zhang%NULL%1,              Yuanyuan%Yin%NULL%1,              Jiawen%Qin%NULL%1,              Jennifer%Bouey%NULL%1,              Min%Zhao%NULL%1,              Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,              Ayşe%Kurtulmuş%NULL%1,              Selim%Arpacıoğlu%NULL%1,              Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,              Gunther%Eysenbach%NULL%1,              Albert%Wu%NULL%2,              Albert%Wu%NULL%0,              Bojana%Knezevic%NULL%1,              Bradley A%Evanoff%bevanoff@wustl.edu%2,              Bradley A%Evanoff%bevanoff@wustl.edu%0,              Jaime R%Strickland%NULL%2,              Jaime R%Strickland%NULL%0,              Ann Marie%Dale%NULL%2,              Ann Marie%Dale%NULL%0,              Lisa%Hayibor%NULL%2,              Lisa%Hayibor%NULL%0,              Emily%Page%NULL%2,              Emily%Page%NULL%0,              Jennifer G%Duncan%NULL%2,              Jennifer G%Duncan%NULL%0,              Thomas%Kannampallil%NULL%2,              Thomas%Kannampallil%NULL%0,              Diana L%Gray%NULL%2,              Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,              Ranjan%Bhattacharyya%NULL%1,              Sumita%Bhattacharyya%NULL%1,              Sukanya%Gupta%NULL%1,              Soumitra%Das%NULL%1,              Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,              Xinghuang%Liu%NULL%2,              Xinghuang%Liu%NULL%0,              Dongke%Wang%NULL%2,              Dongke%Wang%NULL%0,              Yan%Jin%NULL%2,              Yan%Jin%NULL%0,              Miao%He%NULL%1,              Yanling%Ma%NULL%1,              Xiaolong%Zhao%NULL%1,              Shuangning%Song%NULL%1,              Lei%Zhang%NULL%0,              Xuelian%Xiang%NULL%1,              Ling%Yang%NULL%0,              Jun%Song%song111jun@126.com%1,              Tao%Bai%drbaitao@126.com%4,              Xiaohua%Hou%houxh@hust.edu.cn%2,              Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,              Hao%Zhou%haoye320@163.com%1,              Yan%Zhou%NULL%1,              Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,      Maciej%Debski%xref no email%1,      Andrew%Wiper%xref no email%1,      Amr%Abdelrahman%xref no email%1,      Susan%Wild%xref no email%1,      Shajil%Chalil%xref no email%1,      Ranjit%More%xref no email%1,      Grahame%Goode%xref no email%1,      Billal%Patel%xref no email%1,      Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,              Piyaporn%Apisarnthanarak%NULL%2,              Piyaporn%Apisarnthanarak%NULL%0,              Chanida%Siripraparat%NULL%2,              Chanida%Siripraparat%NULL%0,              Pavarat%Saengaram%NULL%1,              Narakorn%Leeprechanon%NULL%1,              David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,              Davide%Bianchi%NULL%1,              Francesca%Santi%NULL%1,              Luigi%Costantini%NULL%1,              Anna%Odone%NULL%1,              Carlo%Signorelli%NULL%0,              Alessandra%Costanza%NULL%1,              Gianluca%Serafini%NULL%1,              Mario%Amore%NULL%1,              Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2383,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2212,7 +2412,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2270,7 +2470,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2299,7 +2499,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2328,7 +2528,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2357,7 +2557,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2386,7 +2586,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2415,7 +2615,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2444,7 +2644,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2473,7 +2673,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2502,7 +2702,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2531,7 +2731,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2589,7 +2789,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2618,7 +2818,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2647,7 +2847,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -2676,7 +2876,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2705,7 +2905,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -2734,7 +2934,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2763,7 +2963,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2792,7 +2992,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2821,7 +3021,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -2850,7 +3050,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2879,7 +3079,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -2908,7 +3108,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -2937,7 +3137,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -2966,7 +3166,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -2995,7 +3195,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3024,7 +3224,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3053,7 +3253,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3082,7 +3282,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3111,7 +3311,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3140,7 +3340,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3166,10 +3366,10 @@
         <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3198,7 +3398,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3227,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3256,7 +3456,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3285,7 +3485,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3314,7 +3514,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="610">
   <si>
     <t>Doi</t>
   </si>
@@ -2036,6 +2036,99 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,              Davide%Bianchi%NULL%1,              Francesca%Santi%NULL%1,              Luigi%Costantini%NULL%1,              Anna%Odone%NULL%1,              Carlo%Signorelli%NULL%0,              Alessandra%Costanza%NULL%1,              Gianluca%Serafini%NULL%1,              Mario%Amore%NULL%1,              Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,               Martín%Gagliardi%NULL%2,               Martín%Gagliardi%NULL%0,               Nicolas%Coombes%NULL%1,               Federico%Landriel%NULL%2,               Federico%Landriel%NULL%0,               Carlos%Zanardi%NULL%1,               Gastón Camino%Willhuber%NULL%1,               Juan Pablo%Guyot%NULL%1,               Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,               Nathaniel%Scherer%NULL%10,               Lambert%Felix%NULL%20,               Lambert%Felix%NULL%0,               Hannah%Kuper%NULL%20,               Hannah%Kuper%NULL%0,               Jakob%Pietschnig%NULL%20,               Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,               Nathaniel%Scherer%NULL%0,               Lambert%Felix%NULL%0,               Lambert%Felix%NULL%0,               Hannah%Kuper%NULL%0,               Hannah%Kuper%NULL%0,               Jakob%Pietschnig%NULL%0,               Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,               Koffi Mawuse%Guédénon%NULL%2,               Koffi Mawuse%Guédénon%NULL%0,               Ayoko Akouavi%Dogbe Foli%NULL%1,               Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,               Simeng%Ma%NULL%0,               Ying%Wang%NULL%0,               Zhongxiang%Cai%NULL%0,               Jianbo%Hu%NULL%0,               Ning%Wei%NULL%0,               Jiang%Wu%NULL%0,               Hui%Du%NULL%0,               Tingting%Chen%NULL%0,               Ruiting%Li%NULL%0,               Huawei%Tan%NULL%0,               Lijun%Kang%NULL%0,               Lihua%Yao%NULL%0,               Manli%Huang%NULL%0,               Huafen%Wang%NULL%0,               Gaohua%Wang%NULL%0,               Zhongchun%Liu%NULL%0,               Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,               Teresa%Arora%NULL%1,               Ian%Grey%NULL%1,               Lorna Kwai Ping%Suen%NULL%1,               Emma Yun-zhi%Huang%NULL%1,               Daofan%Li%NULL%1,               Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,               Youlin%Chen%NULL%1,               Jianlin%Lv%NULL%1,               Linlin%Liu%NULL%1,               Shiqin%Zong%NULL%1,               Hanxia%Li%NULL%1,               Hong%Li%NULL%1,               Massimo%Tusconi.%NULL%2,               Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,               Hang%Wang%NULL%1,               Yuxing%Lin%NULL%1,               Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,               Eman Zmaily%Dahmash%NULL%2,               Eman Zmaily%Dahmash%NULL%0,               Rabaa%Al‐Rousan%NULL%2,               Rabaa%Al‐Rousan%NULL%0,               Hassan%Alwafi%NULL%1,               Hamzeh Mohammad%Alrawashdeh%NULL%1,               Imene%Ghoul%NULL%1,               Anwer%Abidine%NULL%1,               Mohammed A.%Bokhary%NULL%1,               Hadeel T.%AL‐Hadithi%NULL%1,               Dalia%Ali%NULL%1,               Rasha%Abuthawabeh%NULL%1,               Ghada Mohammad%Abdelwahab%NULL%1,               Yosra J.%Alhartani%NULL%1,               Haneen%Al Muhaisen%NULL%1,               Ayah%Dagash%NULL%1,               Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,               Zahra%Bostani%NULL%1,               Saman%Maroufizadeh%NULL%1,               Atefeh%Ghanbari%NULL%1,               Maryam%Khoshbakht%NULL%1,               Seyed Amirhossein%Alavi%NULL%1,               Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,               Le%Shi%NULL%2,               Le%Shi%NULL%0,               Jiahui%Deng%NULL%1,               Jiajia%Liu%NULL%1,               Li%Zhang%NULL%0,               Suying%Wu%NULL%1,               Yimiao%Gong%NULL%1,               Weizhen%Huang%NULL%1,               Kai%Yuan%NULL%1,               Wei%Yan%NULL%1,               Yankun%Sun%NULL%1,               Maosheng%Ran%NULL%1,               Yanping%Bao%NULL%1,               Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,               Valentina%Socci%NULL%0,               Francesca%Pacitti%NULL%0,               Giorgio%Di Lorenzo%NULL%0,               Antinisca%Di Marco%NULL%0,               Alberto%Siracusano%NULL%0,               Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                M. H.% Raza%null%1,                Z. U.% Mustafa%null%1,                T. M.% Khan%null%1,                N.% Asif%null%1,                H.% Tahir%null%1,                N.% Shehzadi%null%1,                K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,               Franchesca%Diaz%NULL%1,               Nathalie%Moise%NULL%1,               D. Edmund%Anstey%NULL%1,               Siqin%Ye%NULL%1,               Sachin%Agarwal%NULL%1,               Jeffrey L.%Birk%NULL%1,               Daniel%Brodie%NULL%0,               Diane E.%Cannone%NULL%1,               Bernard%Chang%NULL%1,               Jan%Claassen%NULL%2,               Talea%Cornelius%NULL%1,               Lilly%Derby%NULL%1,               Melissa%Dong%NULL%1,               Raymond C.%Givens%NULL%1,               Beth%Hochman%NULL%1,               Shunichi%Homma%NULL%1,               Ian M.%Kronish%NULL%1,               Sung A.J.%Lee%NULL%1,               Wilhelmina%Manzano%NULL%1,               Laurel E.S.%Mayer%NULL%1,               Cara L.%McMurry%NULL%1,               Vivek%Moitra%NULL%1,               Patrick%Pham%NULL%1,               LeRoy%Rabbani%NULL%1,               Reynaldo R.%Rivera%NULL%1,               Allan%Schwartz%NULL%2,               Joseph E.%Schwartz%NULL%1,               Peter A.%Shapiro%NULL%1,               Kaitlin%Shaw%NULL%1,               Alexandra M.%Sullivan%NULL%1,               Courtney%Vose%NULL%1,               Lauren%Wasson%NULL%1,               Donald%Edmondson%NULL%1,               Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,               Wenning%Fu%NULL%0,               Xiaoran%Liu%NULL%0,               Zhiqian%Luo%NULL%0,               Rixing%Wang%NULL%0,               Ning%Zhou%NULL%0,               Shijiao%Yan%NULL%0,               Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,               Hong-Tao%Guo%NULL%1,               Xue-Wei%Du%NULL%1,               Wen%Song%NULL%1,               Chang%Lu%NULL%1,               Wen-Nv%Hao%NULL%1,               Maria%Kapritsou.%NULL%3,               Maria%Kapritsou.%NULL%0,               Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,               Xiaobin%Zhu%NULL%1,               Shuai%Fu%NULL%1,               Yugang%Hu%NULL%1,               Xiaoning%Li%NULL%0,               Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,               Jing%Liu%NULL%0,               Asghar%Afshar Jahanshahi%NULL%1,               Khaled%Nawaser%NULL%1,               Ali%Yousefi%NULL%1,               Jizhen%Li%NULL%1,               Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,               Kun%Wang%NULL%2,               Lu%Yin%NULL%0,               Wen-feng%Zhao%NULL%1,               Qing%Xue%NULL%1,               Mao%Peng%NULL%1,               Bao-quan%Min%NULL%1,               Qing%Tian%NULL%1,               Hai-xia%Leng%NULL%1,               Jia-lin%Du%NULL%1,               Hong%Chang%NULL%1,               Yuan%Yang%NULL%0,               Wei%Li%NULL%2,               Fang-fang%Shangguan%NULL%1,               Tian-yi%Yan%NULL%1,               Hui-qing%Dong%NULL%1,               Ying%Han%NULL%1,               Yu-ping%Wang%NULL%1,               Fiammetta%Cosci%NULL%1,               Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,               Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,               Lin%Sun%NULL%1,               Lan%Zhang%NULL%1,               Huan%Wang%NULL%1,               Ajiao%Fan%NULL%1,               Bin%Yang%NULL%1,               Wei%Li%NULL%0,               Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,               Lu%Dong%NULL%1,               Tao%Wang%NULL%0,               Chenxin%Yuan%NULL%1,               Rao%Fu%NULL%1,               Lei%Zhang%NULL%2,               Bo%Liu%NULL%0,               Mingmin%Zhang%NULL%1,               Yuanyuan%Yin%NULL%1,               Jiawen%Qin%NULL%1,               Jennifer%Bouey%NULL%1,               Min%Zhao%NULL%1,               Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,               Ayşe%Kurtulmuş%NULL%1,               Selim%Arpacıoğlu%NULL%1,               Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,               Gunther%Eysenbach%NULL%1,               Albert%Wu%NULL%2,               Albert%Wu%NULL%0,               Bojana%Knezevic%NULL%1,               Bradley A%Evanoff%bevanoff@wustl.edu%2,               Bradley A%Evanoff%bevanoff@wustl.edu%0,               Jaime R%Strickland%NULL%2,               Jaime R%Strickland%NULL%0,               Ann Marie%Dale%NULL%2,               Ann Marie%Dale%NULL%0,               Lisa%Hayibor%NULL%2,               Lisa%Hayibor%NULL%0,               Emily%Page%NULL%2,               Emily%Page%NULL%0,               Jennifer G%Duncan%NULL%2,               Jennifer G%Duncan%NULL%0,               Thomas%Kannampallil%NULL%2,               Thomas%Kannampallil%NULL%0,               Diana L%Gray%NULL%2,               Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,               Ranjan%Bhattacharyya%NULL%1,               Sumita%Bhattacharyya%NULL%1,               Sukanya%Gupta%NULL%1,               Soumitra%Das%NULL%1,               Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,               Xinghuang%Liu%NULL%2,               Xinghuang%Liu%NULL%0,               Dongke%Wang%NULL%2,               Dongke%Wang%NULL%0,               Yan%Jin%NULL%2,               Yan%Jin%NULL%0,               Miao%He%NULL%1,               Yanling%Ma%NULL%1,               Xiaolong%Zhao%NULL%1,               Shuangning%Song%NULL%1,               Lei%Zhang%NULL%0,               Xuelian%Xiang%NULL%1,               Ling%Yang%NULL%0,               Jun%Song%song111jun@126.com%1,               Tao%Bai%drbaitao@126.com%4,               Xiaohua%Hou%houxh@hust.edu.cn%2,               Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,               Hao%Zhou%haoye320@163.com%1,               Yan%Zhou%NULL%1,               Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,       Maciej%Debski%xref no email%1,       Andrew%Wiper%xref no email%1,       Amr%Abdelrahman%xref no email%1,       Susan%Wild%xref no email%1,       Shajil%Chalil%xref no email%1,       Ranjit%More%xref no email%1,       Grahame%Goode%xref no email%1,       Billal%Patel%xref no email%1,       Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,               Piyaporn%Apisarnthanarak%NULL%2,               Piyaporn%Apisarnthanarak%NULL%0,               Chanida%Siripraparat%NULL%2,               Chanida%Siripraparat%NULL%0,               Pavarat%Saengaram%NULL%1,               Narakorn%Leeprechanon%NULL%1,               David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,               Davide%Bianchi%NULL%1,               Francesca%Santi%NULL%1,               Luigi%Costantini%NULL%1,               Anna%Odone%NULL%1,               Carlo%Signorelli%NULL%0,               Alessandra%Costanza%NULL%1,               Gianluca%Serafini%NULL%1,               Mario%Amore%NULL%1,               Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2476,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2412,7 +2505,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2470,7 +2563,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2499,7 +2592,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2528,7 +2621,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2557,7 +2650,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2586,7 +2679,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2615,7 +2708,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2644,7 +2737,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2673,7 +2766,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2702,7 +2795,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2731,7 +2824,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2789,7 +2882,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2818,7 +2911,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2847,13 +2940,13 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>592</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
@@ -2876,7 +2969,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2905,7 +2998,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -2934,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2963,7 +3056,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2992,7 +3085,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3021,7 +3114,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3050,7 +3143,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3079,7 +3172,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3108,7 +3201,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3137,7 +3230,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3166,7 +3259,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3195,7 +3288,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3224,7 +3317,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3253,7 +3346,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3282,7 +3375,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3311,7 +3404,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3340,7 +3433,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3369,7 +3462,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3398,7 +3491,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3427,7 +3520,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3456,7 +3549,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3485,7 +3578,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3514,7 +3607,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="640">
   <si>
     <t>Doi</t>
   </si>
@@ -2129,6 +2129,96 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,               Davide%Bianchi%NULL%1,               Francesca%Santi%NULL%1,               Luigi%Costantini%NULL%1,               Anna%Odone%NULL%1,               Carlo%Signorelli%NULL%0,               Alessandra%Costanza%NULL%1,               Gianluca%Serafini%NULL%1,               Mario%Amore%NULL%1,               Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                Martín%Gagliardi%NULL%2,                Martín%Gagliardi%NULL%0,                Nicolas%Coombes%NULL%1,                Federico%Landriel%NULL%2,                Federico%Landriel%NULL%0,                Carlos%Zanardi%NULL%1,                Gastón Camino%Willhuber%NULL%1,                Juan Pablo%Guyot%NULL%1,                Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                Nathaniel%Scherer%NULL%10,                Lambert%Felix%NULL%20,                Lambert%Felix%NULL%0,                Hannah%Kuper%NULL%20,                Hannah%Kuper%NULL%0,                Jakob%Pietschnig%NULL%20,                Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                Nathaniel%Scherer%NULL%0,                Lambert%Felix%NULL%0,                Lambert%Felix%NULL%0,                Hannah%Kuper%NULL%0,                Hannah%Kuper%NULL%0,                Jakob%Pietschnig%NULL%0,                Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                Koffi Mawuse%Guédénon%NULL%2,                Koffi Mawuse%Guédénon%NULL%0,                Ayoko Akouavi%Dogbe Foli%NULL%1,                Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                Simeng%Ma%NULL%0,                Ying%Wang%NULL%0,                Zhongxiang%Cai%NULL%0,                Jianbo%Hu%NULL%0,                Ning%Wei%NULL%0,                Jiang%Wu%NULL%0,                Hui%Du%NULL%0,                Tingting%Chen%NULL%0,                Ruiting%Li%NULL%0,                Huawei%Tan%NULL%0,                Lijun%Kang%NULL%0,                Lihua%Yao%NULL%0,                Manli%Huang%NULL%0,                Huafen%Wang%NULL%0,                Gaohua%Wang%NULL%0,                Zhongchun%Liu%NULL%0,                Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                Teresa%Arora%NULL%1,                Ian%Grey%NULL%1,                Lorna Kwai Ping%Suen%NULL%1,                Emma Yun-zhi%Huang%NULL%1,                Daofan%Li%NULL%1,                Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                Youlin%Chen%NULL%1,                Jianlin%Lv%NULL%1,                Linlin%Liu%NULL%1,                Shiqin%Zong%NULL%1,                Hanxia%Li%NULL%1,                Hong%Li%NULL%1,                Massimo%Tusconi.%NULL%2,                Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                Hang%Wang%NULL%1,                Yuxing%Lin%NULL%1,                Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                Eman Zmaily%Dahmash%NULL%2,                Eman Zmaily%Dahmash%NULL%0,                Rabaa%Al‐Rousan%NULL%2,                Rabaa%Al‐Rousan%NULL%0,                Hassan%Alwafi%NULL%1,                Hamzeh Mohammad%Alrawashdeh%NULL%1,                Imene%Ghoul%NULL%1,                Anwer%Abidine%NULL%1,                Mohammed A.%Bokhary%NULL%1,                Hadeel T.%AL‐Hadithi%NULL%1,                Dalia%Ali%NULL%1,                Rasha%Abuthawabeh%NULL%1,                Ghada Mohammad%Abdelwahab%NULL%1,                Yosra J.%Alhartani%NULL%1,                Haneen%Al Muhaisen%NULL%1,                Ayah%Dagash%NULL%1,                Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                Zahra%Bostani%NULL%1,                Saman%Maroufizadeh%NULL%1,                Atefeh%Ghanbari%NULL%1,                Maryam%Khoshbakht%NULL%1,                Seyed Amirhossein%Alavi%NULL%1,                Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                Le%Shi%NULL%2,                Le%Shi%NULL%0,                Jiahui%Deng%NULL%1,                Jiajia%Liu%NULL%1,                Li%Zhang%NULL%0,                Suying%Wu%NULL%1,                Yimiao%Gong%NULL%1,                Weizhen%Huang%NULL%1,                Kai%Yuan%NULL%1,                Wei%Yan%NULL%1,                Yankun%Sun%NULL%1,                Maosheng%Ran%NULL%1,                Yanping%Bao%NULL%1,                Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                Valentina%Socci%NULL%0,                Francesca%Pacitti%NULL%0,                Giorgio%Di Lorenzo%NULL%0,                Antinisca%Di Marco%NULL%0,                Alberto%Siracusano%NULL%0,                Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                 M. H.% Raza%null%1,                 Z. U.% Mustafa%null%1,                 T. M.% Khan%null%1,                 N.% Asif%null%1,                 H.% Tahir%null%1,                 N.% Shehzadi%null%1,                 K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                Franchesca%Diaz%NULL%1,                Nathalie%Moise%NULL%1,                D. Edmund%Anstey%NULL%1,                Siqin%Ye%NULL%1,                Sachin%Agarwal%NULL%1,                Jeffrey L.%Birk%NULL%1,                Daniel%Brodie%NULL%0,                Diane E.%Cannone%NULL%1,                Bernard%Chang%NULL%1,                Jan%Claassen%NULL%2,                Talea%Cornelius%NULL%1,                Lilly%Derby%NULL%1,                Melissa%Dong%NULL%1,                Raymond C.%Givens%NULL%1,                Beth%Hochman%NULL%1,                Shunichi%Homma%NULL%1,                Ian M.%Kronish%NULL%1,                Sung A.J.%Lee%NULL%1,                Wilhelmina%Manzano%NULL%1,                Laurel E.S.%Mayer%NULL%1,                Cara L.%McMurry%NULL%1,                Vivek%Moitra%NULL%1,                Patrick%Pham%NULL%1,                LeRoy%Rabbani%NULL%1,                Reynaldo R.%Rivera%NULL%1,                Allan%Schwartz%NULL%2,                Joseph E.%Schwartz%NULL%1,                Peter A.%Shapiro%NULL%1,                Kaitlin%Shaw%NULL%1,                Alexandra M.%Sullivan%NULL%1,                Courtney%Vose%NULL%1,                Lauren%Wasson%NULL%1,                Donald%Edmondson%NULL%1,                Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                Wenning%Fu%NULL%0,                Xiaoran%Liu%NULL%0,                Zhiqian%Luo%NULL%0,                Rixing%Wang%NULL%0,                Ning%Zhou%NULL%0,                Shijiao%Yan%NULL%0,                Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                Hong-Tao%Guo%NULL%1,                Xue-Wei%Du%NULL%1,                Wen%Song%NULL%1,                Chang%Lu%NULL%1,                Wen-Nv%Hao%NULL%1,                Maria%Kapritsou.%NULL%3,                Maria%Kapritsou.%NULL%0,                Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                Xiaobin%Zhu%NULL%1,                Shuai%Fu%NULL%1,                Yugang%Hu%NULL%1,                Xiaoning%Li%NULL%0,                Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                Jing%Liu%NULL%0,                Asghar%Afshar Jahanshahi%NULL%1,                Khaled%Nawaser%NULL%1,                Ali%Yousefi%NULL%1,                Jizhen%Li%NULL%1,                Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                Kun%Wang%NULL%2,                Lu%Yin%NULL%0,                Wen-feng%Zhao%NULL%1,                Qing%Xue%NULL%1,                Mao%Peng%NULL%1,                Bao-quan%Min%NULL%1,                Qing%Tian%NULL%1,                Hai-xia%Leng%NULL%1,                Jia-lin%Du%NULL%1,                Hong%Chang%NULL%1,                Yuan%Yang%NULL%0,                Wei%Li%NULL%2,                Fang-fang%Shangguan%NULL%1,                Tian-yi%Yan%NULL%1,                Hui-qing%Dong%NULL%1,                Ying%Han%NULL%1,                Yu-ping%Wang%NULL%1,                Fiammetta%Cosci%NULL%1,                Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                Lin%Sun%NULL%1,                Lan%Zhang%NULL%1,                Huan%Wang%NULL%1,                Ajiao%Fan%NULL%1,                Bin%Yang%NULL%1,                Wei%Li%NULL%0,                Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                Lu%Dong%NULL%1,                Tao%Wang%NULL%0,                Chenxin%Yuan%NULL%1,                Rao%Fu%NULL%1,                Lei%Zhang%NULL%2,                Bo%Liu%NULL%0,                Mingmin%Zhang%NULL%1,                Yuanyuan%Yin%NULL%1,                Jiawen%Qin%NULL%1,                Jennifer%Bouey%NULL%1,                Min%Zhao%NULL%1,                Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                Ayşe%Kurtulmuş%NULL%1,                Selim%Arpacıoğlu%NULL%1,                Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                Gunther%Eysenbach%NULL%1,                Albert%Wu%NULL%2,                Albert%Wu%NULL%0,                Bojana%Knezevic%NULL%1,                Bradley A%Evanoff%bevanoff@wustl.edu%2,                Bradley A%Evanoff%bevanoff@wustl.edu%0,                Jaime R%Strickland%NULL%2,                Jaime R%Strickland%NULL%0,                Ann Marie%Dale%NULL%2,                Ann Marie%Dale%NULL%0,                Lisa%Hayibor%NULL%2,                Lisa%Hayibor%NULL%0,                Emily%Page%NULL%2,                Emily%Page%NULL%0,                Jennifer G%Duncan%NULL%2,                Jennifer G%Duncan%NULL%0,                Thomas%Kannampallil%NULL%2,                Thomas%Kannampallil%NULL%0,                Diana L%Gray%NULL%2,                Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                Ranjan%Bhattacharyya%NULL%1,                Sumita%Bhattacharyya%NULL%1,                Sukanya%Gupta%NULL%1,                Soumitra%Das%NULL%1,                Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                Xinghuang%Liu%NULL%2,                Xinghuang%Liu%NULL%0,                Dongke%Wang%NULL%2,                Dongke%Wang%NULL%0,                Yan%Jin%NULL%2,                Yan%Jin%NULL%0,                Miao%He%NULL%1,                Yanling%Ma%NULL%1,                Xiaolong%Zhao%NULL%1,                Shuangning%Song%NULL%1,                Lei%Zhang%NULL%0,                Xuelian%Xiang%NULL%1,                Ling%Yang%NULL%0,                Jun%Song%song111jun@126.com%1,                Tao%Bai%drbaitao@126.com%4,                Xiaohua%Hou%houxh@hust.edu.cn%2,                Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                Hao%Zhou%haoye320@163.com%1,                Yan%Zhou%NULL%1,                Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,        Maciej%Debski%xref no email%1,        Andrew%Wiper%xref no email%1,        Amr%Abdelrahman%xref no email%1,        Susan%Wild%xref no email%1,        Shajil%Chalil%xref no email%1,        Ranjit%More%xref no email%1,        Grahame%Goode%xref no email%1,        Billal%Patel%xref no email%1,        Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                Piyaporn%Apisarnthanarak%NULL%2,                Piyaporn%Apisarnthanarak%NULL%0,                Chanida%Siripraparat%NULL%2,                Chanida%Siripraparat%NULL%0,                Pavarat%Saengaram%NULL%1,                Narakorn%Leeprechanon%NULL%1,                David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                Davide%Bianchi%NULL%1,                Francesca%Santi%NULL%1,                Luigi%Costantini%NULL%1,                Anna%Odone%NULL%1,                Carlo%Signorelli%NULL%0,                Alessandra%Costanza%NULL%1,                Gianluca%Serafini%NULL%1,                Mario%Amore%NULL%1,                Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2566,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2505,7 +2595,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2563,7 +2653,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2592,7 +2682,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2621,7 +2711,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2650,7 +2740,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2679,7 +2769,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2708,7 +2798,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2737,7 +2827,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2766,7 +2856,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2795,7 +2885,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2824,7 +2914,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2882,7 +2972,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2911,7 +3001,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -2940,7 +3030,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -2969,7 +3059,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2998,7 +3088,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3027,7 +3117,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3056,7 +3146,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3085,7 +3175,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3114,7 +3204,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3143,7 +3233,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3172,7 +3262,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3201,7 +3291,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3230,7 +3320,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3259,7 +3349,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3288,7 +3378,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3317,7 +3407,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3346,7 +3436,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3375,7 +3465,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3404,7 +3494,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3433,7 +3523,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3462,7 +3552,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3491,7 +3581,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3520,7 +3610,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3549,7 +3639,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3578,7 +3668,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3607,7 +3697,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="700">
   <si>
     <t>Doi</t>
   </si>
@@ -2219,6 +2219,186 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                Davide%Bianchi%NULL%1,                Francesca%Santi%NULL%1,                Luigi%Costantini%NULL%1,                Anna%Odone%NULL%1,                Carlo%Signorelli%NULL%0,                Alessandra%Costanza%NULL%1,                Gianluca%Serafini%NULL%1,                Mario%Amore%NULL%1,                Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                 Martín%Gagliardi%NULL%2,                 Martín%Gagliardi%NULL%0,                 Nicolas%Coombes%NULL%1,                 Federico%Landriel%NULL%2,                 Federico%Landriel%NULL%0,                 Carlos%Zanardi%NULL%1,                 Gastón Camino%Willhuber%NULL%1,                 Juan Pablo%Guyot%NULL%1,                 Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                 Nathaniel%Scherer%NULL%10,                 Lambert%Felix%NULL%20,                 Lambert%Felix%NULL%0,                 Hannah%Kuper%NULL%20,                 Hannah%Kuper%NULL%0,                 Jakob%Pietschnig%NULL%20,                 Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                 Nathaniel%Scherer%NULL%0,                 Lambert%Felix%NULL%0,                 Lambert%Felix%NULL%0,                 Hannah%Kuper%NULL%0,                 Hannah%Kuper%NULL%0,                 Jakob%Pietschnig%NULL%0,                 Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                 Koffi Mawuse%Guédénon%NULL%2,                 Koffi Mawuse%Guédénon%NULL%0,                 Ayoko Akouavi%Dogbe Foli%NULL%1,                 Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                 Simeng%Ma%NULL%0,                 Ying%Wang%NULL%0,                 Zhongxiang%Cai%NULL%0,                 Jianbo%Hu%NULL%0,                 Ning%Wei%NULL%0,                 Jiang%Wu%NULL%0,                 Hui%Du%NULL%0,                 Tingting%Chen%NULL%0,                 Ruiting%Li%NULL%0,                 Huawei%Tan%NULL%0,                 Lijun%Kang%NULL%0,                 Lihua%Yao%NULL%0,                 Manli%Huang%NULL%0,                 Huafen%Wang%NULL%0,                 Gaohua%Wang%NULL%0,                 Zhongchun%Liu%NULL%0,                 Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                 Teresa%Arora%NULL%1,                 Ian%Grey%NULL%1,                 Lorna Kwai Ping%Suen%NULL%1,                 Emma Yun-zhi%Huang%NULL%1,                 Daofan%Li%NULL%1,                 Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                 Youlin%Chen%NULL%1,                 Jianlin%Lv%NULL%1,                 Linlin%Liu%NULL%1,                 Shiqin%Zong%NULL%1,                 Hanxia%Li%NULL%1,                 Hong%Li%NULL%1,                 Massimo%Tusconi.%NULL%2,                 Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                 Hang%Wang%NULL%1,                 Yuxing%Lin%NULL%1,                 Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                 Eman Zmaily%Dahmash%NULL%2,                 Eman Zmaily%Dahmash%NULL%0,                 Rabaa%Al‐Rousan%NULL%2,                 Rabaa%Al‐Rousan%NULL%0,                 Hassan%Alwafi%NULL%1,                 Hamzeh Mohammad%Alrawashdeh%NULL%1,                 Imene%Ghoul%NULL%1,                 Anwer%Abidine%NULL%1,                 Mohammed A.%Bokhary%NULL%1,                 Hadeel T.%AL‐Hadithi%NULL%1,                 Dalia%Ali%NULL%1,                 Rasha%Abuthawabeh%NULL%1,                 Ghada Mohammad%Abdelwahab%NULL%1,                 Yosra J.%Alhartani%NULL%1,                 Haneen%Al Muhaisen%NULL%1,                 Ayah%Dagash%NULL%1,                 Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                 Zahra%Bostani%NULL%1,                 Saman%Maroufizadeh%NULL%1,                 Atefeh%Ghanbari%NULL%1,                 Maryam%Khoshbakht%NULL%1,                 Seyed Amirhossein%Alavi%NULL%1,                 Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                 Le%Shi%NULL%2,                 Le%Shi%NULL%0,                 Jiahui%Deng%NULL%1,                 Jiajia%Liu%NULL%1,                 Li%Zhang%NULL%0,                 Suying%Wu%NULL%1,                 Yimiao%Gong%NULL%1,                 Weizhen%Huang%NULL%1,                 Kai%Yuan%NULL%1,                 Wei%Yan%NULL%1,                 Yankun%Sun%NULL%1,                 Maosheng%Ran%NULL%1,                 Yanping%Bao%NULL%1,                 Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                 Valentina%Socci%NULL%0,                 Francesca%Pacitti%NULL%0,                 Giorgio%Di Lorenzo%NULL%0,                 Antinisca%Di Marco%NULL%0,                 Alberto%Siracusano%NULL%0,                 Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                  M. H.% Raza%null%1,                  Z. U.% Mustafa%null%1,                  T. M.% Khan%null%1,                  N.% Asif%null%1,                  H.% Tahir%null%1,                  N.% Shehzadi%null%1,                  K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                 Franchesca%Diaz%NULL%1,                 Nathalie%Moise%NULL%1,                 D. Edmund%Anstey%NULL%1,                 Siqin%Ye%NULL%1,                 Sachin%Agarwal%NULL%1,                 Jeffrey L.%Birk%NULL%1,                 Daniel%Brodie%NULL%0,                 Diane E.%Cannone%NULL%1,                 Bernard%Chang%NULL%1,                 Jan%Claassen%NULL%2,                 Talea%Cornelius%NULL%1,                 Lilly%Derby%NULL%1,                 Melissa%Dong%NULL%1,                 Raymond C.%Givens%NULL%1,                 Beth%Hochman%NULL%1,                 Shunichi%Homma%NULL%1,                 Ian M.%Kronish%NULL%1,                 Sung A.J.%Lee%NULL%1,                 Wilhelmina%Manzano%NULL%1,                 Laurel E.S.%Mayer%NULL%1,                 Cara L.%McMurry%NULL%1,                 Vivek%Moitra%NULL%1,                 Patrick%Pham%NULL%1,                 LeRoy%Rabbani%NULL%1,                 Reynaldo R.%Rivera%NULL%1,                 Allan%Schwartz%NULL%2,                 Joseph E.%Schwartz%NULL%1,                 Peter A.%Shapiro%NULL%1,                 Kaitlin%Shaw%NULL%1,                 Alexandra M.%Sullivan%NULL%1,                 Courtney%Vose%NULL%1,                 Lauren%Wasson%NULL%1,                 Donald%Edmondson%NULL%1,                 Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                 Wenning%Fu%NULL%0,                 Xiaoran%Liu%NULL%0,                 Zhiqian%Luo%NULL%0,                 Rixing%Wang%NULL%0,                 Ning%Zhou%NULL%0,                 Shijiao%Yan%NULL%0,                 Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                 Hong-Tao%Guo%NULL%1,                 Xue-Wei%Du%NULL%1,                 Wen%Song%NULL%1,                 Chang%Lu%NULL%1,                 Wen-Nv%Hao%NULL%1,                 Maria%Kapritsou.%NULL%3,                 Maria%Kapritsou.%NULL%0,                 Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                 Xiaobin%Zhu%NULL%1,                 Shuai%Fu%NULL%1,                 Yugang%Hu%NULL%1,                 Xiaoning%Li%NULL%0,                 Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                 Jing%Liu%NULL%0,                 Asghar%Afshar Jahanshahi%NULL%1,                 Khaled%Nawaser%NULL%1,                 Ali%Yousefi%NULL%1,                 Jizhen%Li%NULL%1,                 Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                 Kun%Wang%NULL%2,                 Lu%Yin%NULL%0,                 Wen-feng%Zhao%NULL%1,                 Qing%Xue%NULL%1,                 Mao%Peng%NULL%1,                 Bao-quan%Min%NULL%1,                 Qing%Tian%NULL%1,                 Hai-xia%Leng%NULL%1,                 Jia-lin%Du%NULL%1,                 Hong%Chang%NULL%1,                 Yuan%Yang%NULL%0,                 Wei%Li%NULL%2,                 Fang-fang%Shangguan%NULL%1,                 Tian-yi%Yan%NULL%1,                 Hui-qing%Dong%NULL%1,                 Ying%Han%NULL%1,                 Yu-ping%Wang%NULL%1,                 Fiammetta%Cosci%NULL%1,                 Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                 Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                 Lin%Sun%NULL%1,                 Lan%Zhang%NULL%1,                 Huan%Wang%NULL%1,                 Ajiao%Fan%NULL%1,                 Bin%Yang%NULL%1,                 Wei%Li%NULL%0,                 Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                 Lu%Dong%NULL%1,                 Tao%Wang%NULL%0,                 Chenxin%Yuan%NULL%1,                 Rao%Fu%NULL%1,                 Lei%Zhang%NULL%2,                 Bo%Liu%NULL%0,                 Mingmin%Zhang%NULL%1,                 Yuanyuan%Yin%NULL%1,                 Jiawen%Qin%NULL%1,                 Jennifer%Bouey%NULL%1,                 Min%Zhao%NULL%1,                 Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                 Ayşe%Kurtulmuş%NULL%1,                 Selim%Arpacıoğlu%NULL%1,                 Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                 Gunther%Eysenbach%NULL%1,                 Albert%Wu%NULL%2,                 Albert%Wu%NULL%0,                 Bojana%Knezevic%NULL%1,                 Bradley A%Evanoff%bevanoff@wustl.edu%2,                 Bradley A%Evanoff%bevanoff@wustl.edu%0,                 Jaime R%Strickland%NULL%2,                 Jaime R%Strickland%NULL%0,                 Ann Marie%Dale%NULL%2,                 Ann Marie%Dale%NULL%0,                 Lisa%Hayibor%NULL%2,                 Lisa%Hayibor%NULL%0,                 Emily%Page%NULL%2,                 Emily%Page%NULL%0,                 Jennifer G%Duncan%NULL%2,                 Jennifer G%Duncan%NULL%0,                 Thomas%Kannampallil%NULL%2,                 Thomas%Kannampallil%NULL%0,                 Diana L%Gray%NULL%2,                 Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                 Ranjan%Bhattacharyya%NULL%1,                 Sumita%Bhattacharyya%NULL%1,                 Sukanya%Gupta%NULL%1,                 Soumitra%Das%NULL%1,                 Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                 Xinghuang%Liu%NULL%2,                 Xinghuang%Liu%NULL%0,                 Dongke%Wang%NULL%2,                 Dongke%Wang%NULL%0,                 Yan%Jin%NULL%2,                 Yan%Jin%NULL%0,                 Miao%He%NULL%1,                 Yanling%Ma%NULL%1,                 Xiaolong%Zhao%NULL%1,                 Shuangning%Song%NULL%1,                 Lei%Zhang%NULL%0,                 Xuelian%Xiang%NULL%1,                 Ling%Yang%NULL%0,                 Jun%Song%song111jun@126.com%1,                 Tao%Bai%drbaitao@126.com%4,                 Xiaohua%Hou%houxh@hust.edu.cn%2,                 Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                 Hao%Zhou%haoye320@163.com%1,                 Yan%Zhou%NULL%1,                 Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,         Maciej%Debski%xref no email%1,         Andrew%Wiper%xref no email%1,         Amr%Abdelrahman%xref no email%1,         Susan%Wild%xref no email%1,         Shajil%Chalil%xref no email%1,         Ranjit%More%xref no email%1,         Grahame%Goode%xref no email%1,         Billal%Patel%xref no email%1,         Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                 Piyaporn%Apisarnthanarak%NULL%2,                 Piyaporn%Apisarnthanarak%NULL%0,                 Chanida%Siripraparat%NULL%2,                 Chanida%Siripraparat%NULL%0,                 Pavarat%Saengaram%NULL%1,                 Narakorn%Leeprechanon%NULL%1,                 David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                 Davide%Bianchi%NULL%1,                 Francesca%Santi%NULL%1,                 Luigi%Costantini%NULL%1,                 Anna%Odone%NULL%1,                 Carlo%Signorelli%NULL%0,                 Alessandra%Costanza%NULL%1,                 Gianluca%Serafini%NULL%1,                 Mario%Amore%NULL%1,                 Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                  Martín%Gagliardi%NULL%2,                  Martín%Gagliardi%NULL%0,                  Nicolas%Coombes%NULL%1,                  Federico%Landriel%NULL%2,                  Federico%Landriel%NULL%0,                  Carlos%Zanardi%NULL%1,                  Gastón Camino%Willhuber%NULL%1,                  Juan Pablo%Guyot%NULL%1,                  Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                  Nathaniel%Scherer%NULL%10,                  Lambert%Felix%NULL%20,                  Lambert%Felix%NULL%0,                  Hannah%Kuper%NULL%20,                  Hannah%Kuper%NULL%0,                  Jakob%Pietschnig%NULL%20,                  Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                  Nathaniel%Scherer%NULL%0,                  Lambert%Felix%NULL%0,                  Lambert%Felix%NULL%0,                  Hannah%Kuper%NULL%0,                  Hannah%Kuper%NULL%0,                  Jakob%Pietschnig%NULL%0,                  Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                  Koffi Mawuse%Guédénon%NULL%2,                  Koffi Mawuse%Guédénon%NULL%0,                  Ayoko Akouavi%Dogbe Foli%NULL%1,                  Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                  Simeng%Ma%NULL%0,                  Ying%Wang%NULL%0,                  Zhongxiang%Cai%NULL%0,                  Jianbo%Hu%NULL%0,                  Ning%Wei%NULL%0,                  Jiang%Wu%NULL%0,                  Hui%Du%NULL%0,                  Tingting%Chen%NULL%0,                  Ruiting%Li%NULL%0,                  Huawei%Tan%NULL%0,                  Lijun%Kang%NULL%0,                  Lihua%Yao%NULL%0,                  Manli%Huang%NULL%0,                  Huafen%Wang%NULL%0,                  Gaohua%Wang%NULL%0,                  Zhongchun%Liu%NULL%0,                  Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                  Teresa%Arora%NULL%1,                  Ian%Grey%NULL%1,                  Lorna Kwai Ping%Suen%NULL%1,                  Emma Yun-zhi%Huang%NULL%1,                  Daofan%Li%NULL%1,                  Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                  Youlin%Chen%NULL%1,                  Jianlin%Lv%NULL%1,                  Linlin%Liu%NULL%1,                  Shiqin%Zong%NULL%1,                  Hanxia%Li%NULL%1,                  Hong%Li%NULL%1,                  Massimo%Tusconi.%NULL%2,                  Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                  Hang%Wang%NULL%1,                  Yuxing%Lin%NULL%1,                  Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                  Eman Zmaily%Dahmash%NULL%2,                  Eman Zmaily%Dahmash%NULL%0,                  Rabaa%Al‐Rousan%NULL%2,                  Rabaa%Al‐Rousan%NULL%0,                  Hassan%Alwafi%NULL%1,                  Hamzeh Mohammad%Alrawashdeh%NULL%1,                  Imene%Ghoul%NULL%1,                  Anwer%Abidine%NULL%1,                  Mohammed A.%Bokhary%NULL%1,                  Hadeel T.%AL‐Hadithi%NULL%1,                  Dalia%Ali%NULL%1,                  Rasha%Abuthawabeh%NULL%1,                  Ghada Mohammad%Abdelwahab%NULL%1,                  Yosra J.%Alhartani%NULL%1,                  Haneen%Al Muhaisen%NULL%1,                  Ayah%Dagash%NULL%1,                  Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                  Zahra%Bostani%NULL%1,                  Saman%Maroufizadeh%NULL%1,                  Atefeh%Ghanbari%NULL%1,                  Maryam%Khoshbakht%NULL%1,                  Seyed Amirhossein%Alavi%NULL%1,                  Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                  Le%Shi%NULL%2,                  Le%Shi%NULL%0,                  Jiahui%Deng%NULL%1,                  Jiajia%Liu%NULL%1,                  Li%Zhang%NULL%0,                  Suying%Wu%NULL%1,                  Yimiao%Gong%NULL%1,                  Weizhen%Huang%NULL%1,                  Kai%Yuan%NULL%1,                  Wei%Yan%NULL%1,                  Yankun%Sun%NULL%1,                  Maosheng%Ran%NULL%1,                  Yanping%Bao%NULL%1,                  Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                  Valentina%Socci%NULL%0,                  Francesca%Pacitti%NULL%0,                  Giorgio%Di Lorenzo%NULL%0,                  Antinisca%Di Marco%NULL%0,                  Alberto%Siracusano%NULL%0,                  Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                   M. H.% Raza%null%1,                   Z. U.% Mustafa%null%1,                   T. M.% Khan%null%1,                   N.% Asif%null%1,                   H.% Tahir%null%1,                   N.% Shehzadi%null%1,                   K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                  Franchesca%Diaz%NULL%1,                  Nathalie%Moise%NULL%1,                  D. Edmund%Anstey%NULL%1,                  Siqin%Ye%NULL%1,                  Sachin%Agarwal%NULL%1,                  Jeffrey L.%Birk%NULL%1,                  Daniel%Brodie%NULL%0,                  Diane E.%Cannone%NULL%1,                  Bernard%Chang%NULL%1,                  Jan%Claassen%NULL%2,                  Talea%Cornelius%NULL%1,                  Lilly%Derby%NULL%1,                  Melissa%Dong%NULL%1,                  Raymond C.%Givens%NULL%1,                  Beth%Hochman%NULL%1,                  Shunichi%Homma%NULL%1,                  Ian M.%Kronish%NULL%1,                  Sung A.J.%Lee%NULL%1,                  Wilhelmina%Manzano%NULL%1,                  Laurel E.S.%Mayer%NULL%1,                  Cara L.%McMurry%NULL%1,                  Vivek%Moitra%NULL%1,                  Patrick%Pham%NULL%1,                  LeRoy%Rabbani%NULL%1,                  Reynaldo R.%Rivera%NULL%1,                  Allan%Schwartz%NULL%2,                  Joseph E.%Schwartz%NULL%1,                  Peter A.%Shapiro%NULL%1,                  Kaitlin%Shaw%NULL%1,                  Alexandra M.%Sullivan%NULL%1,                  Courtney%Vose%NULL%1,                  Lauren%Wasson%NULL%1,                  Donald%Edmondson%NULL%1,                  Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                  Wenning%Fu%NULL%0,                  Xiaoran%Liu%NULL%0,                  Zhiqian%Luo%NULL%0,                  Rixing%Wang%NULL%0,                  Ning%Zhou%NULL%0,                  Shijiao%Yan%NULL%0,                  Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                  Hong-Tao%Guo%NULL%1,                  Xue-Wei%Du%NULL%1,                  Wen%Song%NULL%1,                  Chang%Lu%NULL%1,                  Wen-Nv%Hao%NULL%1,                  Maria%Kapritsou.%NULL%3,                  Maria%Kapritsou.%NULL%0,                  Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                  Xiaobin%Zhu%NULL%1,                  Shuai%Fu%NULL%1,                  Yugang%Hu%NULL%1,                  Xiaoning%Li%NULL%0,                  Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                  Jing%Liu%NULL%0,                  Asghar%Afshar Jahanshahi%NULL%1,                  Khaled%Nawaser%NULL%1,                  Ali%Yousefi%NULL%1,                  Jizhen%Li%NULL%1,                  Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                  Kun%Wang%NULL%2,                  Lu%Yin%NULL%0,                  Wen-feng%Zhao%NULL%1,                  Qing%Xue%NULL%1,                  Mao%Peng%NULL%1,                  Bao-quan%Min%NULL%1,                  Qing%Tian%NULL%1,                  Hai-xia%Leng%NULL%1,                  Jia-lin%Du%NULL%1,                  Hong%Chang%NULL%1,                  Yuan%Yang%NULL%0,                  Wei%Li%NULL%2,                  Fang-fang%Shangguan%NULL%1,                  Tian-yi%Yan%NULL%1,                  Hui-qing%Dong%NULL%1,                  Ying%Han%NULL%1,                  Yu-ping%Wang%NULL%1,                  Fiammetta%Cosci%NULL%1,                  Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                  Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                  Lin%Sun%NULL%1,                  Lan%Zhang%NULL%1,                  Huan%Wang%NULL%1,                  Ajiao%Fan%NULL%1,                  Bin%Yang%NULL%1,                  Wei%Li%NULL%0,                  Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                  Lu%Dong%NULL%1,                  Tao%Wang%NULL%0,                  Chenxin%Yuan%NULL%1,                  Rao%Fu%NULL%1,                  Lei%Zhang%NULL%2,                  Bo%Liu%NULL%0,                  Mingmin%Zhang%NULL%1,                  Yuanyuan%Yin%NULL%1,                  Jiawen%Qin%NULL%1,                  Jennifer%Bouey%NULL%1,                  Min%Zhao%NULL%1,                  Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                  Ayşe%Kurtulmuş%NULL%1,                  Selim%Arpacıoğlu%NULL%1,                  Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                  Gunther%Eysenbach%NULL%1,                  Albert%Wu%NULL%2,                  Albert%Wu%NULL%0,                  Bojana%Knezevic%NULL%1,                  Bradley A%Evanoff%bevanoff@wustl.edu%2,                  Bradley A%Evanoff%bevanoff@wustl.edu%0,                  Jaime R%Strickland%NULL%2,                  Jaime R%Strickland%NULL%0,                  Ann Marie%Dale%NULL%2,                  Ann Marie%Dale%NULL%0,                  Lisa%Hayibor%NULL%2,                  Lisa%Hayibor%NULL%0,                  Emily%Page%NULL%2,                  Emily%Page%NULL%0,                  Jennifer G%Duncan%NULL%2,                  Jennifer G%Duncan%NULL%0,                  Thomas%Kannampallil%NULL%2,                  Thomas%Kannampallil%NULL%0,                  Diana L%Gray%NULL%2,                  Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                  Ranjan%Bhattacharyya%NULL%1,                  Sumita%Bhattacharyya%NULL%1,                  Sukanya%Gupta%NULL%1,                  Soumitra%Das%NULL%1,                  Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                  Xinghuang%Liu%NULL%2,                  Xinghuang%Liu%NULL%0,                  Dongke%Wang%NULL%2,                  Dongke%Wang%NULL%0,                  Yan%Jin%NULL%2,                  Yan%Jin%NULL%0,                  Miao%He%NULL%1,                  Yanling%Ma%NULL%1,                  Xiaolong%Zhao%NULL%1,                  Shuangning%Song%NULL%1,                  Lei%Zhang%NULL%0,                  Xuelian%Xiang%NULL%1,                  Ling%Yang%NULL%0,                  Jun%Song%song111jun@126.com%1,                  Tao%Bai%drbaitao@126.com%4,                  Xiaohua%Hou%houxh@hust.edu.cn%2,                  Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                  Hao%Zhou%haoye320@163.com%1,                  Yan%Zhou%NULL%1,                  Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,          Maciej%Debski%xref no email%1,          Andrew%Wiper%xref no email%1,          Amr%Abdelrahman%xref no email%1,          Susan%Wild%xref no email%1,          Shajil%Chalil%xref no email%1,          Ranjit%More%xref no email%1,          Grahame%Goode%xref no email%1,          Billal%Patel%xref no email%1,          Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                  Piyaporn%Apisarnthanarak%NULL%2,                  Piyaporn%Apisarnthanarak%NULL%0,                  Chanida%Siripraparat%NULL%2,                  Chanida%Siripraparat%NULL%0,                  Pavarat%Saengaram%NULL%1,                  Narakorn%Leeprechanon%NULL%1,                  David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                  Davide%Bianchi%NULL%1,                  Francesca%Santi%NULL%1,                  Luigi%Costantini%NULL%1,                  Anna%Odone%NULL%1,                  Carlo%Signorelli%NULL%0,                  Alessandra%Costanza%NULL%1,                  Gianluca%Serafini%NULL%1,                  Mario%Amore%NULL%1,                  Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2746,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2595,7 +2775,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2653,7 +2833,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2682,7 +2862,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>613</v>
+        <v>673</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2711,7 +2891,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2740,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2769,7 +2949,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2798,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -2827,7 +3007,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2856,7 +3036,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2885,7 +3065,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2914,7 +3094,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2972,7 +3152,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3001,7 +3181,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3030,7 +3210,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -3059,7 +3239,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3088,7 +3268,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3117,7 +3297,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3146,7 +3326,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3175,7 +3355,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3204,7 +3384,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3233,7 +3413,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3262,7 +3442,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3291,7 +3471,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3320,7 +3500,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3349,7 +3529,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3378,7 +3558,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3407,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3436,7 +3616,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>632</v>
+        <v>692</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3465,7 +3645,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>633</v>
+        <v>693</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3494,7 +3674,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3523,7 +3703,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3552,7 +3732,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3581,7 +3761,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3610,7 +3790,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3639,7 +3819,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3668,7 +3848,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3697,7 +3877,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="730">
   <si>
     <t>Doi</t>
   </si>
@@ -2399,6 +2399,96 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                  Davide%Bianchi%NULL%1,                  Francesca%Santi%NULL%1,                  Luigi%Costantini%NULL%1,                  Anna%Odone%NULL%1,                  Carlo%Signorelli%NULL%0,                  Alessandra%Costanza%NULL%1,                  Gianluca%Serafini%NULL%1,                  Mario%Amore%NULL%1,                  Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                   Martín%Gagliardi%NULL%2,                   Martín%Gagliardi%NULL%0,                   Nicolas%Coombes%NULL%1,                   Federico%Landriel%NULL%2,                   Federico%Landriel%NULL%0,                   Carlos%Zanardi%NULL%1,                   Gastón Camino%Willhuber%NULL%1,                   Juan Pablo%Guyot%NULL%1,                   Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                   Nathaniel%Scherer%NULL%10,                   Lambert%Felix%NULL%20,                   Lambert%Felix%NULL%0,                   Hannah%Kuper%NULL%20,                   Hannah%Kuper%NULL%0,                   Jakob%Pietschnig%NULL%20,                   Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                   Nathaniel%Scherer%NULL%0,                   Lambert%Felix%NULL%0,                   Lambert%Felix%NULL%0,                   Hannah%Kuper%NULL%0,                   Hannah%Kuper%NULL%0,                   Jakob%Pietschnig%NULL%0,                   Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                   Koffi Mawuse%Guédénon%NULL%2,                   Koffi Mawuse%Guédénon%NULL%0,                   Ayoko Akouavi%Dogbe Foli%NULL%1,                   Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                   Simeng%Ma%NULL%0,                   Ying%Wang%NULL%0,                   Zhongxiang%Cai%NULL%0,                   Jianbo%Hu%NULL%0,                   Ning%Wei%NULL%0,                   Jiang%Wu%NULL%0,                   Hui%Du%NULL%0,                   Tingting%Chen%NULL%0,                   Ruiting%Li%NULL%0,                   Huawei%Tan%NULL%0,                   Lijun%Kang%NULL%0,                   Lihua%Yao%NULL%0,                   Manli%Huang%NULL%0,                   Huafen%Wang%NULL%0,                   Gaohua%Wang%NULL%0,                   Zhongchun%Liu%NULL%0,                   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                   Teresa%Arora%NULL%1,                   Ian%Grey%NULL%1,                   Lorna Kwai Ping%Suen%NULL%1,                   Emma Yun-zhi%Huang%NULL%1,                   Daofan%Li%NULL%1,                   Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                   Youlin%Chen%NULL%1,                   Jianlin%Lv%NULL%1,                   Linlin%Liu%NULL%1,                   Shiqin%Zong%NULL%1,                   Hanxia%Li%NULL%1,                   Hong%Li%NULL%1,                   Massimo%Tusconi.%NULL%2,                   Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                   Hang%Wang%NULL%1,                   Yuxing%Lin%NULL%1,                   Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                   Eman Zmaily%Dahmash%NULL%2,                   Eman Zmaily%Dahmash%NULL%0,                   Rabaa%Al‐Rousan%NULL%2,                   Rabaa%Al‐Rousan%NULL%0,                   Hassan%Alwafi%NULL%1,                   Hamzeh Mohammad%Alrawashdeh%NULL%1,                   Imene%Ghoul%NULL%1,                   Anwer%Abidine%NULL%1,                   Mohammed A.%Bokhary%NULL%1,                   Hadeel T.%AL‐Hadithi%NULL%1,                   Dalia%Ali%NULL%1,                   Rasha%Abuthawabeh%NULL%1,                   Ghada Mohammad%Abdelwahab%NULL%1,                   Yosra J.%Alhartani%NULL%1,                   Haneen%Al Muhaisen%NULL%1,                   Ayah%Dagash%NULL%1,                   Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                   Zahra%Bostani%NULL%1,                   Saman%Maroufizadeh%NULL%1,                   Atefeh%Ghanbari%NULL%1,                   Maryam%Khoshbakht%NULL%1,                   Seyed Amirhossein%Alavi%NULL%1,                   Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                   Le%Shi%NULL%2,                   Le%Shi%NULL%0,                   Jiahui%Deng%NULL%1,                   Jiajia%Liu%NULL%1,                   Li%Zhang%NULL%0,                   Suying%Wu%NULL%1,                   Yimiao%Gong%NULL%1,                   Weizhen%Huang%NULL%1,                   Kai%Yuan%NULL%1,                   Wei%Yan%NULL%1,                   Yankun%Sun%NULL%1,                   Maosheng%Ran%NULL%1,                   Yanping%Bao%NULL%1,                   Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                   Valentina%Socci%NULL%0,                   Francesca%Pacitti%NULL%0,                   Giorgio%Di Lorenzo%NULL%0,                   Antinisca%Di Marco%NULL%0,                   Alberto%Siracusano%NULL%0,                   Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                    M. H.% Raza%null%1,                    Z. U.% Mustafa%null%1,                    T. M.% Khan%null%1,                    N.% Asif%null%1,                    H.% Tahir%null%1,                    N.% Shehzadi%null%1,                    K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                   Franchesca%Diaz%NULL%1,                   Nathalie%Moise%NULL%1,                   D. Edmund%Anstey%NULL%1,                   Siqin%Ye%NULL%1,                   Sachin%Agarwal%NULL%1,                   Jeffrey L.%Birk%NULL%1,                   Daniel%Brodie%NULL%0,                   Diane E.%Cannone%NULL%1,                   Bernard%Chang%NULL%1,                   Jan%Claassen%NULL%2,                   Talea%Cornelius%NULL%1,                   Lilly%Derby%NULL%1,                   Melissa%Dong%NULL%1,                   Raymond C.%Givens%NULL%1,                   Beth%Hochman%NULL%1,                   Shunichi%Homma%NULL%1,                   Ian M.%Kronish%NULL%1,                   Sung A.J.%Lee%NULL%1,                   Wilhelmina%Manzano%NULL%1,                   Laurel E.S.%Mayer%NULL%1,                   Cara L.%McMurry%NULL%1,                   Vivek%Moitra%NULL%1,                   Patrick%Pham%NULL%1,                   LeRoy%Rabbani%NULL%1,                   Reynaldo R.%Rivera%NULL%1,                   Allan%Schwartz%NULL%2,                   Joseph E.%Schwartz%NULL%1,                   Peter A.%Shapiro%NULL%1,                   Kaitlin%Shaw%NULL%1,                   Alexandra M.%Sullivan%NULL%1,                   Courtney%Vose%NULL%1,                   Lauren%Wasson%NULL%1,                   Donald%Edmondson%NULL%1,                   Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                   Wenning%Fu%NULL%0,                   Xiaoran%Liu%NULL%0,                   Zhiqian%Luo%NULL%0,                   Rixing%Wang%NULL%0,                   Ning%Zhou%NULL%0,                   Shijiao%Yan%NULL%0,                   Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                   Hong-Tao%Guo%NULL%1,                   Xue-Wei%Du%NULL%1,                   Wen%Song%NULL%1,                   Chang%Lu%NULL%1,                   Wen-Nv%Hao%NULL%1,                   Maria%Kapritsou.%NULL%3,                   Maria%Kapritsou.%NULL%0,                   Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                   Xiaobin%Zhu%NULL%1,                   Shuai%Fu%NULL%1,                   Yugang%Hu%NULL%1,                   Xiaoning%Li%NULL%0,                   Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                   Jing%Liu%NULL%0,                   Asghar%Afshar Jahanshahi%NULL%1,                   Khaled%Nawaser%NULL%1,                   Ali%Yousefi%NULL%1,                   Jizhen%Li%NULL%1,                   Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                   Kun%Wang%NULL%2,                   Lu%Yin%NULL%0,                   Wen-feng%Zhao%NULL%1,                   Qing%Xue%NULL%1,                   Mao%Peng%NULL%1,                   Bao-quan%Min%NULL%1,                   Qing%Tian%NULL%1,                   Hai-xia%Leng%NULL%1,                   Jia-lin%Du%NULL%1,                   Hong%Chang%NULL%1,                   Yuan%Yang%NULL%0,                   Wei%Li%NULL%2,                   Fang-fang%Shangguan%NULL%1,                   Tian-yi%Yan%NULL%1,                   Hui-qing%Dong%NULL%1,                   Ying%Han%NULL%1,                   Yu-ping%Wang%NULL%1,                   Fiammetta%Cosci%NULL%1,                   Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                   Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                   Lin%Sun%NULL%1,                   Lan%Zhang%NULL%1,                   Huan%Wang%NULL%1,                   Ajiao%Fan%NULL%1,                   Bin%Yang%NULL%1,                   Wei%Li%NULL%0,                   Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                   Lu%Dong%NULL%1,                   Tao%Wang%NULL%0,                   Chenxin%Yuan%NULL%1,                   Rao%Fu%NULL%1,                   Lei%Zhang%NULL%2,                   Bo%Liu%NULL%0,                   Mingmin%Zhang%NULL%1,                   Yuanyuan%Yin%NULL%1,                   Jiawen%Qin%NULL%1,                   Jennifer%Bouey%NULL%1,                   Min%Zhao%NULL%1,                   Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                   Ayşe%Kurtulmuş%NULL%1,                   Selim%Arpacıoğlu%NULL%1,                   Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                   Gunther%Eysenbach%NULL%1,                   Albert%Wu%NULL%2,                   Albert%Wu%NULL%0,                   Bojana%Knezevic%NULL%1,                   Bradley A%Evanoff%bevanoff@wustl.edu%2,                   Bradley A%Evanoff%bevanoff@wustl.edu%0,                   Jaime R%Strickland%NULL%2,                   Jaime R%Strickland%NULL%0,                   Ann Marie%Dale%NULL%2,                   Ann Marie%Dale%NULL%0,                   Lisa%Hayibor%NULL%2,                   Lisa%Hayibor%NULL%0,                   Emily%Page%NULL%2,                   Emily%Page%NULL%0,                   Jennifer G%Duncan%NULL%2,                   Jennifer G%Duncan%NULL%0,                   Thomas%Kannampallil%NULL%2,                   Thomas%Kannampallil%NULL%0,                   Diana L%Gray%NULL%2,                   Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                   Ranjan%Bhattacharyya%NULL%1,                   Sumita%Bhattacharyya%NULL%1,                   Sukanya%Gupta%NULL%1,                   Soumitra%Das%NULL%1,                   Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                   Xinghuang%Liu%NULL%2,                   Xinghuang%Liu%NULL%0,                   Dongke%Wang%NULL%2,                   Dongke%Wang%NULL%0,                   Yan%Jin%NULL%2,                   Yan%Jin%NULL%0,                   Miao%He%NULL%1,                   Yanling%Ma%NULL%1,                   Xiaolong%Zhao%NULL%1,                   Shuangning%Song%NULL%1,                   Lei%Zhang%NULL%0,                   Xuelian%Xiang%NULL%1,                   Ling%Yang%NULL%0,                   Jun%Song%song111jun@126.com%1,                   Tao%Bai%drbaitao@126.com%4,                   Xiaohua%Hou%houxh@hust.edu.cn%2,                   Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                   Hao%Zhou%haoye320@163.com%1,                   Yan%Zhou%NULL%1,                   Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,           Maciej%Debski%xref no email%1,           Andrew%Wiper%xref no email%1,           Amr%Abdelrahman%xref no email%1,           Susan%Wild%xref no email%1,           Shajil%Chalil%xref no email%1,           Ranjit%More%xref no email%1,           Grahame%Goode%xref no email%1,           Billal%Patel%xref no email%1,           Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                   Piyaporn%Apisarnthanarak%NULL%2,                   Piyaporn%Apisarnthanarak%NULL%0,                   Chanida%Siripraparat%NULL%2,                   Chanida%Siripraparat%NULL%0,                   Pavarat%Saengaram%NULL%1,                   Narakorn%Leeprechanon%NULL%1,                   David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                   Davide%Bianchi%NULL%1,                   Francesca%Santi%NULL%1,                   Luigi%Costantini%NULL%1,                   Anna%Odone%NULL%1,                   Carlo%Signorelli%NULL%0,                   Alessandra%Costanza%NULL%1,                   Gianluca%Serafini%NULL%1,                   Mario%Amore%NULL%1,                   Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2775,7 +2865,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2833,7 +2923,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2862,7 +2952,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2891,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2920,7 +3010,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2949,7 +3039,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2978,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3007,7 +3097,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3036,7 +3126,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3065,7 +3155,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -3094,7 +3184,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3152,7 +3242,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3181,7 +3271,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3210,7 +3300,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -3239,7 +3329,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3268,7 +3358,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3297,7 +3387,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3326,7 +3416,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3355,7 +3445,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3384,7 +3474,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3413,7 +3503,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3442,7 +3532,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3471,7 +3561,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3500,7 +3590,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3529,7 +3619,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3558,7 +3648,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3587,7 +3677,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3616,7 +3706,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3645,7 +3735,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3674,7 +3764,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3703,7 +3793,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3732,7 +3822,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3761,7 +3851,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3790,7 +3880,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3819,7 +3909,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3848,7 +3938,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3877,7 +3967,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="765">
   <si>
     <t>Doi</t>
   </si>
@@ -2489,6 +2489,111 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                   Davide%Bianchi%NULL%1,                   Francesca%Santi%NULL%1,                   Luigi%Costantini%NULL%1,                   Anna%Odone%NULL%1,                   Carlo%Signorelli%NULL%0,                   Alessandra%Costanza%NULL%1,                   Gianluca%Serafini%NULL%1,                   Mario%Amore%NULL%1,                   Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                    Martín%Gagliardi%NULL%2,                    Martín%Gagliardi%NULL%0,                    Nicolas%Coombes%NULL%1,                    Federico%Landriel%NULL%2,                    Federico%Landriel%NULL%0,                    Carlos%Zanardi%NULL%1,                    Gastón Camino%Willhuber%NULL%1,                    Juan Pablo%Guyot%NULL%1,                    Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                    Nathaniel%Scherer%NULL%10,                    Lambert%Felix%NULL%20,                    Lambert%Felix%NULL%0,                    Hannah%Kuper%NULL%20,                    Hannah%Kuper%NULL%0,                    Jakob%Pietschnig%NULL%20,                    Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                    Nathaniel%Scherer%NULL%0,                    Lambert%Felix%NULL%0,                    Lambert%Felix%NULL%0,                    Hannah%Kuper%NULL%0,                    Hannah%Kuper%NULL%0,                    Jakob%Pietschnig%NULL%0,                    Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                    Koffi Mawuse%Guédénon%NULL%2,                    Koffi Mawuse%Guédénon%NULL%0,                    Ayoko Akouavi%Dogbe Foli%NULL%1,                    Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                    Simeng%Ma%NULL%0,                    Ying%Wang%NULL%0,                    Zhongxiang%Cai%NULL%0,                    Jianbo%Hu%NULL%0,                    Ning%Wei%NULL%0,                    Jiang%Wu%NULL%0,                    Hui%Du%NULL%0,                    Tingting%Chen%NULL%0,                    Ruiting%Li%NULL%0,                    Huawei%Tan%NULL%0,                    Lijun%Kang%NULL%0,                    Lihua%Yao%NULL%0,                    Manli%Huang%NULL%0,                    Huafen%Wang%NULL%0,                    Gaohua%Wang%NULL%0,                    Zhongchun%Liu%NULL%0,                    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                    Teresa%Arora%NULL%1,                    Ian%Grey%NULL%1,                    Lorna Kwai Ping%Suen%NULL%1,                    Emma Yun-zhi%Huang%NULL%1,                    Daofan%Li%NULL%1,                    Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                    Youlin%Chen%NULL%1,                    Jianlin%Lv%NULL%1,                    Linlin%Liu%NULL%1,                    Shiqin%Zong%NULL%1,                    Hanxia%Li%NULL%1,                    Hong%Li%NULL%1,                    Massimo%Tusconi.%NULL%2,                    Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                    Hang%Wang%NULL%1,                    Yuxing%Lin%NULL%1,                    Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                    Eman Zmaily%Dahmash%NULL%2,                    Eman Zmaily%Dahmash%NULL%0,                    Rabaa%Al‐Rousan%NULL%2,                    Rabaa%Al‐Rousan%NULL%0,                    Hassan%Alwafi%NULL%1,                    Hamzeh Mohammad%Alrawashdeh%NULL%1,                    Imene%Ghoul%NULL%1,                    Anwer%Abidine%NULL%1,                    Mohammed A.%Bokhary%NULL%1,                    Hadeel T.%AL‐Hadithi%NULL%1,                    Dalia%Ali%NULL%1,                    Rasha%Abuthawabeh%NULL%1,                    Ghada Mohammad%Abdelwahab%NULL%1,                    Yosra J.%Alhartani%NULL%1,                    Haneen%Al Muhaisen%NULL%1,                    Ayah%Dagash%NULL%1,                    Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                    Zahra%Bostani%NULL%1,                    Saman%Maroufizadeh%NULL%1,                    Atefeh%Ghanbari%NULL%1,                    Maryam%Khoshbakht%NULL%1,                    Seyed Amirhossein%Alavi%NULL%1,                    Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                    Le%Shi%NULL%2,                    Le%Shi%NULL%0,                    Jiahui%Deng%NULL%1,                    Jiajia%Liu%NULL%1,                    Li%Zhang%NULL%0,                    Suying%Wu%NULL%1,                    Yimiao%Gong%NULL%1,                    Weizhen%Huang%NULL%1,                    Kai%Yuan%NULL%1,                    Wei%Yan%NULL%1,                    Yankun%Sun%NULL%1,                    Maosheng%Ran%NULL%1,                    Yanping%Bao%NULL%1,                    Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                    Valentina%Socci%NULL%0,                    Francesca%Pacitti%NULL%0,                    Giorgio%Di Lorenzo%NULL%0,                    Antinisca%Di Marco%NULL%0,                    Alberto%Siracusano%NULL%0,                    Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                     M. H.% Raza%null%1,                     Z. U.% Mustafa%null%1,                     T. M.% Khan%null%1,                     N.% Asif%null%1,                     H.% Tahir%null%1,                     N.% Shehzadi%null%1,                     K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                    Franchesca%Diaz%NULL%1,                    Nathalie%Moise%NULL%1,                    D. Edmund%Anstey%NULL%1,                    Siqin%Ye%NULL%1,                    Sachin%Agarwal%NULL%1,                    Jeffrey L.%Birk%NULL%1,                    Daniel%Brodie%NULL%0,                    Diane E.%Cannone%NULL%1,                    Bernard%Chang%NULL%1,                    Jan%Claassen%NULL%2,                    Talea%Cornelius%NULL%1,                    Lilly%Derby%NULL%1,                    Melissa%Dong%NULL%1,                    Raymond C.%Givens%NULL%1,                    Beth%Hochman%NULL%1,                    Shunichi%Homma%NULL%1,                    Ian M.%Kronish%NULL%1,                    Sung A.J.%Lee%NULL%1,                    Wilhelmina%Manzano%NULL%1,                    Laurel E.S.%Mayer%NULL%1,                    Cara L.%McMurry%NULL%1,                    Vivek%Moitra%NULL%1,                    Patrick%Pham%NULL%1,                    LeRoy%Rabbani%NULL%1,                    Reynaldo R.%Rivera%NULL%1,                    Allan%Schwartz%NULL%2,                    Joseph E.%Schwartz%NULL%1,                    Peter A.%Shapiro%NULL%1,                    Kaitlin%Shaw%NULL%1,                    Alexandra M.%Sullivan%NULL%1,                    Courtney%Vose%NULL%1,                    Lauren%Wasson%NULL%1,                    Donald%Edmondson%NULL%1,                    Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                    Wenning%Fu%NULL%0,                    Xiaoran%Liu%NULL%0,                    Zhiqian%Luo%NULL%0,                    Rixing%Wang%NULL%0,                    Ning%Zhou%NULL%0,                    Shijiao%Yan%NULL%0,                    Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                    Hong-Tao%Guo%NULL%1,                    Xue-Wei%Du%NULL%1,                    Wen%Song%NULL%1,                    Chang%Lu%NULL%1,                    Wen-Nv%Hao%NULL%1,                    Maria%Kapritsou.%NULL%3,                    Maria%Kapritsou.%NULL%0,                    Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                    Xiaobin%Zhu%NULL%1,                    Shuai%Fu%NULL%1,                    Yugang%Hu%NULL%1,                    Xiaoning%Li%NULL%1,                    Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                    Jing%Liu%NULL%0,                    Asghar%Afshar Jahanshahi%NULL%1,                    Khaled%Nawaser%NULL%1,                    Ali%Yousefi%NULL%1,                    Jizhen%Li%NULL%1,                    Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                    Kun%Wang%NULL%2,                    Lu%Yin%NULL%0,                    Wen-feng%Zhao%NULL%1,                    Qing%Xue%NULL%1,                    Mao%Peng%NULL%1,                    Bao-quan%Min%NULL%1,                    Qing%Tian%NULL%1,                    Hai-xia%Leng%NULL%1,                    Jia-lin%Du%NULL%1,                    Hong%Chang%NULL%1,                    Yuan%Yang%NULL%0,                    Wei%Li%NULL%2,                    Fang-fang%Shangguan%NULL%1,                    Tian-yi%Yan%NULL%1,                    Hui-qing%Dong%NULL%1,                    Ying%Han%NULL%1,                    Yu-ping%Wang%NULL%1,                    Fiammetta%Cosci%NULL%1,                    Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                    Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                    Lin%Sun%NULL%1,                    Lan%Zhang%NULL%1,                    Huan%Wang%NULL%1,                    Ajiao%Fan%NULL%1,                    Bin%Yang%NULL%1,                    Wei%Li%NULL%0,                    Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                    Lu%Dong%NULL%1,                    Tao%Wang%NULL%0,                    Chenxin%Yuan%NULL%1,                    Rao%Fu%NULL%1,                    Lei%Zhang%NULL%2,                    Bo%Liu%NULL%1,                    Mingmin%Zhang%NULL%1,                    Yuanyuan%Yin%NULL%1,                    Jiawen%Qin%NULL%1,                    Jennifer%Bouey%NULL%1,                    Min%Zhao%NULL%1,                    Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                    Ayşe%Kurtulmuş%NULL%1,                    Selim%Arpacıoğlu%NULL%1,                    Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                    Gunther%Eysenbach%NULL%1,                    Albert%Wu%NULL%2,                    Albert%Wu%NULL%0,                    Bojana%Knezevic%NULL%1,                    Bradley A%Evanoff%bevanoff@wustl.edu%2,                    Bradley A%Evanoff%bevanoff@wustl.edu%0,                    Jaime R%Strickland%NULL%2,                    Jaime R%Strickland%NULL%0,                    Ann Marie%Dale%NULL%2,                    Ann Marie%Dale%NULL%0,                    Lisa%Hayibor%NULL%2,                    Lisa%Hayibor%NULL%0,                    Emily%Page%NULL%2,                    Emily%Page%NULL%0,                    Jennifer G%Duncan%NULL%2,                    Jennifer G%Duncan%NULL%0,                    Thomas%Kannampallil%NULL%2,                    Thomas%Kannampallil%NULL%0,                    Diana L%Gray%NULL%2,                    Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                    Ranjan%Bhattacharyya%NULL%1,                    Sumita%Bhattacharyya%NULL%1,                    Sukanya%Gupta%NULL%1,                    Soumitra%Das%NULL%1,                    Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                    Xinghuang%Liu%NULL%2,                    Xinghuang%Liu%NULL%0,                    Dongke%Wang%NULL%2,                    Dongke%Wang%NULL%0,                    Yan%Jin%NULL%2,                    Yan%Jin%NULL%0,                    Miao%He%NULL%1,                    Yanling%Ma%NULL%1,                    Xiaolong%Zhao%NULL%1,                    Shuangning%Song%NULL%1,                    Lei%Zhang%NULL%0,                    Xuelian%Xiang%NULL%1,                    Ling%Yang%NULL%0,                    Jun%Song%song111jun@126.com%1,                    Tao%Bai%drbaitao@126.com%4,                    Xiaohua%Hou%houxh@hust.edu.cn%2,                    Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                    Hao%Zhou%haoye320@163.com%1,                    Yan%Zhou%NULL%1,                    Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,            Maciej%Debski%xref no email%1,            Andrew%Wiper%xref no email%1,            Amr%Abdelrahman%xref no email%1,            Susan%Wild%xref no email%1,            Shajil%Chalil%xref no email%1,            Ranjit%More%xref no email%1,            Grahame%Goode%xref no email%1,            Billal%Patel%xref no email%1,            Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                    Piyaporn%Apisarnthanarak%NULL%2,                    Piyaporn%Apisarnthanarak%NULL%0,                    Chanida%Siripraparat%NULL%2,                    Chanida%Siripraparat%NULL%0,                    Pavarat%Saengaram%NULL%1,                    Narakorn%Leeprechanon%NULL%1,                    David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                    Davide%Bianchi%NULL%1,                    Francesca%Santi%NULL%1,                    Luigi%Costantini%NULL%1,                    Anna%Odone%NULL%1,                    Carlo%Signorelli%NULL%0,                    Alessandra%Costanza%NULL%1,                    Gianluca%Serafini%NULL%1,                    Mario%Amore%NULL%1,                    Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2941,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2848,7 +2953,7 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3">
@@ -2865,7 +2970,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2877,7 +2982,7 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4">
@@ -2923,7 +3028,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2935,7 +3040,7 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6">
@@ -2952,7 +3057,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -2964,7 +3069,7 @@
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7">
@@ -2981,7 +3086,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -2993,7 +3098,7 @@
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8">
@@ -3010,7 +3115,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -3022,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9">
@@ -3039,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -3051,7 +3156,7 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10">
@@ -3068,7 +3173,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3080,7 +3185,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3202,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3109,7 +3214,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12">
@@ -3126,7 +3231,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3138,7 +3243,7 @@
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13">
@@ -3155,7 +3260,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -3167,7 +3272,7 @@
         <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14">
@@ -3184,7 +3289,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3196,7 +3301,7 @@
         <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15">
@@ -3242,7 +3347,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3254,7 +3359,7 @@
         <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17">
@@ -3271,7 +3376,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3283,7 +3388,7 @@
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18">
@@ -3300,7 +3405,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -3312,7 +3417,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19">
@@ -3329,7 +3434,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3341,7 +3446,7 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20">
@@ -3358,7 +3463,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3370,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21">
@@ -3387,7 +3492,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3399,7 +3504,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22">
@@ -3416,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3428,7 +3533,7 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23">
@@ -3445,7 +3550,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3457,7 +3562,7 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24">
@@ -3474,7 +3579,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3486,7 +3591,7 @@
         <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25">
@@ -3503,7 +3608,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3515,7 +3620,7 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26">
@@ -3532,7 +3637,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3544,7 +3649,7 @@
         <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27">
@@ -3561,7 +3666,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3573,7 +3678,7 @@
         <v>134</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28">
@@ -3590,7 +3695,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3602,7 +3707,7 @@
         <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29">
@@ -3619,7 +3724,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3631,7 +3736,7 @@
         <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30">
@@ -3648,7 +3753,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3660,7 +3765,7 @@
         <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31">
@@ -3677,7 +3782,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3689,7 +3794,7 @@
         <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32">
@@ -3706,7 +3811,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3718,7 +3823,7 @@
         <v>101</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33">
@@ -3735,7 +3840,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3747,7 +3852,7 @@
         <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34">
@@ -3764,7 +3869,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3776,7 +3881,7 @@
         <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35">
@@ -3793,7 +3898,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3805,7 +3910,7 @@
         <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36">
@@ -3822,7 +3927,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3834,7 +3939,7 @@
         <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37">
@@ -3851,7 +3956,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3863,7 +3968,7 @@
         <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38">
@@ -3880,7 +3985,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -3892,7 +3997,7 @@
         <v>425</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39">
@@ -3909,7 +4014,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -3921,7 +4026,7 @@
         <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40">
@@ -3938,7 +4043,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -3967,7 +4072,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -3979,7 +4084,7 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="795">
   <si>
     <t>Doi</t>
   </si>
@@ -2594,6 +2594,96 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                    Davide%Bianchi%NULL%1,                    Francesca%Santi%NULL%1,                    Luigi%Costantini%NULL%1,                    Anna%Odone%NULL%1,                    Carlo%Signorelli%NULL%0,                    Alessandra%Costanza%NULL%1,                    Gianluca%Serafini%NULL%1,                    Mario%Amore%NULL%1,                    Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                     Martín%Gagliardi%NULL%2,                     Martín%Gagliardi%NULL%0,                     Nicolas%Coombes%NULL%1,                     Federico%Landriel%NULL%2,                     Federico%Landriel%NULL%0,                     Carlos%Zanardi%NULL%1,                     Gastón Camino%Willhuber%NULL%1,                     Juan Pablo%Guyot%NULL%1,                     Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                     Nathaniel%Scherer%NULL%10,                     Lambert%Felix%NULL%20,                     Lambert%Felix%NULL%0,                     Hannah%Kuper%NULL%20,                     Hannah%Kuper%NULL%0,                     Jakob%Pietschnig%NULL%20,                     Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                     Nathaniel%Scherer%NULL%0,                     Lambert%Felix%NULL%0,                     Lambert%Felix%NULL%0,                     Hannah%Kuper%NULL%0,                     Hannah%Kuper%NULL%0,                     Jakob%Pietschnig%NULL%0,                     Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                     Koffi Mawuse%Guédénon%NULL%2,                     Koffi Mawuse%Guédénon%NULL%0,                     Ayoko Akouavi%Dogbe Foli%NULL%1,                     Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                     Simeng%Ma%NULL%0,                     Ying%Wang%NULL%0,                     Zhongxiang%Cai%NULL%0,                     Jianbo%Hu%NULL%0,                     Ning%Wei%NULL%0,                     Jiang%Wu%NULL%0,                     Hui%Du%NULL%0,                     Tingting%Chen%NULL%0,                     Ruiting%Li%NULL%0,                     Huawei%Tan%NULL%0,                     Lijun%Kang%NULL%0,                     Lihua%Yao%NULL%0,                     Manli%Huang%NULL%0,                     Huafen%Wang%NULL%0,                     Gaohua%Wang%NULL%0,                     Zhongchun%Liu%NULL%0,                     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                     Teresa%Arora%NULL%1,                     Ian%Grey%NULL%1,                     Lorna Kwai Ping%Suen%NULL%1,                     Emma Yun-zhi%Huang%NULL%1,                     Daofan%Li%NULL%1,                     Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                     Youlin%Chen%NULL%1,                     Jianlin%Lv%NULL%1,                     Linlin%Liu%NULL%1,                     Shiqin%Zong%NULL%1,                     Hanxia%Li%NULL%1,                     Hong%Li%NULL%1,                     Massimo%Tusconi.%NULL%2,                     Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                     Hang%Wang%NULL%1,                     Yuxing%Lin%NULL%1,                     Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                     Eman Zmaily%Dahmash%NULL%2,                     Eman Zmaily%Dahmash%NULL%0,                     Rabaa%Al‐Rousan%NULL%2,                     Rabaa%Al‐Rousan%NULL%0,                     Hassan%Alwafi%NULL%1,                     Hamzeh Mohammad%Alrawashdeh%NULL%1,                     Imene%Ghoul%NULL%1,                     Anwer%Abidine%NULL%1,                     Mohammed A.%Bokhary%NULL%1,                     Hadeel T.%AL‐Hadithi%NULL%1,                     Dalia%Ali%NULL%1,                     Rasha%Abuthawabeh%NULL%1,                     Ghada Mohammad%Abdelwahab%NULL%1,                     Yosra J.%Alhartani%NULL%1,                     Haneen%Al Muhaisen%NULL%1,                     Ayah%Dagash%NULL%1,                     Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                     Zahra%Bostani%NULL%1,                     Saman%Maroufizadeh%NULL%1,                     Atefeh%Ghanbari%NULL%1,                     Maryam%Khoshbakht%NULL%1,                     Seyed Amirhossein%Alavi%NULL%1,                     Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                     Le%Shi%NULL%2,                     Le%Shi%NULL%0,                     Jiahui%Deng%NULL%1,                     Jiajia%Liu%NULL%1,                     Li%Zhang%NULL%0,                     Suying%Wu%NULL%1,                     Yimiao%Gong%NULL%1,                     Weizhen%Huang%NULL%1,                     Kai%Yuan%NULL%1,                     Wei%Yan%NULL%1,                     Yankun%Sun%NULL%1,                     Maosheng%Ran%NULL%1,                     Yanping%Bao%NULL%1,                     Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                     Valentina%Socci%NULL%0,                     Francesca%Pacitti%NULL%0,                     Giorgio%Di Lorenzo%NULL%0,                     Antinisca%Di Marco%NULL%0,                     Alberto%Siracusano%NULL%0,                     Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%2,                      M. H.% Raza%null%1,                      Z. U.% Mustafa%null%1,                      T. M.% Khan%null%1,                      N.% Asif%null%1,                      H.% Tahir%null%1,                      N.% Shehzadi%null%1,                      K. % Hussain%null%1,  M.%Salman%null%0,  M. H.% Raza%null%1,  Z. U.% Mustafa%null%1,  T. M.% Khan%null%1,  N.% Asif%null%1,  H.% Tahir%null%1,  N.% Shehzadi%null%1,  K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                     Franchesca%Diaz%NULL%1,                     Nathalie%Moise%NULL%1,                     D. Edmund%Anstey%NULL%1,                     Siqin%Ye%NULL%1,                     Sachin%Agarwal%NULL%1,                     Jeffrey L.%Birk%NULL%1,                     Daniel%Brodie%NULL%0,                     Diane E.%Cannone%NULL%1,                     Bernard%Chang%NULL%1,                     Jan%Claassen%NULL%2,                     Talea%Cornelius%NULL%1,                     Lilly%Derby%NULL%1,                     Melissa%Dong%NULL%1,                     Raymond C.%Givens%NULL%1,                     Beth%Hochman%NULL%1,                     Shunichi%Homma%NULL%1,                     Ian M.%Kronish%NULL%1,                     Sung A.J.%Lee%NULL%1,                     Wilhelmina%Manzano%NULL%1,                     Laurel E.S.%Mayer%NULL%1,                     Cara L.%McMurry%NULL%1,                     Vivek%Moitra%NULL%1,                     Patrick%Pham%NULL%1,                     LeRoy%Rabbani%NULL%1,                     Reynaldo R.%Rivera%NULL%1,                     Allan%Schwartz%NULL%2,                     Joseph E.%Schwartz%NULL%1,                     Peter A.%Shapiro%NULL%1,                     Kaitlin%Shaw%NULL%1,                     Alexandra M.%Sullivan%NULL%1,                     Courtney%Vose%NULL%1,                     Lauren%Wasson%NULL%1,                     Donald%Edmondson%NULL%1,                     Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                     Wenning%Fu%NULL%0,                     Xiaoran%Liu%NULL%0,                     Zhiqian%Luo%NULL%0,                     Rixing%Wang%NULL%0,                     Ning%Zhou%NULL%0,                     Shijiao%Yan%NULL%0,                     Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                     Hong-Tao%Guo%NULL%1,                     Xue-Wei%Du%NULL%1,                     Wen%Song%NULL%1,                     Chang%Lu%NULL%1,                     Wen-Nv%Hao%NULL%1,                     Maria%Kapritsou.%NULL%3,                     Maria%Kapritsou.%NULL%0,                     Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                     Xiaobin%Zhu%NULL%1,                     Shuai%Fu%NULL%1,                     Yugang%Hu%NULL%1,                     Xiaoning%Li%NULL%1,                     Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                     Jing%Liu%NULL%0,                     Asghar%Afshar Jahanshahi%NULL%1,                     Khaled%Nawaser%NULL%1,                     Ali%Yousefi%NULL%1,                     Jizhen%Li%NULL%1,                     Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                     Kun%Wang%NULL%2,                     Lu%Yin%NULL%0,                     Wen-feng%Zhao%NULL%1,                     Qing%Xue%NULL%1,                     Mao%Peng%NULL%1,                     Bao-quan%Min%NULL%1,                     Qing%Tian%NULL%1,                     Hai-xia%Leng%NULL%1,                     Jia-lin%Du%NULL%1,                     Hong%Chang%NULL%1,                     Yuan%Yang%NULL%0,                     Wei%Li%NULL%2,                     Fang-fang%Shangguan%NULL%1,                     Tian-yi%Yan%NULL%1,                     Hui-qing%Dong%NULL%1,                     Ying%Han%NULL%1,                     Yu-ping%Wang%NULL%1,                     Fiammetta%Cosci%NULL%1,                     Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                     Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                     Lin%Sun%NULL%1,                     Lan%Zhang%NULL%1,                     Huan%Wang%NULL%1,                     Ajiao%Fan%NULL%1,                     Bin%Yang%NULL%1,                     Wei%Li%NULL%0,                     Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                     Lu%Dong%NULL%1,                     Tao%Wang%NULL%0,                     Chenxin%Yuan%NULL%1,                     Rao%Fu%NULL%1,                     Lei%Zhang%NULL%2,                     Bo%Liu%NULL%1,                     Mingmin%Zhang%NULL%1,                     Yuanyuan%Yin%NULL%1,                     Jiawen%Qin%NULL%1,                     Jennifer%Bouey%NULL%1,                     Min%Zhao%NULL%1,                     Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                     Ayşe%Kurtulmuş%NULL%1,                     Selim%Arpacıoğlu%NULL%1,                     Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                     Gunther%Eysenbach%NULL%1,                     Albert%Wu%NULL%2,                     Albert%Wu%NULL%0,                     Bojana%Knezevic%NULL%1,                     Bradley A%Evanoff%bevanoff@wustl.edu%2,                     Bradley A%Evanoff%bevanoff@wustl.edu%0,                     Jaime R%Strickland%NULL%2,                     Jaime R%Strickland%NULL%0,                     Ann Marie%Dale%NULL%2,                     Ann Marie%Dale%NULL%0,                     Lisa%Hayibor%NULL%2,                     Lisa%Hayibor%NULL%0,                     Emily%Page%NULL%2,                     Emily%Page%NULL%0,                     Jennifer G%Duncan%NULL%2,                     Jennifer G%Duncan%NULL%0,                     Thomas%Kannampallil%NULL%2,                     Thomas%Kannampallil%NULL%0,                     Diana L%Gray%NULL%2,                     Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                     Ranjan%Bhattacharyya%NULL%1,                     Sumita%Bhattacharyya%NULL%1,                     Sukanya%Gupta%NULL%1,                     Soumitra%Das%NULL%1,                     Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                     Xinghuang%Liu%NULL%2,                     Xinghuang%Liu%NULL%0,                     Dongke%Wang%NULL%2,                     Dongke%Wang%NULL%0,                     Yan%Jin%NULL%2,                     Yan%Jin%NULL%0,                     Miao%He%NULL%1,                     Yanling%Ma%NULL%1,                     Xiaolong%Zhao%NULL%1,                     Shuangning%Song%NULL%1,                     Lei%Zhang%NULL%0,                     Xuelian%Xiang%NULL%1,                     Ling%Yang%NULL%0,                     Jun%Song%song111jun@126.com%1,                     Tao%Bai%drbaitao@126.com%4,                     Xiaohua%Hou%houxh@hust.edu.cn%2,                     Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                     Hao%Zhou%haoye320@163.com%1,                     Yan%Zhou%NULL%1,                     Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%1,             Maciej%Debski%xref no email%1,             Andrew%Wiper%xref no email%1,             Amr%Abdelrahman%xref no email%1,             Susan%Wild%xref no email%1,             Shajil%Chalil%xref no email%1,             Ranjit%More%xref no email%1,             Grahame%Goode%xref no email%1,             Billal%Patel%xref no email%1,             Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                     Piyaporn%Apisarnthanarak%NULL%2,                     Piyaporn%Apisarnthanarak%NULL%0,                     Chanida%Siripraparat%NULL%2,                     Chanida%Siripraparat%NULL%0,                     Pavarat%Saengaram%NULL%1,                     Narakorn%Leeprechanon%NULL%1,                     David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                     Davide%Bianchi%NULL%1,                     Francesca%Santi%NULL%1,                     Luigi%Costantini%NULL%1,                     Anna%Odone%NULL%1,                     Carlo%Signorelli%NULL%0,                     Alessandra%Costanza%NULL%1,                     Gianluca%Serafini%NULL%1,                     Mario%Amore%NULL%1,                     Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +3031,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2970,7 +3060,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3028,7 +3118,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3057,7 +3147,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3086,7 +3176,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -3115,7 +3205,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -3144,7 +3234,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -3173,7 +3263,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3202,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3231,7 +3321,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3260,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -3289,7 +3379,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3347,7 +3437,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3376,7 +3466,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3405,7 +3495,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -3434,7 +3524,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3463,7 +3553,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3492,7 +3582,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3521,7 +3611,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3550,7 +3640,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3579,7 +3669,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3608,7 +3698,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3637,7 +3727,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3666,7 +3756,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3695,7 +3785,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3724,7 +3814,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3753,7 +3843,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3782,7 +3872,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3811,7 +3901,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3840,7 +3930,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3869,7 +3959,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3898,7 +3988,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -3927,7 +4017,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -3956,7 +4046,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -3985,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -4014,7 +4104,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -4043,7 +4133,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -4072,7 +4162,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="943">
   <si>
     <t>Doi</t>
   </si>
@@ -2684,6 +2684,450 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                     Davide%Bianchi%NULL%1,                     Francesca%Santi%NULL%1,                     Luigi%Costantini%NULL%1,                     Anna%Odone%NULL%1,                     Carlo%Signorelli%NULL%0,                     Alessandra%Costanza%NULL%1,                     Gianluca%Serafini%NULL%1,                     Mario%Amore%NULL%1,                     Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                      Martín%Gagliardi%NULL%2,                      Martín%Gagliardi%NULL%0,                      Nicolas%Coombes%NULL%1,                      Federico%Landriel%NULL%2,                      Federico%Landriel%NULL%0,                      Carlos%Zanardi%NULL%1,                      Gastón Camino%Willhuber%NULL%1,                      Juan Pablo%Guyot%NULL%1,                      Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                      Nathaniel%Scherer%NULL%10,                      Lambert%Felix%NULL%20,                      Lambert%Felix%NULL%0,                      Hannah%Kuper%NULL%20,                      Hannah%Kuper%NULL%0,                      Jakob%Pietschnig%NULL%20,                      Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                      Nathaniel%Scherer%NULL%0,                      Lambert%Felix%NULL%0,                      Lambert%Felix%NULL%0,                      Hannah%Kuper%NULL%0,                      Hannah%Kuper%NULL%0,                      Jakob%Pietschnig%NULL%0,                      Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                      Koffi Mawuse%Guédénon%NULL%2,                      Koffi Mawuse%Guédénon%NULL%0,                      Ayoko Akouavi%Dogbe Foli%NULL%1,                      Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                      Simeng%Ma%NULL%0,                      Ying%Wang%NULL%0,                      Zhongxiang%Cai%NULL%0,                      Jianbo%Hu%NULL%0,                      Ning%Wei%NULL%0,                      Jiang%Wu%NULL%0,                      Hui%Du%NULL%0,                      Tingting%Chen%NULL%0,                      Ruiting%Li%NULL%0,                      Huawei%Tan%NULL%0,                      Lijun%Kang%NULL%0,                      Lihua%Yao%NULL%0,                      Manli%Huang%NULL%0,                      Huafen%Wang%NULL%0,                      Gaohua%Wang%NULL%0,                      Zhongchun%Liu%NULL%0,                      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                      Teresa%Arora%NULL%1,                      Ian%Grey%NULL%1,                      Lorna Kwai Ping%Suen%NULL%1,                      Emma Yun-zhi%Huang%NULL%1,                      Daofan%Li%NULL%1,                      Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                      Youlin%Chen%NULL%1,                      Jianlin%Lv%NULL%1,                      Linlin%Liu%NULL%1,                      Shiqin%Zong%NULL%1,                      Hanxia%Li%NULL%1,                      Hong%Li%NULL%1,                      Massimo%Tusconi.%NULL%2,                      Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                      Hang%Wang%NULL%1,                      Yuxing%Lin%NULL%1,                      Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                      Eman Zmaily%Dahmash%NULL%2,                      Eman Zmaily%Dahmash%NULL%0,                      Rabaa%Al‐Rousan%NULL%2,                      Rabaa%Al‐Rousan%NULL%0,                      Hassan%Alwafi%NULL%1,                      Hamzeh Mohammad%Alrawashdeh%NULL%1,                      Imene%Ghoul%NULL%1,                      Anwer%Abidine%NULL%1,                      Mohammed A.%Bokhary%NULL%1,                      Hadeel T.%AL‐Hadithi%NULL%1,                      Dalia%Ali%NULL%1,                      Rasha%Abuthawabeh%NULL%1,                      Ghada Mohammad%Abdelwahab%NULL%1,                      Yosra J.%Alhartani%NULL%1,                      Haneen%Al Muhaisen%NULL%1,                      Ayah%Dagash%NULL%1,                      Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                      Zahra%Bostani%NULL%1,                      Saman%Maroufizadeh%NULL%1,                      Atefeh%Ghanbari%NULL%1,                      Maryam%Khoshbakht%NULL%1,                      Seyed Amirhossein%Alavi%NULL%1,                      Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                      Le%Shi%NULL%2,                      Le%Shi%NULL%0,                      Jiahui%Deng%NULL%1,                      Jiajia%Liu%NULL%1,                      Li%Zhang%NULL%0,                      Suying%Wu%NULL%1,                      Yimiao%Gong%NULL%1,                      Weizhen%Huang%NULL%1,                      Kai%Yuan%NULL%1,                      Wei%Yan%NULL%1,                      Yankun%Sun%NULL%1,                      Maosheng%Ran%NULL%1,                      Yanping%Bao%NULL%1,                      Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                      Valentina%Socci%NULL%0,                      Francesca%Pacitti%NULL%0,                      Giorgio%Di Lorenzo%NULL%0,                      Antinisca%Di Marco%NULL%0,                      Alberto%Siracusano%NULL%0,                      Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                       M. H.% Raza%null%1,                       Z. U.% Mustafa%null%1,                       T. M.% Khan%null%1,                       N.% Asif%null%1,                       H.% Tahir%null%1,                       N.% Shehzadi%null%1,                       K. % Hussain%null%1,   M.%Salman%null%1,   M. H.% Raza%null%1,   Z. U.% Mustafa%null%1,   T. M.% Khan%null%1,   N.% Asif%null%1,   H.% Tahir%null%1,   N.% Shehzadi%null%1,   K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                      Franchesca%Diaz%NULL%1,                      Nathalie%Moise%NULL%1,                      D. Edmund%Anstey%NULL%1,                      Siqin%Ye%NULL%1,                      Sachin%Agarwal%NULL%1,                      Jeffrey L.%Birk%NULL%1,                      Daniel%Brodie%NULL%0,                      Diane E.%Cannone%NULL%1,                      Bernard%Chang%NULL%1,                      Jan%Claassen%NULL%2,                      Talea%Cornelius%NULL%1,                      Lilly%Derby%NULL%1,                      Melissa%Dong%NULL%1,                      Raymond C.%Givens%NULL%1,                      Beth%Hochman%NULL%1,                      Shunichi%Homma%NULL%1,                      Ian M.%Kronish%NULL%1,                      Sung A.J.%Lee%NULL%1,                      Wilhelmina%Manzano%NULL%1,                      Laurel E.S.%Mayer%NULL%1,                      Cara L.%McMurry%NULL%1,                      Vivek%Moitra%NULL%1,                      Patrick%Pham%NULL%1,                      LeRoy%Rabbani%NULL%1,                      Reynaldo R.%Rivera%NULL%1,                      Allan%Schwartz%NULL%2,                      Joseph E.%Schwartz%NULL%1,                      Peter A.%Shapiro%NULL%1,                      Kaitlin%Shaw%NULL%1,                      Alexandra M.%Sullivan%NULL%1,                      Courtney%Vose%NULL%1,                      Lauren%Wasson%NULL%1,                      Donald%Edmondson%NULL%1,                      Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                      Wenning%Fu%NULL%0,                      Xiaoran%Liu%NULL%0,                      Zhiqian%Luo%NULL%0,                      Rixing%Wang%NULL%0,                      Ning%Zhou%NULL%0,                      Shijiao%Yan%NULL%0,                      Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                      Hong-Tao%Guo%NULL%1,                      Xue-Wei%Du%NULL%1,                      Wen%Song%NULL%1,                      Chang%Lu%NULL%1,                      Wen-Nv%Hao%NULL%1,                      Maria%Kapritsou.%NULL%3,                      Maria%Kapritsou.%NULL%0,                      Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                      Xiaobin%Zhu%NULL%1,                      Shuai%Fu%NULL%1,                      Yugang%Hu%NULL%1,                      Xiaoning%Li%NULL%1,                      Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                      Jing%Liu%NULL%0,                      Asghar%Afshar Jahanshahi%NULL%1,                      Khaled%Nawaser%NULL%1,                      Ali%Yousefi%NULL%1,                      Jizhen%Li%NULL%1,                      Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                      Kun%Wang%NULL%2,                      Lu%Yin%NULL%0,                      Wen-feng%Zhao%NULL%1,                      Qing%Xue%NULL%1,                      Mao%Peng%NULL%1,                      Bao-quan%Min%NULL%1,                      Qing%Tian%NULL%1,                      Hai-xia%Leng%NULL%1,                      Jia-lin%Du%NULL%1,                      Hong%Chang%NULL%1,                      Yuan%Yang%NULL%0,                      Wei%Li%NULL%2,                      Fang-fang%Shangguan%NULL%1,                      Tian-yi%Yan%NULL%1,                      Hui-qing%Dong%NULL%1,                      Ying%Han%NULL%1,                      Yu-ping%Wang%NULL%1,                      Fiammetta%Cosci%NULL%1,                      Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                      Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                      Lin%Sun%NULL%1,                      Lan%Zhang%NULL%1,                      Huan%Wang%NULL%1,                      Ajiao%Fan%NULL%1,                      Bin%Yang%NULL%1,                      Wei%Li%NULL%0,                      Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                      Lu%Dong%NULL%1,                      Tao%Wang%NULL%0,                      Chenxin%Yuan%NULL%1,                      Rao%Fu%NULL%1,                      Lei%Zhang%NULL%2,                      Bo%Liu%NULL%1,                      Mingmin%Zhang%NULL%1,                      Yuanyuan%Yin%NULL%1,                      Jiawen%Qin%NULL%1,                      Jennifer%Bouey%NULL%1,                      Min%Zhao%NULL%1,                      Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                      Ayşe%Kurtulmuş%NULL%1,                      Selim%Arpacıoğlu%NULL%1,                      Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                      Gunther%Eysenbach%NULL%1,                      Albert%Wu%NULL%2,                      Albert%Wu%NULL%0,                      Bojana%Knezevic%NULL%1,                      Bradley A%Evanoff%bevanoff@wustl.edu%2,                      Bradley A%Evanoff%bevanoff@wustl.edu%0,                      Jaime R%Strickland%NULL%2,                      Jaime R%Strickland%NULL%0,                      Ann Marie%Dale%NULL%2,                      Ann Marie%Dale%NULL%0,                      Lisa%Hayibor%NULL%2,                      Lisa%Hayibor%NULL%0,                      Emily%Page%NULL%2,                      Emily%Page%NULL%0,                      Jennifer G%Duncan%NULL%2,                      Jennifer G%Duncan%NULL%0,                      Thomas%Kannampallil%NULL%2,                      Thomas%Kannampallil%NULL%0,                      Diana L%Gray%NULL%2,                      Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                      Ranjan%Bhattacharyya%NULL%1,                      Sumita%Bhattacharyya%NULL%1,                      Sukanya%Gupta%NULL%1,                      Soumitra%Das%NULL%1,                      Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                      Xinghuang%Liu%NULL%2,                      Xinghuang%Liu%NULL%0,                      Dongke%Wang%NULL%2,                      Dongke%Wang%NULL%0,                      Yan%Jin%NULL%2,                      Yan%Jin%NULL%0,                      Miao%He%NULL%1,                      Yanling%Ma%NULL%1,                      Xiaolong%Zhao%NULL%1,                      Shuangning%Song%NULL%1,                      Lei%Zhang%NULL%0,                      Xuelian%Xiang%NULL%1,                      Ling%Yang%NULL%0,                      Jun%Song%song111jun@126.com%1,                      Tao%Bai%drbaitao@126.com%4,                      Xiaohua%Hou%houxh@hust.edu.cn%2,                      Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                      Hao%Zhou%haoye320@163.com%1,                      Yan%Zhou%NULL%1,                      Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawfiq%Choudhury%xref no email%0, Maciej%Debski%xref no email%1, Andrew%Wiper%xref no email%1, Amr%Abdelrahman%xref no email%1, Susan%Wild%xref no email%1, Shajil%Chalil%xref no email%1, Ranjit%More%xref no email%1, Grahame%Goode%xref no email%1, Billal%Patel%xref no email%1, Hesham K.%Abdelaziz%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                      Piyaporn%Apisarnthanarak%NULL%2,                      Piyaporn%Apisarnthanarak%NULL%0,                      Chanida%Siripraparat%NULL%2,                      Chanida%Siripraparat%NULL%0,                      Pavarat%Saengaram%NULL%1,                      Narakorn%Leeprechanon%NULL%1,                      David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                      Davide%Bianchi%NULL%1,                      Francesca%Santi%NULL%1,                      Luigi%Costantini%NULL%1,                      Anna%Odone%NULL%1,                      Carlo%Signorelli%NULL%0,                      Alessandra%Costanza%NULL%1,                      Gianluca%Serafini%NULL%1,                      Mario%Amore%NULL%1,                      Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                       Martín%Gagliardi%NULL%2,                       Martín%Gagliardi%NULL%0,                       Nicolas%Coombes%NULL%1,                       Federico%Landriel%NULL%2,                       Federico%Landriel%NULL%0,                       Carlos%Zanardi%NULL%1,                       Gastón Camino%Willhuber%NULL%1,                       Juan Pablo%Guyot%NULL%1,                       Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                       Nathaniel%Scherer%NULL%10,                       Lambert%Felix%NULL%20,                       Lambert%Felix%NULL%0,                       Hannah%Kuper%NULL%20,                       Hannah%Kuper%NULL%0,                       Jakob%Pietschnig%NULL%20,                       Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                       Nathaniel%Scherer%NULL%0,                       Lambert%Felix%NULL%0,                       Lambert%Felix%NULL%0,                       Hannah%Kuper%NULL%0,                       Hannah%Kuper%NULL%0,                       Jakob%Pietschnig%NULL%0,                       Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                       Koffi Mawuse%Guédénon%NULL%2,                       Koffi Mawuse%Guédénon%NULL%0,                       Ayoko Akouavi%Dogbe Foli%NULL%1,                       Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                       Simeng%Ma%NULL%0,                       Ying%Wang%NULL%0,                       Zhongxiang%Cai%NULL%0,                       Jianbo%Hu%NULL%0,                       Ning%Wei%NULL%0,                       Jiang%Wu%NULL%0,                       Hui%Du%NULL%0,                       Tingting%Chen%NULL%0,                       Ruiting%Li%NULL%0,                       Huawei%Tan%NULL%0,                       Lijun%Kang%NULL%0,                       Lihua%Yao%NULL%0,                       Manli%Huang%NULL%0,                       Huafen%Wang%NULL%0,                       Gaohua%Wang%NULL%0,                       Zhongchun%Liu%NULL%0,                       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                       Teresa%Arora%NULL%1,                       Ian%Grey%NULL%1,                       Lorna Kwai Ping%Suen%NULL%1,                       Emma Yun-zhi%Huang%NULL%1,                       Daofan%Li%NULL%1,                       Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                       Youlin%Chen%NULL%1,                       Jianlin%Lv%NULL%1,                       Linlin%Liu%NULL%1,                       Shiqin%Zong%NULL%1,                       Hanxia%Li%NULL%1,                       Hong%Li%NULL%1,                       Massimo%Tusconi.%NULL%2,                       Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                       Hang%Wang%NULL%1,                       Yuxing%Lin%NULL%1,                       Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                       Eman Zmaily%Dahmash%NULL%2,                       Eman Zmaily%Dahmash%NULL%0,                       Rabaa%Al‐Rousan%NULL%2,                       Rabaa%Al‐Rousan%NULL%0,                       Hassan%Alwafi%NULL%1,                       Hamzeh Mohammad%Alrawashdeh%NULL%1,                       Imene%Ghoul%NULL%1,                       Anwer%Abidine%NULL%1,                       Mohammed A.%Bokhary%NULL%1,                       Hadeel T.%AL‐Hadithi%NULL%1,                       Dalia%Ali%NULL%1,                       Rasha%Abuthawabeh%NULL%1,                       Ghada Mohammad%Abdelwahab%NULL%1,                       Yosra J.%Alhartani%NULL%1,                       Haneen%Al Muhaisen%NULL%1,                       Ayah%Dagash%NULL%1,                       Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                       Zahra%Bostani%NULL%1,                       Saman%Maroufizadeh%NULL%1,                       Atefeh%Ghanbari%NULL%1,                       Maryam%Khoshbakht%NULL%1,                       Seyed Amirhossein%Alavi%NULL%1,                       Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                       Le%Shi%NULL%2,                       Le%Shi%NULL%0,                       Jiahui%Deng%NULL%1,                       Jiajia%Liu%NULL%1,                       Li%Zhang%NULL%0,                       Suying%Wu%NULL%1,                       Yimiao%Gong%NULL%1,                       Weizhen%Huang%NULL%1,                       Kai%Yuan%NULL%1,                       Wei%Yan%NULL%1,                       Yankun%Sun%NULL%1,                       Maosheng%Ran%NULL%1,                       Yanping%Bao%NULL%1,                       Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                       Valentina%Socci%NULL%0,                       Francesca%Pacitti%NULL%0,                       Giorgio%Di Lorenzo%NULL%0,                       Antinisca%Di Marco%NULL%0,                       Alberto%Siracusano%NULL%0,                       Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                        M. H.% Raza%null%1,                        Z. U.% Mustafa%null%1,                        T. M.% Khan%null%1,                        N.% Asif%null%1,                        H.% Tahir%null%1,                        N.% Shehzadi%null%1,                        K. % Hussain%null%1,    M.%Salman%null%1,    M. H.% Raza%null%1,    Z. U.% Mustafa%null%1,    T. M.% Khan%null%1,    N.% Asif%null%1,    H.% Tahir%null%1,    N.% Shehzadi%null%1,    K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                       Franchesca%Diaz%NULL%1,                       Nathalie%Moise%NULL%1,                       D. Edmund%Anstey%NULL%1,                       Siqin%Ye%NULL%1,                       Sachin%Agarwal%NULL%1,                       Jeffrey L.%Birk%NULL%1,                       Daniel%Brodie%NULL%0,                       Diane E.%Cannone%NULL%1,                       Bernard%Chang%NULL%1,                       Jan%Claassen%NULL%2,                       Talea%Cornelius%NULL%1,                       Lilly%Derby%NULL%1,                       Melissa%Dong%NULL%1,                       Raymond C.%Givens%NULL%1,                       Beth%Hochman%NULL%1,                       Shunichi%Homma%NULL%1,                       Ian M.%Kronish%NULL%1,                       Sung A.J.%Lee%NULL%1,                       Wilhelmina%Manzano%NULL%1,                       Laurel E.S.%Mayer%NULL%1,                       Cara L.%McMurry%NULL%1,                       Vivek%Moitra%NULL%1,                       Patrick%Pham%NULL%1,                       LeRoy%Rabbani%NULL%1,                       Reynaldo R.%Rivera%NULL%1,                       Allan%Schwartz%NULL%2,                       Joseph E.%Schwartz%NULL%1,                       Peter A.%Shapiro%NULL%1,                       Kaitlin%Shaw%NULL%1,                       Alexandra M.%Sullivan%NULL%1,                       Courtney%Vose%NULL%1,                       Lauren%Wasson%NULL%1,                       Donald%Edmondson%NULL%1,                       Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                       Wenning%Fu%NULL%0,                       Xiaoran%Liu%NULL%0,                       Zhiqian%Luo%NULL%0,                       Rixing%Wang%NULL%0,                       Ning%Zhou%NULL%0,                       Shijiao%Yan%NULL%0,                       Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                       Hong-Tao%Guo%NULL%1,                       Xue-Wei%Du%NULL%1,                       Wen%Song%NULL%1,                       Chang%Lu%NULL%1,                       Wen-Nv%Hao%NULL%1,                       Maria%Kapritsou.%NULL%3,                       Maria%Kapritsou.%NULL%0,                       Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                       Xiaobin%Zhu%NULL%1,                       Shuai%Fu%NULL%1,                       Yugang%Hu%NULL%1,                       Xiaoning%Li%NULL%1,                       Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                       Jing%Liu%NULL%0,                       Asghar%Afshar Jahanshahi%NULL%1,                       Khaled%Nawaser%NULL%1,                       Ali%Yousefi%NULL%1,                       Jizhen%Li%NULL%1,                       Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                       Kun%Wang%NULL%2,                       Lu%Yin%NULL%0,                       Wen-feng%Zhao%NULL%1,                       Qing%Xue%NULL%1,                       Mao%Peng%NULL%1,                       Bao-quan%Min%NULL%1,                       Qing%Tian%NULL%1,                       Hai-xia%Leng%NULL%1,                       Jia-lin%Du%NULL%1,                       Hong%Chang%NULL%1,                       Yuan%Yang%NULL%0,                       Wei%Li%NULL%2,                       Fang-fang%Shangguan%NULL%1,                       Tian-yi%Yan%NULL%1,                       Hui-qing%Dong%NULL%1,                       Ying%Han%NULL%1,                       Yu-ping%Wang%NULL%1,                       Fiammetta%Cosci%NULL%1,                       Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                       Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                       Lin%Sun%NULL%1,                       Lan%Zhang%NULL%1,                       Huan%Wang%NULL%1,                       Ajiao%Fan%NULL%1,                       Bin%Yang%NULL%1,                       Wei%Li%NULL%0,                       Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                       Lu%Dong%NULL%1,                       Tao%Wang%NULL%0,                       Chenxin%Yuan%NULL%1,                       Rao%Fu%NULL%1,                       Lei%Zhang%NULL%2,                       Bo%Liu%NULL%1,                       Mingmin%Zhang%NULL%1,                       Yuanyuan%Yin%NULL%1,                       Jiawen%Qin%NULL%1,                       Jennifer%Bouey%NULL%1,                       Min%Zhao%NULL%1,                       Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                       Ayşe%Kurtulmuş%NULL%1,                       Selim%Arpacıoğlu%NULL%1,                       Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                       Gunther%Eysenbach%NULL%1,                       Albert%Wu%NULL%2,                       Albert%Wu%NULL%0,                       Bojana%Knezevic%NULL%1,                       Bradley A%Evanoff%bevanoff@wustl.edu%2,                       Bradley A%Evanoff%bevanoff@wustl.edu%0,                       Jaime R%Strickland%NULL%2,                       Jaime R%Strickland%NULL%0,                       Ann Marie%Dale%NULL%2,                       Ann Marie%Dale%NULL%0,                       Lisa%Hayibor%NULL%2,                       Lisa%Hayibor%NULL%0,                       Emily%Page%NULL%2,                       Emily%Page%NULL%0,                       Jennifer G%Duncan%NULL%2,                       Jennifer G%Duncan%NULL%0,                       Thomas%Kannampallil%NULL%2,                       Thomas%Kannampallil%NULL%0,                       Diana L%Gray%NULL%2,                       Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                       Ranjan%Bhattacharyya%NULL%1,                       Sumita%Bhattacharyya%NULL%1,                       Sukanya%Gupta%NULL%1,                       Soumitra%Das%NULL%1,                       Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                       Xinghuang%Liu%NULL%2,                       Xinghuang%Liu%NULL%0,                       Dongke%Wang%NULL%2,                       Dongke%Wang%NULL%0,                       Yan%Jin%NULL%2,                       Yan%Jin%NULL%0,                       Miao%He%NULL%1,                       Yanling%Ma%NULL%1,                       Xiaolong%Zhao%NULL%1,                       Shuangning%Song%NULL%1,                       Lei%Zhang%NULL%0,                       Xuelian%Xiang%NULL%1,                       Ling%Yang%NULL%0,                       Jun%Song%song111jun@126.com%1,                       Tao%Bai%drbaitao@126.com%4,                       Xiaohua%Hou%houxh@hust.edu.cn%2,                       Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                       Hao%Zhou%haoye320@163.com%1,                       Yan%Zhou%NULL%1,                       Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                       Piyaporn%Apisarnthanarak%NULL%2,                       Piyaporn%Apisarnthanarak%NULL%0,                       Chanida%Siripraparat%NULL%2,                       Chanida%Siripraparat%NULL%0,                       Pavarat%Saengaram%NULL%1,                       Narakorn%Leeprechanon%NULL%1,                       David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                       Davide%Bianchi%NULL%1,                       Francesca%Santi%NULL%1,                       Luigi%Costantini%NULL%1,                       Anna%Odone%NULL%1,                       Carlo%Signorelli%NULL%0,                       Alessandra%Costanza%NULL%1,                       Gianluca%Serafini%NULL%1,                       Mario%Amore%NULL%1,                       Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                        Martín%Gagliardi%NULL%2,                        Martín%Gagliardi%NULL%0,                        Nicolas%Coombes%NULL%1,                        Federico%Landriel%NULL%2,                        Federico%Landriel%NULL%0,                        Carlos%Zanardi%NULL%1,                        Gastón Camino%Willhuber%NULL%1,                        Juan Pablo%Guyot%NULL%1,                        Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                        Nathaniel%Scherer%NULL%10,                        Lambert%Felix%NULL%20,                        Lambert%Felix%NULL%0,                        Hannah%Kuper%NULL%20,                        Hannah%Kuper%NULL%0,                        Jakob%Pietschnig%NULL%20,                        Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                        Nathaniel%Scherer%NULL%0,                        Lambert%Felix%NULL%0,                        Lambert%Felix%NULL%0,                        Hannah%Kuper%NULL%0,                        Hannah%Kuper%NULL%0,                        Jakob%Pietschnig%NULL%0,                        Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                        Koffi Mawuse%Guédénon%NULL%2,                        Koffi Mawuse%Guédénon%NULL%0,                        Ayoko Akouavi%Dogbe Foli%NULL%1,                        Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                        Simeng%Ma%NULL%0,                        Ying%Wang%NULL%0,                        Zhongxiang%Cai%NULL%0,                        Jianbo%Hu%NULL%0,                        Ning%Wei%NULL%0,                        Jiang%Wu%NULL%0,                        Hui%Du%NULL%0,                        Tingting%Chen%NULL%0,                        Ruiting%Li%NULL%0,                        Huawei%Tan%NULL%0,                        Lijun%Kang%NULL%0,                        Lihua%Yao%NULL%0,                        Manli%Huang%NULL%0,                        Huafen%Wang%NULL%0,                        Gaohua%Wang%NULL%0,                        Zhongchun%Liu%NULL%0,                        Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                        Teresa%Arora%NULL%1,                        Ian%Grey%NULL%1,                        Lorna Kwai Ping%Suen%NULL%1,                        Emma Yun-zhi%Huang%NULL%1,                        Daofan%Li%NULL%1,                        Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                        Youlin%Chen%NULL%1,                        Jianlin%Lv%NULL%1,                        Linlin%Liu%NULL%1,                        Shiqin%Zong%NULL%1,                        Hanxia%Li%NULL%1,                        Hong%Li%NULL%1,                        Massimo%Tusconi.%NULL%2,                        Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                        Hang%Wang%NULL%1,                        Yuxing%Lin%NULL%1,                        Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                        Eman Zmaily%Dahmash%NULL%2,                        Eman Zmaily%Dahmash%NULL%0,                        Rabaa%Al‐Rousan%NULL%2,                        Rabaa%Al‐Rousan%NULL%0,                        Hassan%Alwafi%NULL%1,                        Hamzeh Mohammad%Alrawashdeh%NULL%1,                        Imene%Ghoul%NULL%1,                        Anwer%Abidine%NULL%1,                        Mohammed A.%Bokhary%NULL%1,                        Hadeel T.%AL‐Hadithi%NULL%1,                        Dalia%Ali%NULL%1,                        Rasha%Abuthawabeh%NULL%1,                        Ghada Mohammad%Abdelwahab%NULL%1,                        Yosra J.%Alhartani%NULL%1,                        Haneen%Al Muhaisen%NULL%1,                        Ayah%Dagash%NULL%1,                        Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                        Zahra%Bostani%NULL%1,                        Saman%Maroufizadeh%NULL%1,                        Atefeh%Ghanbari%NULL%1,                        Maryam%Khoshbakht%NULL%1,                        Seyed Amirhossein%Alavi%NULL%1,                        Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                        Le%Shi%NULL%2,                        Le%Shi%NULL%0,                        Jiahui%Deng%NULL%1,                        Jiajia%Liu%NULL%1,                        Li%Zhang%NULL%0,                        Suying%Wu%NULL%1,                        Yimiao%Gong%NULL%1,                        Weizhen%Huang%NULL%1,                        Kai%Yuan%NULL%1,                        Wei%Yan%NULL%1,                        Yankun%Sun%NULL%1,                        Maosheng%Ran%NULL%1,                        Yanping%Bao%NULL%1,                        Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                        Valentina%Socci%NULL%0,                        Francesca%Pacitti%NULL%0,                        Giorgio%Di Lorenzo%NULL%0,                        Antinisca%Di Marco%NULL%0,                        Alberto%Siracusano%NULL%0,                        Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                         M. H.% Raza%null%1,                         Z. U.% Mustafa%null%1,                         T. M.% Khan%null%1,                         N.% Asif%null%1,                         H.% Tahir%null%1,                         N.% Shehzadi%null%1,                         K. % Hussain%null%1,     M.%Salman%null%1,     M. H.% Raza%null%1,     Z. U.% Mustafa%null%1,     T. M.% Khan%null%1,     N.% Asif%null%1,     H.% Tahir%null%1,     N.% Shehzadi%null%1,     K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                        Franchesca%Diaz%NULL%1,                        Nathalie%Moise%NULL%1,                        D. Edmund%Anstey%NULL%1,                        Siqin%Ye%NULL%1,                        Sachin%Agarwal%NULL%1,                        Jeffrey L.%Birk%NULL%1,                        Daniel%Brodie%NULL%0,                        Diane E.%Cannone%NULL%1,                        Bernard%Chang%NULL%1,                        Jan%Claassen%NULL%2,                        Talea%Cornelius%NULL%1,                        Lilly%Derby%NULL%1,                        Melissa%Dong%NULL%1,                        Raymond C.%Givens%NULL%1,                        Beth%Hochman%NULL%1,                        Shunichi%Homma%NULL%1,                        Ian M.%Kronish%NULL%1,                        Sung A.J.%Lee%NULL%1,                        Wilhelmina%Manzano%NULL%1,                        Laurel E.S.%Mayer%NULL%1,                        Cara L.%McMurry%NULL%1,                        Vivek%Moitra%NULL%1,                        Patrick%Pham%NULL%1,                        LeRoy%Rabbani%NULL%1,                        Reynaldo R.%Rivera%NULL%1,                        Allan%Schwartz%NULL%2,                        Joseph E.%Schwartz%NULL%1,                        Peter A.%Shapiro%NULL%1,                        Kaitlin%Shaw%NULL%1,                        Alexandra M.%Sullivan%NULL%1,                        Courtney%Vose%NULL%1,                        Lauren%Wasson%NULL%1,                        Donald%Edmondson%NULL%1,                        Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                        Wenning%Fu%NULL%0,                        Xiaoran%Liu%NULL%0,                        Zhiqian%Luo%NULL%0,                        Rixing%Wang%NULL%0,                        Ning%Zhou%NULL%0,                        Shijiao%Yan%NULL%0,                        Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                        Hong-Tao%Guo%NULL%1,                        Xue-Wei%Du%NULL%1,                        Wen%Song%NULL%1,                        Chang%Lu%NULL%1,                        Wen-Nv%Hao%NULL%1,                        Maria%Kapritsou.%NULL%3,                        Maria%Kapritsou.%NULL%0,                        Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                        Xiaobin%Zhu%NULL%1,                        Shuai%Fu%NULL%1,                        Yugang%Hu%NULL%1,                        Xiaoning%Li%NULL%1,                        Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                        Jing%Liu%NULL%0,                        Asghar%Afshar Jahanshahi%NULL%1,                        Khaled%Nawaser%NULL%1,                        Ali%Yousefi%NULL%1,                        Jizhen%Li%NULL%1,                        Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                        Kun%Wang%NULL%2,                        Lu%Yin%NULL%0,                        Wen-feng%Zhao%NULL%1,                        Qing%Xue%NULL%1,                        Mao%Peng%NULL%1,                        Bao-quan%Min%NULL%1,                        Qing%Tian%NULL%1,                        Hai-xia%Leng%NULL%1,                        Jia-lin%Du%NULL%1,                        Hong%Chang%NULL%1,                        Yuan%Yang%NULL%0,                        Wei%Li%NULL%2,                        Fang-fang%Shangguan%NULL%1,                        Tian-yi%Yan%NULL%1,                        Hui-qing%Dong%NULL%1,                        Ying%Han%NULL%1,                        Yu-ping%Wang%NULL%1,                        Fiammetta%Cosci%NULL%1,                        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                        Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                        Lin%Sun%NULL%1,                        Lan%Zhang%NULL%1,                        Huan%Wang%NULL%1,                        Ajiao%Fan%NULL%1,                        Bin%Yang%NULL%1,                        Wei%Li%NULL%0,                        Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                        Lu%Dong%NULL%1,                        Tao%Wang%NULL%0,                        Chenxin%Yuan%NULL%1,                        Rao%Fu%NULL%1,                        Lei%Zhang%NULL%2,                        Bo%Liu%NULL%1,                        Mingmin%Zhang%NULL%1,                        Yuanyuan%Yin%NULL%1,                        Jiawen%Qin%NULL%1,                        Jennifer%Bouey%NULL%1,                        Min%Zhao%NULL%1,                        Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                        Ayşe%Kurtulmuş%NULL%1,                        Selim%Arpacıoğlu%NULL%1,                        Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                        Gunther%Eysenbach%NULL%1,                        Albert%Wu%NULL%2,                        Albert%Wu%NULL%0,                        Bojana%Knezevic%NULL%1,                        Bradley A%Evanoff%bevanoff@wustl.edu%2,                        Bradley A%Evanoff%bevanoff@wustl.edu%0,                        Jaime R%Strickland%NULL%2,                        Jaime R%Strickland%NULL%0,                        Ann Marie%Dale%NULL%2,                        Ann Marie%Dale%NULL%0,                        Lisa%Hayibor%NULL%2,                        Lisa%Hayibor%NULL%0,                        Emily%Page%NULL%2,                        Emily%Page%NULL%0,                        Jennifer G%Duncan%NULL%2,                        Jennifer G%Duncan%NULL%0,                        Thomas%Kannampallil%NULL%2,                        Thomas%Kannampallil%NULL%0,                        Diana L%Gray%NULL%2,                        Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                        Ranjan%Bhattacharyya%NULL%1,                        Sumita%Bhattacharyya%NULL%1,                        Sukanya%Gupta%NULL%1,                        Soumitra%Das%NULL%1,                        Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                        Xinghuang%Liu%NULL%2,                        Xinghuang%Liu%NULL%0,                        Dongke%Wang%NULL%2,                        Dongke%Wang%NULL%0,                        Yan%Jin%NULL%2,                        Yan%Jin%NULL%0,                        Miao%He%NULL%1,                        Yanling%Ma%NULL%1,                        Xiaolong%Zhao%NULL%1,                        Shuangning%Song%NULL%1,                        Lei%Zhang%NULL%0,                        Xuelian%Xiang%NULL%1,                        Ling%Yang%NULL%0,                        Jun%Song%song111jun@126.com%1,                        Tao%Bai%drbaitao@126.com%4,                        Xiaohua%Hou%houxh@hust.edu.cn%2,                        Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                        Hao%Zhou%haoye320@163.com%1,                        Yan%Zhou%NULL%1,                        Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                        Piyaporn%Apisarnthanarak%NULL%2,                        Piyaporn%Apisarnthanarak%NULL%0,                        Chanida%Siripraparat%NULL%2,                        Chanida%Siripraparat%NULL%0,                        Pavarat%Saengaram%NULL%1,                        Narakorn%Leeprechanon%NULL%1,                        David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                        Davide%Bianchi%NULL%1,                        Francesca%Santi%NULL%1,                        Luigi%Costantini%NULL%1,                        Anna%Odone%NULL%1,                        Carlo%Signorelli%NULL%0,                        Alessandra%Costanza%NULL%1,                        Gianluca%Serafini%NULL%1,                        Mario%Amore%NULL%1,                        Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                         Martín%Gagliardi%NULL%2,                         Martín%Gagliardi%NULL%0,                         Nicolas%Coombes%NULL%1,                         Federico%Landriel%NULL%2,                         Federico%Landriel%NULL%0,                         Carlos%Zanardi%NULL%1,                         Gastón Camino%Willhuber%NULL%1,                         Juan Pablo%Guyot%NULL%1,                         Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                         Nathaniel%Scherer%NULL%10,                         Lambert%Felix%NULL%20,                         Lambert%Felix%NULL%0,                         Hannah%Kuper%NULL%20,                         Hannah%Kuper%NULL%0,                         Jakob%Pietschnig%NULL%20,                         Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                         Nathaniel%Scherer%NULL%0,                         Lambert%Felix%NULL%0,                         Lambert%Felix%NULL%0,                         Hannah%Kuper%NULL%0,                         Hannah%Kuper%NULL%0,                         Jakob%Pietschnig%NULL%0,                         Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                         Koffi Mawuse%Guédénon%NULL%2,                         Koffi Mawuse%Guédénon%NULL%0,                         Ayoko Akouavi%Dogbe Foli%NULL%1,                         Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                         Simeng%Ma%NULL%0,                         Ying%Wang%NULL%0,                         Zhongxiang%Cai%NULL%0,                         Jianbo%Hu%NULL%0,                         Ning%Wei%NULL%0,                         Jiang%Wu%NULL%0,                         Hui%Du%NULL%0,                         Tingting%Chen%NULL%0,                         Ruiting%Li%NULL%0,                         Huawei%Tan%NULL%0,                         Lijun%Kang%NULL%0,                         Lihua%Yao%NULL%0,                         Manli%Huang%NULL%0,                         Huafen%Wang%NULL%0,                         Gaohua%Wang%NULL%0,                         Zhongchun%Liu%NULL%0,                         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                         Teresa%Arora%NULL%1,                         Ian%Grey%NULL%1,                         Lorna Kwai Ping%Suen%NULL%1,                         Emma Yun-zhi%Huang%NULL%1,                         Daofan%Li%NULL%1,                         Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                         Youlin%Chen%NULL%1,                         Jianlin%Lv%NULL%1,                         Linlin%Liu%NULL%1,                         Shiqin%Zong%NULL%1,                         Hanxia%Li%NULL%1,                         Hong%Li%NULL%1,                         Massimo%Tusconi.%NULL%2,                         Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                         Hang%Wang%NULL%1,                         Yuxing%Lin%NULL%1,                         Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                         Eman Zmaily%Dahmash%NULL%2,                         Eman Zmaily%Dahmash%NULL%0,                         Rabaa%Al‐Rousan%NULL%2,                         Rabaa%Al‐Rousan%NULL%0,                         Hassan%Alwafi%NULL%1,                         Hamzeh Mohammad%Alrawashdeh%NULL%1,                         Imene%Ghoul%NULL%1,                         Anwer%Abidine%NULL%1,                         Mohammed A.%Bokhary%NULL%1,                         Hadeel T.%AL‐Hadithi%NULL%1,                         Dalia%Ali%NULL%1,                         Rasha%Abuthawabeh%NULL%1,                         Ghada Mohammad%Abdelwahab%NULL%1,                         Yosra J.%Alhartani%NULL%1,                         Haneen%Al Muhaisen%NULL%1,                         Ayah%Dagash%NULL%1,                         Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                         Zahra%Bostani%NULL%1,                         Saman%Maroufizadeh%NULL%1,                         Atefeh%Ghanbari%NULL%1,                         Maryam%Khoshbakht%NULL%1,                         Seyed Amirhossein%Alavi%NULL%1,                         Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                         Le%Shi%NULL%2,                         Le%Shi%NULL%0,                         Jiahui%Deng%NULL%1,                         Jiajia%Liu%NULL%1,                         Li%Zhang%NULL%0,                         Suying%Wu%NULL%1,                         Yimiao%Gong%NULL%1,                         Weizhen%Huang%NULL%1,                         Kai%Yuan%NULL%1,                         Wei%Yan%NULL%1,                         Yankun%Sun%NULL%1,                         Maosheng%Ran%NULL%1,                         Yanping%Bao%NULL%1,                         Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                         Valentina%Socci%NULL%0,                         Francesca%Pacitti%NULL%0,                         Giorgio%Di Lorenzo%NULL%0,                         Antinisca%Di Marco%NULL%0,                         Alberto%Siracusano%NULL%0,                         Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                          M. H.% Raza%null%1,                          Z. U.% Mustafa%null%1,                          T. M.% Khan%null%1,                          N.% Asif%null%1,                          H.% Tahir%null%1,                          N.% Shehzadi%null%1,                          K. % Hussain%null%1,      M.%Salman%null%1,      M. H.% Raza%null%1,      Z. U.% Mustafa%null%1,      T. M.% Khan%null%1,      N.% Asif%null%1,      H.% Tahir%null%1,      N.% Shehzadi%null%1,      K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                         Franchesca%Diaz%NULL%1,                         Nathalie%Moise%NULL%1,                         D. Edmund%Anstey%NULL%1,                         Siqin%Ye%NULL%1,                         Sachin%Agarwal%NULL%1,                         Jeffrey L.%Birk%NULL%1,                         Daniel%Brodie%NULL%0,                         Diane E.%Cannone%NULL%1,                         Bernard%Chang%NULL%1,                         Jan%Claassen%NULL%2,                         Talea%Cornelius%NULL%1,                         Lilly%Derby%NULL%1,                         Melissa%Dong%NULL%1,                         Raymond C.%Givens%NULL%1,                         Beth%Hochman%NULL%1,                         Shunichi%Homma%NULL%1,                         Ian M.%Kronish%NULL%1,                         Sung A.J.%Lee%NULL%1,                         Wilhelmina%Manzano%NULL%1,                         Laurel E.S.%Mayer%NULL%1,                         Cara L.%McMurry%NULL%1,                         Vivek%Moitra%NULL%1,                         Patrick%Pham%NULL%1,                         LeRoy%Rabbani%NULL%1,                         Reynaldo R.%Rivera%NULL%1,                         Allan%Schwartz%NULL%2,                         Joseph E.%Schwartz%NULL%1,                         Peter A.%Shapiro%NULL%1,                         Kaitlin%Shaw%NULL%1,                         Alexandra M.%Sullivan%NULL%1,                         Courtney%Vose%NULL%1,                         Lauren%Wasson%NULL%1,                         Donald%Edmondson%NULL%1,                         Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                         Wenning%Fu%NULL%0,                         Xiaoran%Liu%NULL%0,                         Zhiqian%Luo%NULL%0,                         Rixing%Wang%NULL%0,                         Ning%Zhou%NULL%0,                         Shijiao%Yan%NULL%0,                         Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                         Hong-Tao%Guo%NULL%1,                         Xue-Wei%Du%NULL%1,                         Wen%Song%NULL%1,                         Chang%Lu%NULL%1,                         Wen-Nv%Hao%NULL%1,                         Maria%Kapritsou.%NULL%3,                         Maria%Kapritsou.%NULL%0,                         Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                         Xiaobin%Zhu%NULL%1,                         Shuai%Fu%NULL%1,                         Yugang%Hu%NULL%1,                         Xiaoning%Li%NULL%1,                         Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                         Jing%Liu%NULL%0,                         Asghar%Afshar Jahanshahi%NULL%1,                         Khaled%Nawaser%NULL%1,                         Ali%Yousefi%NULL%1,                         Jizhen%Li%NULL%1,                         Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                         Kun%Wang%NULL%2,                         Lu%Yin%NULL%0,                         Wen-feng%Zhao%NULL%1,                         Qing%Xue%NULL%1,                         Mao%Peng%NULL%1,                         Bao-quan%Min%NULL%1,                         Qing%Tian%NULL%1,                         Hai-xia%Leng%NULL%1,                         Jia-lin%Du%NULL%1,                         Hong%Chang%NULL%1,                         Yuan%Yang%NULL%0,                         Wei%Li%NULL%2,                         Fang-fang%Shangguan%NULL%1,                         Tian-yi%Yan%NULL%1,                         Hui-qing%Dong%NULL%1,                         Ying%Han%NULL%1,                         Yu-ping%Wang%NULL%1,                         Fiammetta%Cosci%NULL%1,                         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                         Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                         Lin%Sun%NULL%1,                         Lan%Zhang%NULL%1,                         Huan%Wang%NULL%1,                         Ajiao%Fan%NULL%1,                         Bin%Yang%NULL%1,                         Wei%Li%NULL%0,                         Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                         Lu%Dong%NULL%1,                         Tao%Wang%NULL%0,                         Chenxin%Yuan%NULL%1,                         Rao%Fu%NULL%1,                         Lei%Zhang%NULL%2,                         Bo%Liu%NULL%1,                         Mingmin%Zhang%NULL%1,                         Yuanyuan%Yin%NULL%1,                         Jiawen%Qin%NULL%1,                         Jennifer%Bouey%NULL%1,                         Min%Zhao%NULL%1,                         Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                         Ayşe%Kurtulmuş%NULL%1,                         Selim%Arpacıoğlu%NULL%1,                         Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                         Gunther%Eysenbach%NULL%1,                         Albert%Wu%NULL%2,                         Albert%Wu%NULL%0,                         Bojana%Knezevic%NULL%1,                         Bradley A%Evanoff%bevanoff@wustl.edu%2,                         Bradley A%Evanoff%bevanoff@wustl.edu%0,                         Jaime R%Strickland%NULL%2,                         Jaime R%Strickland%NULL%0,                         Ann Marie%Dale%NULL%2,                         Ann Marie%Dale%NULL%0,                         Lisa%Hayibor%NULL%2,                         Lisa%Hayibor%NULL%0,                         Emily%Page%NULL%2,                         Emily%Page%NULL%0,                         Jennifer G%Duncan%NULL%2,                         Jennifer G%Duncan%NULL%0,                         Thomas%Kannampallil%NULL%2,                         Thomas%Kannampallil%NULL%0,                         Diana L%Gray%NULL%2,                         Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                         Ranjan%Bhattacharyya%NULL%1,                         Sumita%Bhattacharyya%NULL%1,                         Sukanya%Gupta%NULL%1,                         Soumitra%Das%NULL%1,                         Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                         Xinghuang%Liu%NULL%2,                         Xinghuang%Liu%NULL%0,                         Dongke%Wang%NULL%2,                         Dongke%Wang%NULL%0,                         Yan%Jin%NULL%2,                         Yan%Jin%NULL%0,                         Miao%He%NULL%1,                         Yanling%Ma%NULL%1,                         Xiaolong%Zhao%NULL%1,                         Shuangning%Song%NULL%1,                         Lei%Zhang%NULL%0,                         Xuelian%Xiang%NULL%1,                         Ling%Yang%NULL%0,                         Jun%Song%song111jun@126.com%1,                         Tao%Bai%drbaitao@126.com%4,                         Xiaohua%Hou%houxh@hust.edu.cn%2,                         Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                         Hao%Zhou%haoye320@163.com%1,                         Yan%Zhou%NULL%1,                         Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                         Piyaporn%Apisarnthanarak%NULL%2,                         Piyaporn%Apisarnthanarak%NULL%0,                         Chanida%Siripraparat%NULL%2,                         Chanida%Siripraparat%NULL%0,                         Pavarat%Saengaram%NULL%1,                         Narakorn%Leeprechanon%NULL%1,                         David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                         Davide%Bianchi%NULL%1,                         Francesca%Santi%NULL%1,                         Luigi%Costantini%NULL%1,                         Anna%Odone%NULL%1,                         Carlo%Signorelli%NULL%0,                         Alessandra%Costanza%NULL%1,                         Gianluca%Serafini%NULL%1,                         Mario%Amore%NULL%1,                         Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                          Martín%Gagliardi%NULL%2,                          Martín%Gagliardi%NULL%0,                          Nicolas%Coombes%NULL%1,                          Federico%Landriel%NULL%2,                          Federico%Landriel%NULL%0,                          Carlos%Zanardi%NULL%1,                          Gastón Camino%Willhuber%NULL%1,                          Juan Pablo%Guyot%NULL%1,                          Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                          Nathaniel%Scherer%NULL%10,                          Lambert%Felix%NULL%20,                          Lambert%Felix%NULL%0,                          Hannah%Kuper%NULL%20,                          Hannah%Kuper%NULL%0,                          Jakob%Pietschnig%NULL%20,                          Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                          Nathaniel%Scherer%NULL%0,                          Lambert%Felix%NULL%0,                          Lambert%Felix%NULL%0,                          Hannah%Kuper%NULL%0,                          Hannah%Kuper%NULL%0,                          Jakob%Pietschnig%NULL%0,                          Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                          Koffi Mawuse%Guédénon%NULL%2,                          Koffi Mawuse%Guédénon%NULL%0,                          Ayoko Akouavi%Dogbe Foli%NULL%1,                          Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                          Simeng%Ma%NULL%0,                          Ying%Wang%NULL%0,                          Zhongxiang%Cai%NULL%0,                          Jianbo%Hu%NULL%0,                          Ning%Wei%NULL%0,                          Jiang%Wu%NULL%0,                          Hui%Du%NULL%0,                          Tingting%Chen%NULL%0,                          Ruiting%Li%NULL%0,                          Huawei%Tan%NULL%0,                          Lijun%Kang%NULL%0,                          Lihua%Yao%NULL%0,                          Manli%Huang%NULL%0,                          Huafen%Wang%NULL%0,                          Gaohua%Wang%NULL%0,                          Zhongchun%Liu%NULL%0,                          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                          Teresa%Arora%NULL%1,                          Ian%Grey%NULL%1,                          Lorna Kwai Ping%Suen%NULL%1,                          Emma Yun-zhi%Huang%NULL%1,                          Daofan%Li%NULL%1,                          Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                          Youlin%Chen%NULL%1,                          Jianlin%Lv%NULL%1,                          Linlin%Liu%NULL%1,                          Shiqin%Zong%NULL%1,                          Hanxia%Li%NULL%1,                          Hong%Li%NULL%1,                          Massimo%Tusconi.%NULL%2,                          Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                          Hang%Wang%NULL%1,                          Yuxing%Lin%NULL%1,                          Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                          Eman Zmaily%Dahmash%NULL%2,                          Eman Zmaily%Dahmash%NULL%0,                          Rabaa%Al‐Rousan%NULL%2,                          Rabaa%Al‐Rousan%NULL%0,                          Hassan%Alwafi%NULL%1,                          Hamzeh Mohammad%Alrawashdeh%NULL%1,                          Imene%Ghoul%NULL%1,                          Anwer%Abidine%NULL%1,                          Mohammed A.%Bokhary%NULL%1,                          Hadeel T.%AL‐Hadithi%NULL%1,                          Dalia%Ali%NULL%1,                          Rasha%Abuthawabeh%NULL%1,                          Ghada Mohammad%Abdelwahab%NULL%1,                          Yosra J.%Alhartani%NULL%1,                          Haneen%Al Muhaisen%NULL%1,                          Ayah%Dagash%NULL%1,                          Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                          Zahra%Bostani%NULL%1,                          Saman%Maroufizadeh%NULL%1,                          Atefeh%Ghanbari%NULL%1,                          Maryam%Khoshbakht%NULL%1,                          Seyed Amirhossein%Alavi%NULL%1,                          Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                          Le%Shi%NULL%2,                          Le%Shi%NULL%0,                          Jiahui%Deng%NULL%1,                          Jiajia%Liu%NULL%1,                          Li%Zhang%NULL%0,                          Suying%Wu%NULL%1,                          Yimiao%Gong%NULL%1,                          Weizhen%Huang%NULL%1,                          Kai%Yuan%NULL%1,                          Wei%Yan%NULL%1,                          Yankun%Sun%NULL%1,                          Maosheng%Ran%NULL%1,                          Yanping%Bao%NULL%1,                          Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                          Valentina%Socci%NULL%0,                          Francesca%Pacitti%NULL%0,                          Giorgio%Di Lorenzo%NULL%0,                          Antinisca%Di Marco%NULL%0,                          Alberto%Siracusano%NULL%0,                          Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                           M. H.% Raza%null%1,                           Z. U.% Mustafa%null%1,                           T. M.% Khan%null%1,                           N.% Asif%null%1,                           H.% Tahir%null%1,                           N.% Shehzadi%null%1,                           K. % Hussain%null%1,       M.%Salman%null%1,       M. H.% Raza%null%1,       Z. U.% Mustafa%null%1,       T. M.% Khan%null%1,       N.% Asif%null%1,       H.% Tahir%null%1,       N.% Shehzadi%null%1,       K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                          Franchesca%Diaz%NULL%1,                          Nathalie%Moise%NULL%1,                          D. Edmund%Anstey%NULL%1,                          Siqin%Ye%NULL%1,                          Sachin%Agarwal%NULL%1,                          Jeffrey L.%Birk%NULL%1,                          Daniel%Brodie%NULL%0,                          Diane E.%Cannone%NULL%1,                          Bernard%Chang%NULL%1,                          Jan%Claassen%NULL%2,                          Talea%Cornelius%NULL%1,                          Lilly%Derby%NULL%1,                          Melissa%Dong%NULL%1,                          Raymond C.%Givens%NULL%1,                          Beth%Hochman%NULL%1,                          Shunichi%Homma%NULL%1,                          Ian M.%Kronish%NULL%1,                          Sung A.J.%Lee%NULL%1,                          Wilhelmina%Manzano%NULL%1,                          Laurel E.S.%Mayer%NULL%1,                          Cara L.%McMurry%NULL%1,                          Vivek%Moitra%NULL%1,                          Patrick%Pham%NULL%1,                          LeRoy%Rabbani%NULL%1,                          Reynaldo R.%Rivera%NULL%1,                          Allan%Schwartz%NULL%2,                          Joseph E.%Schwartz%NULL%1,                          Peter A.%Shapiro%NULL%1,                          Kaitlin%Shaw%NULL%1,                          Alexandra M.%Sullivan%NULL%1,                          Courtney%Vose%NULL%1,                          Lauren%Wasson%NULL%1,                          Donald%Edmondson%NULL%1,                          Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                          Wenning%Fu%NULL%0,                          Xiaoran%Liu%NULL%0,                          Zhiqian%Luo%NULL%0,                          Rixing%Wang%NULL%0,                          Ning%Zhou%NULL%0,                          Shijiao%Yan%NULL%0,                          Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                          Hong-Tao%Guo%NULL%1,                          Xue-Wei%Du%NULL%1,                          Wen%Song%NULL%1,                          Chang%Lu%NULL%1,                          Wen-Nv%Hao%NULL%1,                          Maria%Kapritsou.%NULL%3,                          Maria%Kapritsou.%NULL%0,                          Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                          Xiaobin%Zhu%NULL%1,                          Shuai%Fu%NULL%1,                          Yugang%Hu%NULL%1,                          Xiaoning%Li%NULL%1,                          Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                          Jing%Liu%NULL%0,                          Asghar%Afshar Jahanshahi%NULL%1,                          Khaled%Nawaser%NULL%1,                          Ali%Yousefi%NULL%1,                          Jizhen%Li%NULL%1,                          Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                          Kun%Wang%NULL%2,                          Lu%Yin%NULL%0,                          Wen-feng%Zhao%NULL%1,                          Qing%Xue%NULL%1,                          Mao%Peng%NULL%1,                          Bao-quan%Min%NULL%1,                          Qing%Tian%NULL%1,                          Hai-xia%Leng%NULL%1,                          Jia-lin%Du%NULL%1,                          Hong%Chang%NULL%1,                          Yuan%Yang%NULL%0,                          Wei%Li%NULL%2,                          Fang-fang%Shangguan%NULL%1,                          Tian-yi%Yan%NULL%1,                          Hui-qing%Dong%NULL%1,                          Ying%Han%NULL%1,                          Yu-ping%Wang%NULL%1,                          Fiammetta%Cosci%NULL%1,                          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                          Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                          Lin%Sun%NULL%1,                          Lan%Zhang%NULL%1,                          Huan%Wang%NULL%1,                          Ajiao%Fan%NULL%1,                          Bin%Yang%NULL%1,                          Wei%Li%NULL%0,                          Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                          Lu%Dong%NULL%1,                          Tao%Wang%NULL%0,                          Chenxin%Yuan%NULL%1,                          Rao%Fu%NULL%1,                          Lei%Zhang%NULL%2,                          Bo%Liu%NULL%1,                          Mingmin%Zhang%NULL%1,                          Yuanyuan%Yin%NULL%1,                          Jiawen%Qin%NULL%1,                          Jennifer%Bouey%NULL%1,                          Min%Zhao%NULL%1,                          Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                          Ayşe%Kurtulmuş%NULL%1,                          Selim%Arpacıoğlu%NULL%1,                          Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                          Gunther%Eysenbach%NULL%1,                          Albert%Wu%NULL%2,                          Albert%Wu%NULL%0,                          Bojana%Knezevic%NULL%1,                          Bradley A%Evanoff%bevanoff@wustl.edu%2,                          Bradley A%Evanoff%bevanoff@wustl.edu%0,                          Jaime R%Strickland%NULL%2,                          Jaime R%Strickland%NULL%0,                          Ann Marie%Dale%NULL%2,                          Ann Marie%Dale%NULL%0,                          Lisa%Hayibor%NULL%2,                          Lisa%Hayibor%NULL%0,                          Emily%Page%NULL%2,                          Emily%Page%NULL%0,                          Jennifer G%Duncan%NULL%2,                          Jennifer G%Duncan%NULL%0,                          Thomas%Kannampallil%NULL%2,                          Thomas%Kannampallil%NULL%0,                          Diana L%Gray%NULL%2,                          Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                          Ranjan%Bhattacharyya%NULL%1,                          Sumita%Bhattacharyya%NULL%1,                          Sukanya%Gupta%NULL%1,                          Soumitra%Das%NULL%1,                          Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                          Xinghuang%Liu%NULL%2,                          Xinghuang%Liu%NULL%0,                          Dongke%Wang%NULL%2,                          Dongke%Wang%NULL%0,                          Yan%Jin%NULL%2,                          Yan%Jin%NULL%0,                          Miao%He%NULL%1,                          Yanling%Ma%NULL%1,                          Xiaolong%Zhao%NULL%1,                          Shuangning%Song%NULL%1,                          Lei%Zhang%NULL%0,                          Xuelian%Xiang%NULL%1,                          Ling%Yang%NULL%0,                          Jun%Song%song111jun@126.com%1,                          Tao%Bai%drbaitao@126.com%4,                          Xiaohua%Hou%houxh@hust.edu.cn%2,                          Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                          Hao%Zhou%haoye320@163.com%1,                          Yan%Zhou%NULL%1,                          Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                          Piyaporn%Apisarnthanarak%NULL%2,                          Piyaporn%Apisarnthanarak%NULL%0,                          Chanida%Siripraparat%NULL%2,                          Chanida%Siripraparat%NULL%0,                          Pavarat%Saengaram%NULL%1,                          Narakorn%Leeprechanon%NULL%1,                          David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                          Davide%Bianchi%NULL%1,                          Francesca%Santi%NULL%1,                          Luigi%Costantini%NULL%1,                          Anna%Odone%NULL%1,                          Carlo%Signorelli%NULL%0,                          Alessandra%Costanza%NULL%1,                          Gianluca%Serafini%NULL%1,                          Mario%Amore%NULL%1,                          Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3016,6 +3460,9 @@
       <c r="I1" t="s">
         <v>274</v>
       </c>
+      <c r="J1" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3031,7 +3478,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>765</v>
+        <v>914</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3044,6 +3491,9 @@
       </c>
       <c r="I2" t="s">
         <v>731</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -3060,7 +3510,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>766</v>
+        <v>915</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3073,6 +3523,9 @@
       </c>
       <c r="I3" t="s">
         <v>731</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -3103,6 +3556,9 @@
       <c r="I4" t="s">
         <v>63</v>
       </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -3118,7 +3574,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3131,6 +3587,9 @@
       </c>
       <c r="I5" t="s">
         <v>731</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -3147,7 +3606,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>768</v>
+        <v>917</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3160,6 +3619,9 @@
       </c>
       <c r="I6" t="s">
         <v>731</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -3176,7 +3638,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>769</v>
+        <v>918</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -3189,6 +3651,9 @@
       </c>
       <c r="I7" t="s">
         <v>731</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -3205,7 +3670,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>919</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -3218,6 +3683,9 @@
       </c>
       <c r="I8" t="s">
         <v>731</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -3234,7 +3702,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -3247,6 +3715,9 @@
       </c>
       <c r="I9" t="s">
         <v>731</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -3263,7 +3734,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>771</v>
+        <v>920</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3276,6 +3747,9 @@
       </c>
       <c r="I10" t="s">
         <v>731</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3292,7 +3766,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3305,6 +3779,9 @@
       </c>
       <c r="I11" t="s">
         <v>731</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -3321,7 +3798,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>772</v>
+        <v>921</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3334,6 +3811,9 @@
       </c>
       <c r="I12" t="s">
         <v>739</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -3350,7 +3830,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>773</v>
+        <v>922</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -3363,6 +3843,9 @@
       </c>
       <c r="I13" t="s">
         <v>731</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3379,7 +3862,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>774</v>
+        <v>923</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3392,6 +3875,9 @@
       </c>
       <c r="I14" t="s">
         <v>739</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -3422,6 +3908,9 @@
       <c r="I15" t="s">
         <v>63</v>
       </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -3437,7 +3926,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>775</v>
+        <v>924</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3450,6 +3939,9 @@
       </c>
       <c r="I16" t="s">
         <v>731</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3466,7 +3958,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>776</v>
+        <v>925</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3479,6 +3971,9 @@
       </c>
       <c r="I17" t="s">
         <v>731</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -3495,7 +3990,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>777</v>
+        <v>926</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -3508,6 +4003,9 @@
       </c>
       <c r="I18" t="s">
         <v>745</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -3524,7 +4022,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>778</v>
+        <v>927</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3537,6 +4035,9 @@
       </c>
       <c r="I19" t="s">
         <v>739</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -3553,7 +4054,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>779</v>
+        <v>928</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -3566,6 +4067,9 @@
       </c>
       <c r="I20" t="s">
         <v>739</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -3582,7 +4086,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -3595,6 +4099,9 @@
       </c>
       <c r="I21" t="s">
         <v>731</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -3611,7 +4118,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -3624,6 +4131,9 @@
       </c>
       <c r="I22" t="s">
         <v>731</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -3640,7 +4150,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -3653,6 +4163,9 @@
       </c>
       <c r="I23" t="s">
         <v>731</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -3669,7 +4182,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>780</v>
+        <v>929</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -3682,6 +4195,9 @@
       </c>
       <c r="I24" t="s">
         <v>731</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -3698,7 +4214,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -3711,6 +4227,9 @@
       </c>
       <c r="I25" t="s">
         <v>731</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -3727,7 +4246,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>781</v>
+        <v>930</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -3740,6 +4259,9 @@
       </c>
       <c r="I26" t="s">
         <v>739</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -3756,7 +4278,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>782</v>
+        <v>931</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -3769,6 +4291,9 @@
       </c>
       <c r="I27" t="s">
         <v>739</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -3785,7 +4310,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>783</v>
+        <v>932</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -3798,6 +4323,9 @@
       </c>
       <c r="I28" t="s">
         <v>731</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -3814,7 +4342,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>784</v>
+        <v>933</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3827,6 +4355,9 @@
       </c>
       <c r="I29" t="s">
         <v>739</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -3843,7 +4374,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>785</v>
+        <v>934</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -3856,6 +4387,9 @@
       </c>
       <c r="I30" t="s">
         <v>731</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -3872,7 +4406,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>786</v>
+        <v>935</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3885,6 +4419,9 @@
       </c>
       <c r="I31" t="s">
         <v>739</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -3901,7 +4438,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>787</v>
+        <v>936</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -3914,6 +4451,9 @@
       </c>
       <c r="I32" t="s">
         <v>739</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -3930,7 +4470,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>788</v>
+        <v>937</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -3943,6 +4483,9 @@
       </c>
       <c r="I33" t="s">
         <v>731</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -3959,7 +4502,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3972,6 +4515,9 @@
       </c>
       <c r="I34" t="s">
         <v>731</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -3988,7 +4534,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>789</v>
+        <v>938</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -4001,6 +4547,9 @@
       </c>
       <c r="I35" t="s">
         <v>731</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -4017,7 +4566,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>790</v>
+        <v>939</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -4030,6 +4579,9 @@
       </c>
       <c r="I36" t="s">
         <v>759</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -4046,7 +4598,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>791</v>
+        <v>940</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -4059,6 +4611,9 @@
       </c>
       <c r="I37" t="s">
         <v>739</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -4075,7 +4630,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>792</v>
+        <v>546</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -4087,7 +4642,10 @@
         <v>425</v>
       </c>
       <c r="I38" t="s">
-        <v>762</v>
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="39">
@@ -4104,7 +4662,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>793</v>
+        <v>941</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -4117,6 +4675,9 @@
       </c>
       <c r="I39" t="s">
         <v>731</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -4133,7 +4694,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>794</v>
+        <v>942</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -4146,6 +4707,9 @@
       </c>
       <c r="I40" t="s">
         <v>276</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -4162,7 +4726,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>767</v>
+        <v>916</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -4175,6 +4739,9 @@
       </c>
       <c r="I41" t="s">
         <v>731</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/69.xlsx
+++ b/Covid_19_Dataset_and_References/References/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="1008">
   <si>
     <t>Doi</t>
   </si>
@@ -3128,6 +3128,213 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                          Davide%Bianchi%NULL%1,                          Francesca%Santi%NULL%1,                          Luigi%Costantini%NULL%1,                          Anna%Odone%NULL%1,                          Carlo%Signorelli%NULL%0,                          Alessandra%Costanza%NULL%1,                          Gianluca%Serafini%NULL%1,                          Mario%Amore%NULL%1,                          Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                           Martín%Gagliardi%NULL%2,                           Martín%Gagliardi%NULL%0,                           Nicolas%Coombes%NULL%1,                           Federico%Landriel%NULL%2,                           Federico%Landriel%NULL%0,                           Carlos%Zanardi%NULL%1,                           Gastón Camino%Willhuber%NULL%1,                           Juan Pablo%Guyot%NULL%1,                           Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                           Nathaniel%Scherer%NULL%10,                           Lambert%Felix%NULL%20,                           Lambert%Felix%NULL%0,                           Hannah%Kuper%NULL%20,                           Hannah%Kuper%NULL%0,                           Jakob%Pietschnig%NULL%20,                           Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mental health survey of 230 medical staff in a tertiary infectious disease hospital for COVID-19].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention. Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS). From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%. Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89). Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively. The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012]. The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001]. The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88). The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014]. Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff. Medical institutions should strengthen the training of psychological skills of medical staff. Special attention should be paid to the mental health of female nurses.</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,  M F% Han%elasticNoEmail%0,  T D% Luo%elasticNoEmail%0,  A K% Ren%elasticNoEmail%0,  X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                           Nathaniel%Scherer%NULL%0,                           Lambert%Felix%NULL%0,                           Lambert%Felix%NULL%0,                           Hannah%Kuper%NULL%0,                           Hannah%Kuper%NULL%0,                           Jakob%Pietschnig%NULL%0,                           Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                           Koffi Mawuse%Guédénon%NULL%2,                           Koffi Mawuse%Guédénon%NULL%0,                           Ayoko Akouavi%Dogbe Foli%NULL%1,                           Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                           Simeng%Ma%NULL%0,                           Ying%Wang%NULL%0,                           Zhongxiang%Cai%NULL%0,                           Jianbo%Hu%NULL%0,                           Ning%Wei%NULL%0,                           Jiang%Wu%NULL%0,                           Hui%Du%NULL%0,                           Tingting%Chen%NULL%0,                           Ruiting%Li%NULL%0,                           Huawei%Tan%NULL%0,                           Lijun%Kang%NULL%0,                           Lihua%Yao%NULL%0,                           Manli%Huang%NULL%0,                           Huafen%Wang%NULL%0,                           Gaohua%Wang%NULL%0,                           Zhongchun%Liu%NULL%0,                           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                           Teresa%Arora%NULL%1,                           Ian%Grey%NULL%1,                           Lorna Kwai Ping%Suen%NULL%1,                           Emma Yun-zhi%Huang%NULL%1,                           Daofan%Li%NULL%1,                           Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                           Youlin%Chen%NULL%1,                           Jianlin%Lv%NULL%1,                           Linlin%Liu%NULL%1,                           Shiqin%Zong%NULL%1,                           Hanxia%Li%NULL%1,                           Hong%Li%NULL%1,                           Massimo%Tusconi.%NULL%2,                           Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                           Hang%Wang%NULL%1,                           Yuxing%Lin%NULL%1,                           Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                           Eman Zmaily%Dahmash%NULL%2,                           Eman Zmaily%Dahmash%NULL%0,                           Rabaa%Al‐Rousan%NULL%2,                           Rabaa%Al‐Rousan%NULL%0,                           Hassan%Alwafi%NULL%1,                           Hamzeh Mohammad%Alrawashdeh%NULL%1,                           Imene%Ghoul%NULL%1,                           Anwer%Abidine%NULL%1,                           Mohammed A.%Bokhary%NULL%1,                           Hadeel T.%AL‐Hadithi%NULL%1,                           Dalia%Ali%NULL%1,                           Rasha%Abuthawabeh%NULL%1,                           Ghada Mohammad%Abdelwahab%NULL%1,                           Yosra J.%Alhartani%NULL%1,                           Haneen%Al Muhaisen%NULL%1,                           Ayah%Dagash%NULL%1,                           Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                           Zahra%Bostani%NULL%1,                           Saman%Maroufizadeh%NULL%1,                           Atefeh%Ghanbari%NULL%1,                           Maryam%Khoshbakht%NULL%1,                           Seyed Amirhossein%Alavi%NULL%1,                           Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                           Le%Shi%NULL%2,                           Le%Shi%NULL%0,                           Jiahui%Deng%NULL%1,                           Jiajia%Liu%NULL%1,                           Li%Zhang%NULL%0,                           Suying%Wu%NULL%1,                           Yimiao%Gong%NULL%1,                           Weizhen%Huang%NULL%1,                           Kai%Yuan%NULL%1,                           Wei%Yan%NULL%1,                           Yankun%Sun%NULL%1,                           Maosheng%Ran%NULL%1,                           Yanping%Bao%NULL%1,                           Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                           Valentina%Socci%NULL%0,                           Francesca%Pacitti%NULL%0,                           Giorgio%Di Lorenzo%NULL%0,                           Antinisca%Di Marco%NULL%0,                           Alberto%Siracusano%NULL%0,                           Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                            M. H.% Raza%null%1,                            Z. U.% Mustafa%null%1,                            T. M.% Khan%null%1,                            N.% Asif%null%1,                            H.% Tahir%null%1,                            N.% Shehzadi%null%1,                            K. % Hussain%null%1,        M.%Salman%null%1,        M. H.% Raza%null%1,        Z. U.% Mustafa%null%1,        T. M.% Khan%null%1,        N.% Asif%null%1,        H.% Tahir%null%1,        N.% Shehzadi%null%1,        K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                           Franchesca%Diaz%NULL%1,                           Nathalie%Moise%NULL%1,                           D. Edmund%Anstey%NULL%1,                           Siqin%Ye%NULL%1,                           Sachin%Agarwal%NULL%1,                           Jeffrey L.%Birk%NULL%1,                           Daniel%Brodie%NULL%0,                           Diane E.%Cannone%NULL%1,                           Bernard%Chang%NULL%1,                           Jan%Claassen%NULL%2,                           Talea%Cornelius%NULL%1,                           Lilly%Derby%NULL%1,                           Melissa%Dong%NULL%1,                           Raymond C.%Givens%NULL%1,                           Beth%Hochman%NULL%1,                           Shunichi%Homma%NULL%1,                           Ian M.%Kronish%NULL%1,                           Sung A.J.%Lee%NULL%1,                           Wilhelmina%Manzano%NULL%1,                           Laurel E.S.%Mayer%NULL%1,                           Cara L.%McMurry%NULL%1,                           Vivek%Moitra%NULL%1,                           Patrick%Pham%NULL%1,                           LeRoy%Rabbani%NULL%1,                           Reynaldo R.%Rivera%NULL%1,                           Allan%Schwartz%NULL%2,                           Joseph E.%Schwartz%NULL%1,                           Peter A.%Shapiro%NULL%1,                           Kaitlin%Shaw%NULL%1,                           Alexandra M.%Sullivan%NULL%1,                           Courtney%Vose%NULL%1,                           Lauren%Wasson%NULL%1,                           Donald%Edmondson%NULL%1,                           Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                           Wenning%Fu%NULL%0,                           Xiaoran%Liu%NULL%0,                           Zhiqian%Luo%NULL%0,                           Rixing%Wang%NULL%0,                           Ning%Zhou%NULL%0,                           Shijiao%Yan%NULL%0,                           Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                           Hong-Tao%Guo%NULL%1,                           Xue-Wei%Du%NULL%1,                           Wen%Song%NULL%1,                           Chang%Lu%NULL%1,                           Wen-Nv%Hao%NULL%1,                           Maria%Kapritsou.%NULL%3,                           Maria%Kapritsou.%NULL%0,                           Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                           Xiaobin%Zhu%NULL%1,                           Shuai%Fu%NULL%1,                           Yugang%Hu%NULL%1,                           Xiaoning%Li%NULL%1,                           Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                           Jing%Liu%NULL%0,                           Asghar%Afshar Jahanshahi%NULL%1,                           Khaled%Nawaser%NULL%1,                           Ali%Yousefi%NULL%1,                           Jizhen%Li%NULL%1,                           Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                           Kun%Wang%NULL%2,                           Lu%Yin%NULL%0,                           Wen-feng%Zhao%NULL%1,                           Qing%Xue%NULL%1,                           Mao%Peng%NULL%1,                           Bao-quan%Min%NULL%1,                           Qing%Tian%NULL%1,                           Hai-xia%Leng%NULL%1,                           Jia-lin%Du%NULL%1,                           Hong%Chang%NULL%1,                           Yuan%Yang%NULL%0,                           Wei%Li%NULL%2,                           Fang-fang%Shangguan%NULL%1,                           Tian-yi%Yan%NULL%1,                           Hui-qing%Dong%NULL%1,                           Ying%Han%NULL%1,                           Yu-ping%Wang%NULL%1,                           Fiammetta%Cosci%NULL%1,                           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                           Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                           Lin%Sun%NULL%1,                           Lan%Zhang%NULL%1,                           Huan%Wang%NULL%1,                           Ajiao%Fan%NULL%1,                           Bin%Yang%NULL%1,                           Wei%Li%NULL%0,                           Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                           Lu%Dong%NULL%1,                           Tao%Wang%NULL%0,                           Chenxin%Yuan%NULL%1,                           Rao%Fu%NULL%1,                           Lei%Zhang%NULL%2,                           Bo%Liu%NULL%1,                           Mingmin%Zhang%NULL%1,                           Yuanyuan%Yin%NULL%1,                           Jiawen%Qin%NULL%1,                           Jennifer%Bouey%NULL%1,                           Min%Zhao%NULL%1,                           Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                           Ayşe%Kurtulmuş%NULL%1,                           Selim%Arpacıoğlu%NULL%1,                           Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                           Gunther%Eysenbach%NULL%1,                           Albert%Wu%NULL%2,                           Albert%Wu%NULL%0,                           Bojana%Knezevic%NULL%1,                           Bradley A%Evanoff%bevanoff@wustl.edu%2,                           Bradley A%Evanoff%bevanoff@wustl.edu%0,                           Jaime R%Strickland%NULL%2,                           Jaime R%Strickland%NULL%0,                           Ann Marie%Dale%NULL%2,                           Ann Marie%Dale%NULL%0,                           Lisa%Hayibor%NULL%2,                           Lisa%Hayibor%NULL%0,                           Emily%Page%NULL%2,                           Emily%Page%NULL%0,                           Jennifer G%Duncan%NULL%2,                           Jennifer G%Duncan%NULL%0,                           Thomas%Kannampallil%NULL%2,                           Thomas%Kannampallil%NULL%0,                           Diana L%Gray%NULL%2,                           Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                           Ranjan%Bhattacharyya%NULL%1,                           Sumita%Bhattacharyya%NULL%1,                           Sukanya%Gupta%NULL%1,                           Soumitra%Das%NULL%1,                           Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                           Xinghuang%Liu%NULL%2,                           Xinghuang%Liu%NULL%0,                           Dongke%Wang%NULL%2,                           Dongke%Wang%NULL%0,                           Yan%Jin%NULL%2,                           Yan%Jin%NULL%0,                           Miao%He%NULL%1,                           Yanling%Ma%NULL%1,                           Xiaolong%Zhao%NULL%1,                           Shuangning%Song%NULL%1,                           Lei%Zhang%NULL%0,                           Xuelian%Xiang%NULL%1,                           Ling%Yang%NULL%0,                           Jun%Song%song111jun@126.com%1,                           Tao%Bai%drbaitao@126.com%4,                           Xiaohua%Hou%houxh@hust.edu.cn%2,                           Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                           Hao%Zhou%haoye320@163.com%1,                           Yan%Zhou%NULL%1,                           Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                           Piyaporn%Apisarnthanarak%NULL%2,                           Piyaporn%Apisarnthanarak%NULL%0,                           Chanida%Siripraparat%NULL%2,                           Chanida%Siripraparat%NULL%0,                           Pavarat%Saengaram%NULL%1,                           Narakorn%Leeprechanon%NULL%1,                           David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                           Davide%Bianchi%NULL%1,                           Francesca%Santi%NULL%1,                           Luigi%Costantini%NULL%1,                           Anna%Odone%NULL%1,                           Carlo%Signorelli%NULL%0,                           Alessandra%Costanza%NULL%1,                           Gianluca%Serafini%NULL%1,                           Mario%Amore%NULL%1,                           Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                            Martín%Gagliardi%NULL%2,                            Martín%Gagliardi%NULL%0,                            Nicolas%Coombes%NULL%1,                            Federico%Landriel%NULL%2,                            Federico%Landriel%NULL%0,                            Carlos%Zanardi%NULL%1,                            Gastón Camino%Willhuber%NULL%1,                            Juan Pablo%Guyot%NULL%1,                            Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%10,                            Nathaniel%Scherer%NULL%10,                            Lambert%Felix%NULL%20,                            Lambert%Felix%NULL%0,                            Hannah%Kuper%NULL%20,                            Hannah%Kuper%NULL%0,                            Jakob%Pietschnig%NULL%20,                            Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention.
+ Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS).
+ From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%.
+ Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89).
+ Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively.
+ The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012].
+ The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001].
+ The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88).
+ The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014].
+ Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff.
+ Medical institutions should strengthen the training of psychological skills of medical staff.
+ Special attention should be paid to the mental health of female nurses.
+</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,   M F% Han%elasticNoEmail%0,   T D% Luo%elasticNoEmail%0,   A K% Ren%elasticNoEmail%0,   X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                            Nathaniel%Scherer%NULL%0,                            Lambert%Felix%NULL%0,                            Lambert%Felix%NULL%0,                            Hannah%Kuper%NULL%0,                            Hannah%Kuper%NULL%0,                            Jakob%Pietschnig%NULL%0,                            Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                            Koffi Mawuse%Guédénon%NULL%2,                            Koffi Mawuse%Guédénon%NULL%0,                            Ayoko Akouavi%Dogbe Foli%NULL%1,                            Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                            Simeng%Ma%NULL%0,                            Ying%Wang%NULL%0,                            Zhongxiang%Cai%NULL%0,                            Jianbo%Hu%NULL%0,                            Ning%Wei%NULL%0,                            Jiang%Wu%NULL%0,                            Hui%Du%NULL%0,                            Tingting%Chen%NULL%0,                            Ruiting%Li%NULL%0,                            Huawei%Tan%NULL%0,                            Lijun%Kang%NULL%0,                            Lihua%Yao%NULL%0,                            Manli%Huang%NULL%0,                            Huafen%Wang%NULL%0,                            Gaohua%Wang%NULL%0,                            Zhongchun%Liu%NULL%0,                            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                            Teresa%Arora%NULL%1,                            Ian%Grey%NULL%1,                            Lorna Kwai Ping%Suen%NULL%1,                            Emma Yun-zhi%Huang%NULL%1,                            Daofan%Li%NULL%1,                            Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                            Youlin%Chen%NULL%1,                            Jianlin%Lv%NULL%1,                            Linlin%Liu%NULL%1,                            Shiqin%Zong%NULL%1,                            Hanxia%Li%NULL%1,                            Hong%Li%NULL%1,                            Massimo%Tusconi.%NULL%2,                            Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                            Hang%Wang%NULL%1,                            Yuxing%Lin%NULL%1,                            Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                            Eman Zmaily%Dahmash%NULL%2,                            Eman Zmaily%Dahmash%NULL%0,                            Rabaa%Al‐Rousan%NULL%2,                            Rabaa%Al‐Rousan%NULL%0,                            Hassan%Alwafi%NULL%1,                            Hamzeh Mohammad%Alrawashdeh%NULL%1,                            Imene%Ghoul%NULL%1,                            Anwer%Abidine%NULL%1,                            Mohammed A.%Bokhary%NULL%1,                            Hadeel T.%AL‐Hadithi%NULL%1,                            Dalia%Ali%NULL%1,                            Rasha%Abuthawabeh%NULL%1,                            Ghada Mohammad%Abdelwahab%NULL%1,                            Yosra J.%Alhartani%NULL%1,                            Haneen%Al Muhaisen%NULL%1,                            Ayah%Dagash%NULL%1,                            Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                            Zahra%Bostani%NULL%1,                            Saman%Maroufizadeh%NULL%1,                            Atefeh%Ghanbari%NULL%1,                            Maryam%Khoshbakht%NULL%1,                            Seyed Amirhossein%Alavi%NULL%1,                            Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                            Le%Shi%NULL%2,                            Le%Shi%NULL%0,                            Jiahui%Deng%NULL%1,                            Jiajia%Liu%NULL%1,                            Li%Zhang%NULL%0,                            Suying%Wu%NULL%1,                            Yimiao%Gong%NULL%1,                            Weizhen%Huang%NULL%1,                            Kai%Yuan%NULL%1,                            Wei%Yan%NULL%1,                            Yankun%Sun%NULL%1,                            Maosheng%Ran%NULL%1,                            Yanping%Bao%NULL%1,                            Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                            Valentina%Socci%NULL%0,                            Francesca%Pacitti%NULL%0,                            Giorgio%Di Lorenzo%NULL%0,                            Antinisca%Di Marco%NULL%0,                            Alberto%Siracusano%NULL%0,                            Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Salman%null%1,                             M. H.% Raza%null%1,                             Z. U.% Mustafa%null%1,                             T. M.% Khan%null%1,                             N.% Asif%null%1,                             H.% Tahir%null%1,                             N.% Shehzadi%null%1,                             K. % Hussain%null%1,         M.%Salman%null%1,         M. H.% Raza%null%1,         Z. U.% Mustafa%null%1,         T. M.% Khan%null%1,         N.% Asif%null%1,         H.% Tahir%null%1,         N.% Shehzadi%null%1,         K. % Hussain%null%1]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                            Franchesca%Diaz%NULL%1,                            Nathalie%Moise%NULL%1,                            D. Edmund%Anstey%NULL%1,                            Siqin%Ye%NULL%1,                            Sachin%Agarwal%NULL%1,                            Jeffrey L.%Birk%NULL%1,                            Daniel%Brodie%NULL%0,                            Diane E.%Cannone%NULL%1,                            Bernard%Chang%NULL%1,                            Jan%Claassen%NULL%2,                            Talea%Cornelius%NULL%1,                            Lilly%Derby%NULL%1,                            Melissa%Dong%NULL%1,                            Raymond C.%Givens%NULL%1,                            Beth%Hochman%NULL%1,                            Shunichi%Homma%NULL%1,                            Ian M.%Kronish%NULL%1,                            Sung A.J.%Lee%NULL%1,                            Wilhelmina%Manzano%NULL%1,                            Laurel E.S.%Mayer%NULL%1,                            Cara L.%McMurry%NULL%1,                            Vivek%Moitra%NULL%1,                            Patrick%Pham%NULL%1,                            LeRoy%Rabbani%NULL%1,                            Reynaldo R.%Rivera%NULL%1,                            Allan%Schwartz%NULL%2,                            Joseph E.%Schwartz%NULL%1,                            Peter A.%Shapiro%NULL%1,                            Kaitlin%Shaw%NULL%1,                            Alexandra M.%Sullivan%NULL%1,                            Courtney%Vose%NULL%1,                            Lauren%Wasson%NULL%1,                            Donald%Edmondson%NULL%1,                            Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                            Wenning%Fu%NULL%0,                            Xiaoran%Liu%NULL%0,                            Zhiqian%Luo%NULL%0,                            Rixing%Wang%NULL%0,                            Ning%Zhou%NULL%0,                            Shijiao%Yan%NULL%0,                            Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                            Hong-Tao%Guo%NULL%1,                            Xue-Wei%Du%NULL%1,                            Wen%Song%NULL%1,                            Chang%Lu%NULL%1,                            Wen-Nv%Hao%NULL%1,                            Maria%Kapritsou.%NULL%3,                            Maria%Kapritsou.%NULL%0,                            Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                            Xiaobin%Zhu%NULL%1,                            Shuai%Fu%NULL%1,                            Yugang%Hu%NULL%1,                            Xiaoning%Li%NULL%1,                            Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                            Jing%Liu%NULL%0,                            Asghar%Afshar Jahanshahi%NULL%1,                            Khaled%Nawaser%NULL%1,                            Ali%Yousefi%NULL%1,                            Jizhen%Li%NULL%1,                            Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                            Kun%Wang%NULL%2,                            Lu%Yin%NULL%0,                            Wen-feng%Zhao%NULL%1,                            Qing%Xue%NULL%1,                            Mao%Peng%NULL%1,                            Bao-quan%Min%NULL%1,                            Qing%Tian%NULL%1,                            Hai-xia%Leng%NULL%1,                            Jia-lin%Du%NULL%1,                            Hong%Chang%NULL%1,                            Yuan%Yang%NULL%0,                            Wei%Li%NULL%2,                            Fang-fang%Shangguan%NULL%1,                            Tian-yi%Yan%NULL%1,                            Hui-qing%Dong%NULL%1,                            Ying%Han%NULL%1,                            Yu-ping%Wang%NULL%1,                            Fiammetta%Cosci%NULL%1,                            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                            Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                            Lin%Sun%NULL%1,                            Lan%Zhang%NULL%1,                            Huan%Wang%NULL%1,                            Ajiao%Fan%NULL%1,                            Bin%Yang%NULL%1,                            Wei%Li%NULL%0,                            Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                            Lu%Dong%NULL%1,                            Tao%Wang%NULL%0,                            Chenxin%Yuan%NULL%1,                            Rao%Fu%NULL%1,                            Lei%Zhang%NULL%2,                            Bo%Liu%NULL%1,                            Mingmin%Zhang%NULL%1,                            Yuanyuan%Yin%NULL%1,                            Jiawen%Qin%NULL%1,                            Jennifer%Bouey%NULL%1,                            Min%Zhao%NULL%1,                            Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                            Ayşe%Kurtulmuş%NULL%1,                            Selim%Arpacıoğlu%NULL%1,                            Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                            Gunther%Eysenbach%NULL%1,                            Albert%Wu%NULL%2,                            Albert%Wu%NULL%0,                            Bojana%Knezevic%NULL%1,                            Bradley A%Evanoff%bevanoff@wustl.edu%2,                            Bradley A%Evanoff%bevanoff@wustl.edu%0,                            Jaime R%Strickland%NULL%2,                            Jaime R%Strickland%NULL%0,                            Ann Marie%Dale%NULL%2,                            Ann Marie%Dale%NULL%0,                            Lisa%Hayibor%NULL%2,                            Lisa%Hayibor%NULL%0,                            Emily%Page%NULL%2,                            Emily%Page%NULL%0,                            Jennifer G%Duncan%NULL%2,                            Jennifer G%Duncan%NULL%0,                            Thomas%Kannampallil%NULL%2,                            Thomas%Kannampallil%NULL%0,                            Diana L%Gray%NULL%2,                            Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                            Ranjan%Bhattacharyya%NULL%1,                            Sumita%Bhattacharyya%NULL%1,                            Sukanya%Gupta%NULL%1,                            Soumitra%Das%NULL%1,                            Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                            Xinghuang%Liu%NULL%2,                            Xinghuang%Liu%NULL%0,                            Dongke%Wang%NULL%2,                            Dongke%Wang%NULL%0,                            Yan%Jin%NULL%2,                            Yan%Jin%NULL%0,                            Miao%He%NULL%1,                            Yanling%Ma%NULL%1,                            Xiaolong%Zhao%NULL%1,                            Shuangning%Song%NULL%1,                            Lei%Zhang%NULL%0,                            Xuelian%Xiang%NULL%1,                            Ling%Yang%NULL%0,                            Jun%Song%song111jun@126.com%1,                            Tao%Bai%drbaitao@126.com%4,                            Xiaohua%Hou%houxh@hust.edu.cn%2,                            Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                            Hao%Zhou%haoye320@163.com%1,                            Yan%Zhou%NULL%1,                            Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                            Piyaporn%Apisarnthanarak%NULL%2,                            Piyaporn%Apisarnthanarak%NULL%0,                            Chanida%Siripraparat%NULL%2,                            Chanida%Siripraparat%NULL%0,                            Pavarat%Saengaram%NULL%1,                            Narakorn%Leeprechanon%NULL%1,                            David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                            Davide%Bianchi%NULL%1,                            Francesca%Santi%NULL%1,                            Luigi%Costantini%NULL%1,                            Anna%Odone%NULL%1,                            Carlo%Signorelli%NULL%0,                            Alessandra%Costanza%NULL%1,                            Gianluca%Serafini%NULL%1,                            Mario%Amore%NULL%1,                            Andrea%Aguglia%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3685,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3510,7 +3717,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3536,22 +3743,22 @@
         <v>43910.0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>945</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>979</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>948</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>949</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
@@ -3574,7 +3781,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3606,7 +3813,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>917</v>
+        <v>982</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3638,7 +3845,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>918</v>
+        <v>983</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -3670,7 +3877,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>919</v>
+        <v>984</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -3702,7 +3909,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -3734,7 +3941,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>920</v>
+        <v>985</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3766,7 +3973,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3798,7 +4005,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>921</v>
+        <v>986</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3830,7 +4037,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>922</v>
+        <v>987</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -3862,7 +4069,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>923</v>
+        <v>988</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3926,7 +4133,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>924</v>
+        <v>989</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3958,7 +4165,7 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>925</v>
+        <v>990</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -3990,7 +4197,7 @@
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>926</v>
+        <v>991</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -4022,7 +4229,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>927</v>
+        <v>992</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -4054,7 +4261,7 @@
         <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>928</v>
+        <v>993</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -4086,7 +4293,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -4118,7 +4325,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -4150,7 +4357,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -4182,7 +4389,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>929</v>
+        <v>994</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -4214,7 +4421,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -4246,7 +4453,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>930</v>
+        <v>995</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -4278,7 +4485,7 @@
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>931</v>
+        <v>996</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -4310,7 +4517,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>932</v>
+        <v>997</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -4342,7 +4549,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>933</v>
+        <v>998</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -4374,7 +4581,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>934</v>
+        <v>999</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -4406,7 +4613,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>935</v>
+        <v>1000</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -4438,7 +4645,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>936</v>
+        <v>1001</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -4470,7 +4677,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>937</v>
+        <v>1002</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -4502,7 +4709,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -4534,7 +4741,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>938</v>
+        <v>1003</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -4566,7 +4773,7 @@
         <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>939</v>
+        <v>1004</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -4598,7 +4805,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>940</v>
+        <v>1005</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -4630,7 +4837,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
@@ -4662,7 +4869,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>941</v>
+        <v>1006</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -4694,7 +4901,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>942</v>
+        <v>1007</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -4726,7 +4933,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>916</v>
+        <v>981</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
